--- a/assets/LadenburgConsensuStatements.xlsx
+++ b/assets/LadenburgConsensuStatements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Arbeit/12-TUM/_Misc/2024-04_Ladenburg_Roundtable/LCS/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009469B6-A562-CE4F-9F7C-5CEDFAEE0763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DBCD22-7381-3D4C-85D5-BAA11D467BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="760" windowWidth="16740" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6220" yWindow="760" windowWidth="28340" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="4" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>Individual differences in light sensitivity are influenced by factors such as age, genetics, and behavior.</t>
   </si>
   <si>
-    <t>Deutsche Übersetzung</t>
-  </si>
-  <si>
     <t>Es gibt erhebliche individuelle Unterschiede bei den physiologischen Reaktionen auf Licht</t>
   </si>
   <si>
@@ -718,6 +715,9 @@
   </si>
   <si>
     <t>Kontextinformation</t>
+  </si>
+  <si>
+    <t>German</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F22FC8-674F-B042-9987-EED3C133DD60}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -1617,7 +1617,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1626,18 +1626,18 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1646,18 +1646,18 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1666,18 +1666,18 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1686,18 +1686,18 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1706,38 +1706,38 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="289" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1746,18 +1746,18 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1766,18 +1766,18 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1786,18 +1786,18 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1806,18 +1806,18 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1826,38 +1826,38 @@
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="221" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1866,18 +1866,18 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1886,18 +1886,18 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1906,18 +1906,18 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1926,18 +1926,18 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="306" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1946,18 +1946,18 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="340" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1969,15 +1969,15 @@
         <v>28</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -1989,15 +1989,15 @@
         <v>29</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2006,18 +2006,18 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2026,18 +2026,18 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="F21" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="404" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -2052,12 +2052,12 @@
         <v>32</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="306" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -2066,18 +2066,18 @@
         <v>23</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -2086,18 +2086,18 @@
         <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -2106,18 +2106,18 @@
         <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="F25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -2126,18 +2126,18 @@
         <v>26</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="F26" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -2149,10 +2149,10 @@
         <v>30</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2178,464 +2178,464 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="163" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="187" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="170" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="1">
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2647,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0227B8-6517-D949-81F0-BC1F8DC37DAA}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.25"/>
@@ -2659,50 +2659,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="119" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="84" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="88" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="147" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/assets/LadenburgConsensuStatements.xlsx
+++ b/assets/LadenburgConsensuStatements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Arbeit/12-TUM/_Misc/2024-04_Ladenburg_Roundtable/LCS/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3639CF11-7674-CD40-81F6-976D6CFBA07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2E39E0-81DA-D84D-8DB8-7F0FE97B7086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="680" windowWidth="20940" windowHeight="21660" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8960" yWindow="680" windowWidth="25380" windowHeight="21660" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="4" r:id="rId1"/>
@@ -22,8 +22,13 @@
     <sheet name="Italian" sheetId="10" r:id="rId7"/>
     <sheet name="French" sheetId="11" r:id="rId8"/>
     <sheet name="Chinese" sheetId="12" r:id="rId9"/>
-    <sheet name="Key Messages" sheetId="2" r:id="rId10"/>
-    <sheet name="Contributors" sheetId="6" r:id="rId11"/>
+    <sheet name="Dutch" sheetId="14" r:id="rId10"/>
+    <sheet name="Persian" sheetId="15" r:id="rId11"/>
+    <sheet name="Danish" sheetId="16" r:id="rId12"/>
+    <sheet name="Czech" sheetId="18" r:id="rId13"/>
+    <sheet name="Key Messages" sheetId="2" r:id="rId14"/>
+    <sheet name="Contributors" sheetId="6" r:id="rId15"/>
+    <sheet name="Phrasetable" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc192690236" localSheetId="1">German!#REF!</definedName>
@@ -45,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="1470">
   <si>
     <t>Number</t>
   </si>
@@ -5510,13 +5515,1750 @@
   </si>
   <si>
     <t>Informations contextuelles</t>
+  </si>
+  <si>
+    <t>Chinese (Simplified)</t>
+  </si>
+  <si>
+    <t>Persian (Farsi)</t>
+  </si>
+  <si>
+    <t>فصل</t>
+  </si>
+  <si>
+    <t>شماره</t>
+  </si>
+  <si>
+    <t>بیانیه</t>
+  </si>
+  <si>
+    <t>بیانیه ساده‌شده</t>
+  </si>
+  <si>
+    <t>اطلاعات زمینه‌ای</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Hoofdstuk</t>
+  </si>
+  <si>
+    <t>Verklaring</t>
+  </si>
+  <si>
+    <t>Vereenvoudigde verklaring</t>
+  </si>
+  <si>
+    <t>Contextuele informatie</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>Erklæring</t>
+  </si>
+  <si>
+    <t>Forenklet erklæring</t>
+  </si>
+  <si>
+    <t>Kontekstuelle oplysninger</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>Kapitola</t>
+  </si>
+  <si>
+    <t>Číslo</t>
+  </si>
+  <si>
+    <t>Prohlášení</t>
+  </si>
+  <si>
+    <t>Zjednodušené prohlášení</t>
+  </si>
+  <si>
+    <t>Kontekstové informace</t>
+  </si>
+  <si>
+    <t>Kervezee</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>l.kervezee@lumc.nl</t>
+  </si>
+  <si>
+    <t>Group of Circadian Medicine, Leiden University Medical Center, Leiden, the Netherlands</t>
+  </si>
+  <si>
+    <t>0000-0002-6062-9164</t>
+  </si>
+  <si>
+    <t>van Duijnhoven</t>
+  </si>
+  <si>
+    <t>Juliëtte</t>
+  </si>
+  <si>
+    <t>j.v.duijnhoven1@tue.nl</t>
+  </si>
+  <si>
+    <t>Building Lighting group, Eindhoven University of Technology, Eindhoven, The Netherlands</t>
+  </si>
+  <si>
+    <t>0000-0003-1145-7033</t>
+  </si>
+  <si>
+    <t>de Vries</t>
+  </si>
+  <si>
+    <t>Sietse</t>
+  </si>
+  <si>
+    <t>s.w.d.vries@tue.nl</t>
+  </si>
+  <si>
+    <t>0009-0009-2534-4129</t>
+  </si>
+  <si>
+    <t>De Deyne</t>
+  </si>
+  <si>
+    <t>Manon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master in Rehabilitation Sciences and Physiotherapy in Internal Disorders </t>
+  </si>
+  <si>
+    <t>manon.de.deyne@vub.be </t>
+  </si>
+  <si>
+    <t>Pain In Motion Research Group (PAIN), Vrije Universiteit Brussel; MusculoSkeletal Rehabilitation Research Group (MSR), KU Leuven; Research Foundation Flanders (FWO)</t>
+  </si>
+  <si>
+    <t>0009-0002-5740-8982 </t>
+  </si>
+  <si>
+    <t>De Baets</t>
+  </si>
+  <si>
+    <t>Liesbet</t>
+  </si>
+  <si>
+    <t>liesbet.Debaets@kuleuven.be</t>
+  </si>
+  <si>
+    <t>MusculoSkeletal Rehabilitation Research Group (MSR), KU Leuven MusculoSkeletal Rehabilitation Research Group (MSR), KU Leuven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gordijn </t>
+  </si>
+  <si>
+    <t>Marijke</t>
+  </si>
+  <si>
+    <t>marijke.gordijn@chronoatwork.com</t>
+  </si>
+  <si>
+    <t>Chrono@Work &amp; University of Groningen, Groningen, The Netherlands</t>
+  </si>
+  <si>
+    <t>0000-0002-1370-2090</t>
+  </si>
+  <si>
+    <t>0000-0001-9521-8085</t>
+  </si>
+  <si>
+    <t>Licht is een krachtig signaal voor het lichaam, omdat het onze circadiane ritmes, slaap, stemming en denkprestaties beïnvloedt.</t>
+  </si>
+  <si>
+    <t>Het gaat niet alleen om hoe fel het licht is: wanneer en aan wat voor licht je wordt blootgesteld is van belang.</t>
+  </si>
+  <si>
+    <t>Daglicht in de ochtend en overdag ondersteunt verschillende aspecten van de gezondheid, terwijl licht ’s nachts verstorend kan werken.</t>
+  </si>
+  <si>
+    <t>Lage lichtniveaus in de avond, en donkerte tijdens het slapen, maken deel uit van een gezond licht-donker ritme.</t>
+  </si>
+  <si>
+    <t>Rekening houden met de blootstelling aan licht is onderdeel van een gezonde leefstijl, net zoals voeding, beweging en slaapgewoonten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wetenschappelijke en maatschappelijke belangstelling voor de effecten van licht op biologische ritmes, slaap, alertheid, stemming en gezondheid neemt toe. Dankzij technologische en wetenschappelijke vooruitgang kunnen onderzoekers steeds nauwkeuriger de invloed van verschillende golflengtes en intensiteiten bestuderen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wetenschappers ontdekken voortdurend hoe licht lichaamsfuncties en de algemene gezondheid beïnvloedt. </t>
+  </si>
+  <si>
+    <t>De fysiologische effecten van licht vormen een actief onderzoeksgebied.</t>
+  </si>
+  <si>
+    <t>De meeste studies naar de fysiologische effecten van licht hebben gefocust op een beperkt aantal populaties (specifieke leeftijdsgroepen, etniciteiten of gezondheidsproblemen). Het is belangrijk dat toekomstig onderzoek zich richt op meer diverse populaties verspreid over meer geografische regio’s.</t>
+  </si>
+  <si>
+    <t>Er zijn meer studies nodig om te begrijpen hoe licht de gezondheid beïnvloedt in verschillende groepen mensen.</t>
+  </si>
+  <si>
+    <t>Er is behoefte aan studies naar de fysiologische effecten van licht waarin een brede waaier aan onderzoekspopulaties wordt meegenomen.</t>
+  </si>
+  <si>
+    <t>Er is behoefte aan studies die blootstelling aan licht in de echte wereld onderzoeken.</t>
+  </si>
+  <si>
+    <t>Het meeste onderzoek naar de effecten van licht op het lichaam is in het laboratorium uitgevoerd.</t>
+  </si>
+  <si>
+    <t>Het merendeel van de studies naar de fysiologische effecten van licht is uitgevoerd in het laboratorium.</t>
+  </si>
+  <si>
+    <t>Factoren zoals leeftijd, genetica en gedrag beïnvloeden individuele verschillen in lichtgevoeligheid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoe mensen op licht reageren kan sterk variëren. </t>
+  </si>
+  <si>
+    <t>Er zijn aanzienlijke individuele verschillen in de fysiologische reactie op licht.</t>
+  </si>
+  <si>
+    <t>Met het ouder worden, worden de lenzen van de ogen minder transparant, waardoor de reactie van het lichaam op blootstelling aan licht kan afnemen.</t>
+  </si>
+  <si>
+    <t>Naarmate mensen ouder worden, kunnen de lenzen van de ogen minder transparant worden, wat de invloed van licht op de interne klok en de slaap kan verkleinen.</t>
+  </si>
+  <si>
+    <t>Leeftijd kan de fysiologische effecten van licht op de mens beïnvloeden, omdat minder licht het netvlies bereikt naarmate je ouder wordt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een regelmatig patroon van fel licht overdag en donkerte 's nachts gaat gepaard met betere fysieke en mentale gezondheid. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een gezonde dagelijkse routine omvat fel licht overdag en donkerte 's nachts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een gezond patroon van dagelijkse blootstelling aan licht omvat een ritme van fel licht en donkerte. </t>
+  </si>
+  <si>
+    <r>
+      <t>Onderzoek heeft laten zien dat blootstelling aan fel licht depressieve symptomen kan verbeteren bij mensen met een seizoensgebonden</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">stemmingsstoornis. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokters kunnen lichttherapie voorschrijven als een behandeling voor winterdepressie en andere aandoeningen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het volgen van een medisch voorgeschreven protocol voor blootstelling aan fel licht in de ochtend kan leiden tot stemmingsverbeteringen voor mensen met bepaalde klinische diagnoses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blootstelling aan hogere lichtniveaus overdag vermindert fragmentatie van de slaap (wakker worden tijdens de nacht) en bevordert de diepe slaap 's nachts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blootstelling aan hogere lichtintensiteiten overdag kan de slaap verbeteren. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hogere lichtniveaus overdag kunnen de slaapkwaliteit van de daaropvolgende nacht verbeteren. </t>
+  </si>
+  <si>
+    <t>Blootstelling aan natuurlijk daglicht (zonlicht) of sterk kunstlicht, mits dit niet verblindend is, kan stress verminderen en de emotionele balans verbeteren.</t>
+  </si>
+  <si>
+    <t>Fel licht overdag kan de stemming verbeteren.</t>
+  </si>
+  <si>
+    <t>Hogere lichtniveaus overdag kunnen de stemming verbeteren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blootstelling aan licht in de avond geeft het signaal aan het lichaam dat het nog dag is. Dit zorgt voor verhoogde alertheid en schuift de interne klok naar een later tijdstip. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blootstelling aan licht in de avond maakt in slaap vallen moeilijker. </t>
+  </si>
+  <si>
+    <t>Hogere lichtniveaus in de avond kunnen ervoor zorgen dat je langer nodig hebt om in slaap te vallen</t>
+  </si>
+  <si>
+    <t>De reactie van de ipRGCs is waarschijnlijk afhankelijk van het tijdstip van de dag en van circadiane factoren.</t>
+  </si>
+  <si>
+    <t>De lichamelijke respons op licht is afhankelijk van de hoeveel licht en het tijdstip waarop dit licht de ipRGCs in het netvlies bereikt.</t>
+  </si>
+  <si>
+    <t>Wat deze fysiologische reacties op licht bepaalt, is voornamelijk de hoeveelheid licht dat op een bepaald moment het netvlies bereikt en de ipRGCs stimuleert.</t>
+  </si>
+  <si>
+    <t>Onder bepaalde omstandigheden kan blootstelling aan fel licht tijdens de dag en de nacht de alertheid en denkprestaties verbeteren.</t>
+  </si>
+  <si>
+    <t>In bepaalde situaties kan licht de alertheid en ons denkvermogen verbeteren.</t>
+  </si>
+  <si>
+    <t>Licht kan onder bepaalde omstandigheden ook de alertheid en cognitieve functie verbeteren.</t>
+  </si>
+  <si>
+    <t>Licht geeft de hersenen een signaal om actief te worden.  Licht in de ochtend versnelt de interne klok (naar een eerder 'tijdstip'), terwijl licht in de avond deze vertraagt (naar een later 'tijdstip').</t>
+  </si>
+  <si>
+    <t>Ochtendlicht stimuleert een vroegere bed- en ontwaaktijd, terwijl licht in de avond het naar bed gaan en opstaan naar later verschuift.</t>
+  </si>
+  <si>
+    <t>Licht in de ochtend kan de circadiane klok naar een vroeger tijdstip schuiven, licht in de avond schuift de klok naar een later tijdstip.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blootstelling aan licht beïnvloedt slaap, hormoonafgifte, metabolisme en alertheid. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licht beïnvloedt de biologische klok in ons lichaam, die de slaap-waak patronen en andere dagelijkse ritmes stuurt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licht heeft een directe invloed op de biologische klok in de hersenen en beïnvloedt zo de slaap-waak cycli en andere dagelijkse fysiologische ritmes.  </t>
+  </si>
+  <si>
+    <t>Licht helpt bij het reguleren van de biologische ritmes in ons lichaam. Dit zorgt ervoor dat biologische processen op het juiste moment starten en stoppen.</t>
+  </si>
+  <si>
+    <r>
+      <t>Licht is het belangrijkste signaal dat de</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">biologische klok in ons lichaam in de pas laat lopen met het dag-nachtritme van de zon. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Licht is het belangrijkste signaal dat ervoor zorgt dat het circadiane systeem in de pas loopt met de 24-uursritmes in de omgeving. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ipRGCs bevatten melanopsine (een lichtgevoelig eiwit). Als ipRGCs fel licht detecteren wordt melanopsine geactiveerd. Deze activatie zet een neuronale route in gang, die leidt tot het </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">blokkeren van de melatonineproductie in de pijnappelklier. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Licht remt de productie van melatonine (een hormoon dat het slaap-waakritme reguleert), vooral tijdens de avond en nacht. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licht onderdrukt de productie van melatonine in de avond en nacht, voornamelijk via de ipRGCs. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ipRGCs sturen elektrische signalen naar </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>gebieden in de hersenen die slaap-waakritmes, alertheid en stemming reguleren.</t>
+    </r>
+  </si>
+  <si>
+    <t>Als ipRGCs licht detecteren, sturen ze signalen naar de hersenen om verschillende lichaamsfuncties te reguleren.</t>
+  </si>
+  <si>
+    <t>De intrinsieke lichtgevoelige retinale ganglioncellen (ipRGCs) zetten licht om in signalen die vele fysiologische functies beïnvloeden.</t>
+  </si>
+  <si>
+    <t>Staafjes zijn heel gevoelig voor lage lichtniveaus. Ze zijn essentieel om 's nachts te kunnen zien.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staafjes helpen ons om vormen en details te zien onder schemerlicht. </t>
+  </si>
+  <si>
+    <t>De staafjes zorgen ervoor dat je eenvoudige ruimtelijke details kan zien onder weinig licht.</t>
+  </si>
+  <si>
+    <t>Kegeltjes zijn gespecialiseerde cellen in het netvlies. Ze zijn vernoemd naar hun vorm (hoe ze eruitzien onder een microscoop). De grootste dichtheid van kegeltjes bevindt zich in de fovea (in het midden van het netvlies).</t>
+  </si>
+  <si>
+    <t>Kegeltjes helpen ons om kleuren, beweging en objecten te zien onder fel licht.</t>
+  </si>
+  <si>
+    <t>De kegeltjes zorgen ervoor dat je kleur, beweging en ruimtelijke details onder felle lichtcondities kan zien.</t>
+  </si>
+  <si>
+    <t>Het netvlies in het menselijk oog bevat lichtgevoelige cellen die licht omzetten in signalen voor de hersenen. Deze cellen worden kegeltjes, staafjes en intrinsieke lichtgevoelige retinale ganglioncellen (ipRGCs) genoemd.</t>
+  </si>
+  <si>
+    <t>Het netvlies in het oog bevat cellen die ervoor zorgen dat wij verschillende kleuren kunnen waarnemen.</t>
+  </si>
+  <si>
+    <t>Het menselijk oog bevat het netvlies, waarin zich meerdere typen lichtgevoelige cellen bevinden die variëren in hun reacties op verschillende golflengtes.</t>
+  </si>
+  <si>
+    <t>Als zonlicht de atmosfeer binnendringt, wordt blauw licht meer verstrooid dan andere golflengtes. Hierdoor ziet de lucht er blauw uit.</t>
+  </si>
+  <si>
+    <t>De kleur, intensiteit, en het patroon van daglicht veranderen over de dag, met het seizoen en met het weer.</t>
+  </si>
+  <si>
+    <t>De eigenschappen van daglicht (spectrum, intensiteit en ruimtelijke verdeling) variëren gedurende de dag en het jaar en door weersomstandigheden.</t>
+  </si>
+  <si>
+    <t>Lichtbronnen zijn gebaseerd op verschillende technologieën die diverse materialen gebruiken om elektriciteit om te zetten naar licht. Deze materialen zorgen ervoor dat de lichtintensiteit op verschillende manieren over de verschillende golflengtes wordt verdeeld. Deze spreiding van het licht over de golflengtes staat bekend als de spectrale verdeling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verschillende lichtbronnen produceren licht op verschillende manieren, waarbij ze unieke golflengtes of kleuren creëren.
+</t>
+  </si>
+  <si>
+    <t>Verschillende elektrische lichtbronnen (bijvoorbeeld LED of TL) produceren verschillende spectra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daglicht, een combinatie van direct zonlicht en gereflecteerd hemellicht, bevat het volledige zichtbare spectrum en ook golflengtes daarbuiten. De spectrale samenstelling van daglicht varieert afhankelijk van het tijdstip van de dag en de weersomstandigheden. Dit beïnvloedt de waargenomen kleur van het daglicht. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daglicht heeft een breed bereik van energie over meerdere golflengtes - het kan worden opgesplitst in alle kleuren van de regenboog. </t>
+  </si>
+  <si>
+    <t>Daglicht wordt gekarakteriseerd door een breed spectrum, waarbij veel energie verdeeld is over vele golflengtes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een lichtbron kan worden beschreven aan de hand van het uitgestraalde vermogen per golflengte. Dit vermogen wordt intensiteit genoemd. Terwijl natuurkundigen deze intensiteit meten, onderzoeken wetenschappers in de biologie en psychologie hoe deze intensiteit verschillende processen beïnvloedt. </t>
+  </si>
+  <si>
+    <t>We kunnen lichtblootstelling meten door de lichtintensiteit vast te stellen in verschillende golflengtes</t>
+  </si>
+  <si>
+    <t>Lichtblootstelling kan worden beschreven door de intensiteit: de totale hoeveelheid energie binnen het golflengtebereik van 380 tot 780 nanometer, gewogen volgens een relevante gevoeligheidsfunctie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zonlicht neemt toe van zonsopkomst tot het middaguur en neemt af richting de avond. Afhankelijk van de locatie, kan de hoeveelheid licht gedurende een dag sterk verschillen tussen de zomer en winter. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De hoeveelheid licht om ons heen (of de hoeveelheid waaraan we blootgesteld worden) verandert zodra we verplaatsen tussen binnen- en buitenruimtes, gedurende de dag en met het seizoen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het patroon van iemands lichtblootstelling over de dag en het jaar kan nogal complex zijn en hangt af van waar iemand is en wat iemand doet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wanneer we verschillende kleuren zien, nemen we eigenlijk verschillende golflengtes van het licht waar. Korte golflengtes lijken violet, terwijl langere golflengtes indigo, blauw, groen, geel, oranje en rood lijken. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wit licht bestaat uit meerdere golflengtes, die we elk afzonderlijk waarnemen als kleuren. </t>
+  </si>
+  <si>
+    <t>Licht kan worden beschreven aan de hand van het spectrum: het geeft aan hoeveel energie er aanwezig is per golflengte in het zichtbare bereik (van ongeveer 380 tot 780 nanometer</t>
+  </si>
+  <si>
+    <t>نور یک سیگنال قدرتمند برای بدن است، زیرا بر ریتم‌های شبانه‌روزی، خواب، خلق‌وخو و عملکرد شناختی ما تأثیر می‌گذارد.</t>
+  </si>
+  <si>
+    <t>موضوع فقط شدت نور نیست، بلکه زمان و نوع نور نیز اهمیت دارد.</t>
+  </si>
+  <si>
+    <t>نور خورشید در ساعات صبح و در طول روز از جنبه‌های مختلف سلامت پشتیبانی می‌کند، در حالی‌که نور در شب می‌تواند اختلال‌زا باشد.</t>
+  </si>
+  <si>
+    <t>شدت نور کم در عصر و تاریکی در هنگام خواب بخشی از یک ریتم سالم روشنایی–تاریکی هستند.</t>
+  </si>
+  <si>
+    <t>مدیریت مواجهه با نور، بخشی از سبک زندگی سالم است، دقیقا مانند تغذیه، ورزش و بهداشت خواب.</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>Fazlali</t>
+  </si>
+  <si>
+    <t>Fatemeh</t>
+  </si>
+  <si>
+    <t>fatemeh.fazlali@epfl.ch</t>
+  </si>
+  <si>
+    <t>Postdoc researcher at EPFL</t>
+  </si>
+  <si>
+    <t>0000-0001-7725-7742</t>
+  </si>
+  <si>
+    <t>Tabandeh</t>
+  </si>
+  <si>
+    <t>Niloufar</t>
+  </si>
+  <si>
+    <t>niloufar.tabandehsaravi@tum.de</t>
+  </si>
+  <si>
+    <t>PhD candidate at TUM</t>
+  </si>
+  <si>
+    <t>0000-0002-7971-8589</t>
+  </si>
+  <si>
+    <t>علاقه علمی و عمومی به اثرات نور بر ریتم‌های زیستی، خواب، هوشیاری، خلق‌وخو و سلامت در حال افزایش است. پیشرفت‌های فناوری و علمی، امکان مطالعه دقیق‌تر طول‌موج‌ها و شدت‌های مختلف نور را برای پژوهشگران فراهم کرده است.</t>
+  </si>
+  <si>
+    <t>دانشمندان همچنان در حال بررسی چگونگی تأثیرات نور بر عملکردهای بدن و سلامت کلی هستند.</t>
+  </si>
+  <si>
+    <t>اثرات فیزیولوژیکی نور یک زمینه پژوهشی فعال به‌شمار می‌رود.</t>
+  </si>
+  <si>
+    <t>تحقیقات مربوط به اثرات غیر بینایی نور</t>
+  </si>
+  <si>
+    <t>بیشتر مطالعات در زمینه اثرات فیزیولوژیکی نور بر گروه‌های محدودی از افراد (از نظر سن، قومیت یا وضعیت سلامت) متمرکز بوده‌اند. انجام پژوهش‌هایی در آینده با جمعیت‌های متنوع‌تر و در مناطق جغرافیایی گسترده‌تر اهمیت زیادی دارد.</t>
+  </si>
+  <si>
+    <t>برای درک تأثیرات نور بر سلامت در گروه‌های مختلف جمعیتی، پژوهش‌های بیشتری مورد نیاز است.</t>
+  </si>
+  <si>
+    <t>نیاز به مطالعاتی وجود دارد که اثرات فیزیولوژیکی نور را در میان جمعیت‌های وسیع تری بررسی کنند.</t>
+  </si>
+  <si>
+    <t>انجام مطالعاتی که مواجهه با نور را در شرایط واقعی زندگی بررسی کنند، ضروری است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اغلب پژوهش‌ها درباره تأثیر نور بر بدن در محیط آزمایشگاه صورت گرفته‌اند.</t>
+  </si>
+  <si>
+    <t>بیشتر مطالعات درباره اثرات فیزیولوژیکی نور در شرایط آزمایشگاهی انجام شده‌اند.</t>
+  </si>
+  <si>
+    <t>تفاوت‌های فردی در حساسیت به نور تحت تأثیر عواملی مانند سن، ژنتیک و رفتار قرار دارند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> واکنش افراد به نور می‌تواند به‌طور قابل‌ توجهی متفاوت باشد.</t>
+  </si>
+  <si>
+    <t>تفاوت‌های فردی قابل‌ توجهی در پاسخ فیزیولوژیکی به نور وجود دارد.</t>
+  </si>
+  <si>
+    <t>عوامل مؤثر بر اثرات غیر بینایی نور</t>
+  </si>
+  <si>
+    <t>با بالا رفتن سن، عدسی چشم شفافیت کمتری پیدا می‌کند و ممکن است پاسخ بدن به نور دریافتی را کاهش دهد.</t>
+  </si>
+  <si>
+    <t>با افزایش سن، عدسی‌های چشم شفافیت خود را از دست می‌دهند، که این امر می‌تواند اثر نور بر ساعت درونی بدن و خواب را کاهش دهد.</t>
+  </si>
+  <si>
+    <t>سن می‌تواند بر اثرات فیزیولوژیکی نور در انسان تأثیر بگذارد، از آنجایی که با افزایش سن، مقدار نوری که به شبکیه می‌رسد کاهش می‌یابد.</t>
+  </si>
+  <si>
+    <t>حفظ الگوی منظم دریافت نور شدید در طول روز و تاریکی در شب با سلامتی جسمی و روانی بهتر مرتبط است.</t>
+  </si>
+  <si>
+    <t>یک برنامه روزانه سالم شامل نور شدید در طول روز و تاریکی در شب است.</t>
+  </si>
+  <si>
+    <t>الگوی سالم مواجهه با نور روزانه شامل ریتمی از نور شدید و تاریکی در هر روز است.</t>
+  </si>
+  <si>
+    <t>تحقیقات نشان داده‌اند که قرارگیری در معرض نور شدید می‌تواند علائم افسردگی را در افراد مبتلا به اختلال عاطفی فصلی (Seasonal Affective Disorder) بهبود بخشد.</t>
+  </si>
+  <si>
+    <t>پزشکان ممکن است نوردرمانی را به‌عنوان درمانی برای افسردگی فصلی‌(زمستانی) و سایر شرایط سلامت تجویز کنند.</t>
+  </si>
+  <si>
+    <t>بر اساس یک پروتکل درمانی تجویز‌شده برای نور شدید، مواجهه با نور در صبح می‌تواند موجب بهبود خلق‌وخو در برخی افراد با اختلالات بالینی شود.</t>
+  </si>
+  <si>
+    <t>اثرات غیر بینایی نور</t>
+  </si>
+  <si>
+    <t>قرارگیری در معرض نور روز با شدت زیاد باعث کاهش تکه‌تکه شدن خواب (بیدار شدن‌های مکرر در طول شب) و افزایش خواب عمیق در شب می‌شود.</t>
+  </si>
+  <si>
+    <t>قرارگیری در معرض نور شدیدتر در طول روز می‌تواند خواب را بهبود بخشد.</t>
+  </si>
+  <si>
+    <t>نور با شدت بیشتر در طول روز می‌تواند کیفیت خواب در همان شب را بهبود بخشد.</t>
+  </si>
+  <si>
+    <t>قرارگیری در معرض نور طبیعی روز (نور خورشید) یا نور مصنوعی با شدت بالا، در صورتی که بدون تابش زننده باشد، می‌تواند موجب کاهش استرس و بهبود تعادل هیجانی شود.</t>
+  </si>
+  <si>
+    <t>نور شدید در طول روز می‌تواند موجب بهبود خلق‌وخو شود.</t>
+  </si>
+  <si>
+    <t>نور با شدت بیشتر در طول روز می‌تواند خلق‌وخو را بهبود بخشد.</t>
+  </si>
+  <si>
+    <t>مواجهه با نور در عصر به بدن پیام می‌دهد که هنوز زمان روز است. این امر موجب افزایش هوشیاری و انتقال ساعت درونی بدن به زمان دیرتر می‌شود.</t>
+  </si>
+  <si>
+    <t>مواجهه با نور در عصر می‌تواند به‌خواب رفتن را دشوارتر کند.</t>
+  </si>
+  <si>
+    <t>سطوح بالاتر نور در عصر می‌تواند زمان به خواب رفتن را افزایش دهد.</t>
+  </si>
+  <si>
+    <t>پاسخ سلول‌های گانگلیونی شبکیه حساس به نور (ipRGCs) احتمالاً به زمان روز و عوامل شبانه‌روزی بستگی دارد.</t>
+  </si>
+  <si>
+    <t>پاسخ بدن به نور بستگی دارد به مقدار نور و زمانی که نور به سلول‌های گانگلیونی شبکیه حساس به نور (ipRGCs) می‌رسد.</t>
+  </si>
+  <si>
+    <t>آنچه این پاسخ‌های فیزیولوژیکی به نور را تعیین می‌کند، در درجهٔ اول مقدار نوری است که به شبکیه چشم می‌رسد و سلول‌های گانگلیونی شبکیه با حساست ذاتی به نور (ipRGCs) را در زمان معینی تحریک می‌کند.</t>
+  </si>
+  <si>
+    <t>در بعضی شرایط، قرارگیری در معرض نور با شدت بالا در طول روز و شب موجب افزایش هوشیاری و بهبود عملکرد شناختی می‌شود.</t>
+  </si>
+  <si>
+    <t>در شرایط خاصی، نور می‌تواند باعث بهبود هوشیاری و توانایی تفکر شود.</t>
+  </si>
+  <si>
+    <t>نور همچنین می‌تواند در بعضی شرایط، هوشیاری و عملکرد شناختی را افزایش دهد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نور به مغز پیام می دهد که فعال شود. نور در صبح موجب جلو افتادن ساعت درونی بدن (انتقال آن به زمان زودتر) می شود، در حالی که نور در شب باعث به تاخیر افتادن آن (انتقال آن به زمان دیرتر) می شود. </t>
+  </si>
+  <si>
+    <t>نور صبحگاهی موجب زودتر به خواب رفتن و زودتر بیدارشدن می‌شود، در حالی که نور عصرگاهی می‌تواند زمان خواب و بیداری را به تاخیر بیندازد</t>
+  </si>
+  <si>
+    <t>نور در صبح می‌تواند ساعت شبانه روزی بدن را جلو بیندازد و نور در شب می‌تواند ساعت شبانه روزی را به تاخیر بیندازد.</t>
+  </si>
+  <si>
+    <t>مواجهه با نور بر خواب، ترشح هورمون‌ها، متابولیسم و هوشیاری تأثیر می‌گذارد.</t>
+  </si>
+  <si>
+    <t>نور بر ساعت درونی بدن تأثیر می‌گذارد، که چرخه‌های خواب و بیداری و دیگر ریتم‌های روزانه را تنظیم می‌کند.</t>
+  </si>
+  <si>
+    <t>نور مستقیماً بر ساعت زیستی در مغز تأثیر می‌گذارد و چرخه‌های خواب و بیداری و دیگر ریتم‌های فیزیولوژیکی روزانه را تنظیم می‌کند.</t>
+  </si>
+  <si>
+    <t>نور به تنظیم ریتم‌های درونی بدن کمک می‌کند و این امر موجب می‌شود فرآیندهای زیستی در زمان‌های مناسب آغاز و پایان یابند.</t>
+  </si>
+  <si>
+    <t>نور اصلی‌ترین سیگنال است که ساعت درونی بدن را با چرخهٔ شب و روز خورشید هم‌زمان می‌کند.</t>
+  </si>
+  <si>
+    <t>نور اصلی‌ترین سیگنالی است که تضمین می‌کند سیستم شبانه‌روزی بدن با چرخه‌های ۲۴ ساعتهٔ محیط هم‌زمان بماند.</t>
+  </si>
+  <si>
+    <t>سلول‌های گانگلیونی شبکیه با حساسیت ذاتی به نور (ipRGCs) حاوی ملانوسپین (یک پروتئین حساس به نور) هستند. وقتی ipRGCها نور شدید را تشخیص می‌دهند، ملانوسپین فعال می‌شود. این فعال‌سازی مسیر عصبی‌ای را تحریک می‌کند که تولید ملاتونین در غدهٔ پینه‌آل را مهار می‌کند.</t>
+  </si>
+  <si>
+    <t>نور تولید ملاتونین (هورمونی که چرخه‌های خواب و بیداری را تنظیم می‌کند) را مهار می‌کند، به‌ویژه در عصر و شب.</t>
+  </si>
+  <si>
+    <t>نور عمدتاً از طریق سلول‌های گانگلیونی شبکیه با حساسیت ذاتی به نور (ipRGCs)، موجب مهار ترشح ملاتونین در عصر و شب می‌شود.</t>
+  </si>
+  <si>
+    <t>سلول‌های گانگلیونی شبکیه با حساسیت ذاتی به نور (ipRGCs) سیگنال‌های الکتریکی را به نواحی مغز می‌فرستند که چرخه‌های خواب و بیداری، هوشیاری و خلق‌وخو را تنظیم می‌کنند.</t>
+  </si>
+  <si>
+    <t>هنگامی که سلول‌های گانگلیونی شبکیه با حساسیت ذاتی به نور (ipRGCs) نور را تشخیص می‌دهند، سیگنال‌هایی به مغز می‌فرستند تا عملکردهای مختلف بدن را تنظیم کنند.</t>
+  </si>
+  <si>
+    <t>سلول‌های گانگلیونی شبکیه با حساسیت ذاتی به نور (ipRGCs) نور را به سیگنال‌هایی تبدیل می‌کنند که بر بسیاری از عملکردهای فیزیولوژیکی تأثیر می‌گذارند.</t>
+  </si>
+  <si>
+    <t>سلول های استوانه‌ای حساسیت بالایی به نور کم دارند و برای دید در شب ضروری هستند.</t>
+  </si>
+  <si>
+    <t>سلول‌های استوانه‌ای به ما کمک می‌کنند در نور کم، اشکال و جزئیات را ببینیم.</t>
+  </si>
+  <si>
+    <t>سلول‌های استوانه‌ای به ما امکان می‌دهند که در شرایط نور کم، جزئیات ابتدایی فضایی را ببینیم.</t>
+  </si>
+  <si>
+    <t>گیرنده‌های نوری انسان</t>
+  </si>
+  <si>
+    <t>سلول های مخروطی سلول‌های ویژه‌ای در شبکیه هستند که نام خود را از شکل‌شان (نحوهٔ دیده شدنشان زیر میکروسکوپ) گرفته‌اند. بیشترین تراکم مخروطی ها در مرکز شبکیه، یعنی لکهٔ زرد  قرار دارد.</t>
+  </si>
+  <si>
+    <t>سلول‌های مخروطی به ما کمک می‌کنند در نور شدید، رنگ‌ها، حرکت‌ها و اشیاء را ببینیم.</t>
+  </si>
+  <si>
+    <t>سلول‌های مخروطی به ما امکان می‌دهند که در شرایط نوری با شدت بالا، رنگ، حرکت و جزئیات فضایی را ببینیم.</t>
+  </si>
+  <si>
+    <t>در چشم انسان، شبکیه شامل سلول‌های حساس به نور است که نور را به سیگنال‌هایی برای مغز تبدیل می‌کنند. این سلول‌ها به نام‌های مخروطی ها، استوانه‌ای ها و سلول‌های گانگلیونی شبکیه با حساسیت ذاتی به نور (ipRGCs) شناخته می‌شوند.</t>
+  </si>
+  <si>
+    <t>در چشم، شبکیه شامل سلول‌هایی است که به ما امکان می‌دهند رنگ‌های مختلف را تشخیص دهیم.</t>
+  </si>
+  <si>
+    <t>چشم انسان شامل شبکیه است، که چندین سلول حساس به نور دارد و این سلول‌ها در پاسخ‌ به طول‌موج‌های مختلف با یکدیگر تفاوت دارند.</t>
+  </si>
+  <si>
+    <t>هنگامی که نور خورشید از جو عبور می‌کند، نور آبی بیشتر از طول‌موج‌های دیگر پراکنده می‌شود. این امر باعث می‌شود آسمان به رنگ آبی دیده شود.</t>
+  </si>
+  <si>
+    <t>رنگ، شدت و الگوی نور روز در طول روز، با تغییر فصل‌ها و شرایط جوی تغییر می‌کنند.</t>
+  </si>
+  <si>
+    <t>ویژگی‌های نور روز (طیف، شدت و توزیع فضایی) در طول روز و سال و با تغییر شرایط جوی تغییر می‌کند.</t>
+  </si>
+  <si>
+    <t>نور و طیف نوری</t>
+  </si>
+  <si>
+    <t>تکنولوژی‌های مختلف منابع نوری از مواد گوناگون برای تبدیل برق به نور استفاده می‌کنند. مواد متفاوت باعث می‌شوند شدت نور در طول‌موج‌های مختلف به روش‌های متفاوت پخش شود. این پخش نور در طول‌موج‌ها، توزیع طیفی نامیده می‌شود.</t>
+  </si>
+  <si>
+    <t>منابع نوری مختلف به روش‌های متفاوت نور تولید می‌کنند و طول‌موج‌ها یا رنگ‌های متمایزی ایجاد می‌کنند.</t>
+  </si>
+  <si>
+    <t>منابع مختلف نور الکتریکی (مانند لامپ‌های LED یا فلورسنت و غیره) دارای طیف‌های متفاوتی هستند.</t>
+  </si>
+  <si>
+    <t>نور روز، ترکیبی از نور مستقیم خورشید و نور پراکنده آسمان، شامل تمام طول‌موج‌های مرئی و فراتر است. تغییرات زمان روز و شرایط جوی ترکیب طول‌موج‌ها را تغییر می‌دهد و این تغییر باعث تغییر رنگی می‌شود که نور روز به نظر می‌آید.</t>
+  </si>
+  <si>
+    <t>نور روز دارای گسترهٔ وسیعی از انرژی در طول‌موج‌های گوناگون است و می‌توان آن را به همهٔ رنگ‌های رنگین‌کمان تفکیک کرد.</t>
+  </si>
+  <si>
+    <t>نور روز دارای چیزی است که ما آن را «طیف گسترده» می‌نامیم؛ یعنی مقدار زیادی انرژی در طول‌موج‌های گوناگون دارد.</t>
+  </si>
+  <si>
+    <t>می‌توان یک منبع نور را با توصیف میزان توان ساطع شده در هر طول‌موج مشخص کرد. این توان، شدت نامیده می‌شود. فیزیکدانان شدت را اندازه‌گیری می‌کنند، در حالی که دانشمندان زیستی و روان‌شناسی بررسی می‌کنند که شدت نور چگونه بر فرآیندهای مختلف تأثیر می‌گذارد.</t>
+  </si>
+  <si>
+    <t>می‌توان میزان مواجهه با نور را با سنجش شدت نور در طول‌موج‌های مختلف اندازه‌گیری کرد.</t>
+  </si>
+  <si>
+    <t>مواجهه با نور را می‌توان بر اساس شدت آن توصیف کرد: یعنی مقدار کل انرژی در تمام طول‌موج‌های بین ۳۸۰ تا ۷۸۰ نانومتر، که بر اساس تابع مورد نظر وزن‌دهی می‌شود.</t>
+  </si>
+  <si>
+    <t>نور خورشید از سپیده‌دم تا ظهر افزایش می‌یابد و در عصر کاهش می‌یابد. بسته به موقعیت جغرافیایی، میزان نور در طول روز بین تابستان و زمستان تفاوت زیادی دارد.</t>
+  </si>
+  <si>
+    <t>میزان نوری که در اطراف ما وجود دارد (یا میزانی که در معرض آن قرار می‌گیریم) هنگام جابه‌جایی میان فضاهای داخلی و بیرونی، در طول روز و در فصل‌های مختلف تغییر می‌کند.</t>
+  </si>
+  <si>
+    <t>الگوی مواجهه‌ی فرد با نور در طول روز و سال می‌تواند بسیار پیچیده باشد و به محل حضور و نوع فعالیت‌های او بستگی دارد.</t>
+  </si>
+  <si>
+    <t>زمانی که ما رنگ‌های مختلف را می‌بینیم، در واقع طول‌موج‌های متفاوت نور را مشاهده می‌کنیم. طول‌موج‌های کوتاه به صورت بنفش دیده می‌شوند، در حالی که طول‌موج‌های بلندتر به ترتیب به شکل نیلی، آبی، سبز، زرد، نارنجی و قرمز ظاهر می‌شوند.</t>
+  </si>
+  <si>
+    <t>نور سفید از چندین طول‌موج تشکیل شده است که ما آن‌ها را به‌صورت رنگ‌ها درک می‌کنیم.</t>
+  </si>
+  <si>
+    <t>نور را می‌توان بر اساس طیف آن توصیف کرد: یعنی چه میزان انرژی در هر طول‌موج در سراسر طیف مرئی (تقریباً از ۳۸۰ تا ۷۸۰ نانومتر) وجود دارد.</t>
+  </si>
+  <si>
+    <t>Petersen</t>
+  </si>
+  <si>
+    <t>Paul Michael</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Pape@dtu.dk</t>
+  </si>
+  <si>
+    <t>DTU Electro</t>
+  </si>
+  <si>
+    <t>Stormly Hansen</t>
+  </si>
+  <si>
+    <t>Joachim</t>
+  </si>
+  <si>
+    <t>jsh@ocutune.com</t>
+  </si>
+  <si>
+    <t>Ocutune</t>
+  </si>
+  <si>
+    <t>0000-0002-4202-4655</t>
+  </si>
+  <si>
+    <t>Lys er et stærkt signal for kroppen, da det påvirker vores døgnrytme, søvn, humør og kognitive ydeevne.</t>
+  </si>
+  <si>
+    <t>Det handler ikke kun om, hvor kraftigt lyset er. Det er også vigtigt, hvornår vi får lyset, og hvilken type lys det er.</t>
+  </si>
+  <si>
+    <t>Dagslys om morgenen og i løbet af dagen understøtter forskellige aspekter af sundhed, mens lys om natten kan forstyrre kroppens naturlige rytmer.</t>
+  </si>
+  <si>
+    <t>Lave lysniveauer om aftenen og mørke under søvn er en del af et sundt lys-mørke-mønster.</t>
+  </si>
+  <si>
+    <t>At koordinere og håndtere sin lysudsættelse er en del af en sund livsstil – ligesom kost, motion og en god søvnhygiejne er det.</t>
+  </si>
+  <si>
+    <t>Den videnskabelige og folkelige interesse for lysets indvirkning på biologiske rytmer, søvn, årvågenhed, humør og sundhed er stigende. Denne udbredelse understøttes af teknologiske og videnskabelige fremskridt der nu gør det muligt for forskere mere præcist at kunne undersøge forskellige bølgelængder og forskellige belysningsstyrker i relation til lysets indvirkning på os.  </t>
+  </si>
+  <si>
+    <t>Forskere undersøger og afdækker aktivt, hvordan lys påvirker vores krop og vores generelle sundhed.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Lysets fysiologiske påvirkning er et forskningsområde under aktiv udforskning og udvikling. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Forskning i lysets ikke-billeddannende påvirkninger (24–26). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1A62FF"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>De fleste studier af lysets fysiologiske påvirkninger har fokuseret på begrænsede populationer (bestemte aldersgrupper, etniciteter eller helbredstilstande). Det er derfor vigtigt, at fremtidig forskning i større grad søger at undersøge mere mangfoldige populationer på tværs af bredere geografiske områder.  </t>
+  </si>
+  <si>
+    <t>Der er behov for flere studier for at få en bedre forståelse af, hvordan lys påvirker sundheden i forskellige populationer.  </t>
+  </si>
+  <si>
+    <t>Der er behov for studier af lysets fysiologiske påvirkninger, som inddrager et bredere udvalg af studiepopulationer.  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Forskning i lysets ikke-billeddannende påvirkninger (24–26). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1A62FF"/>
+        <rFont val="Poppins Bold"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Der er derfor behov for flere studier, der undersøger lyseksponering i virkelige omgivelser i den virkelige verden.  </t>
+  </si>
+  <si>
+    <t>Størstedelen af forskningen i lysets indvirkning på kroppen er udført i laboratorier.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Størstedelen af de studier som har set på lysets fysiologiske påvirkning er blevet udført i laboratorier. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>De Individuelle forskelle i lysfølsomhed influeres af faktorer som alder, genetik og adfærd.  </t>
+  </si>
+  <si>
+    <t>Hvordan mennesker påvirkes af lys kan variere meget.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Der findes betydelige individuelle forskelle i hvordan lyset påvirker os.   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Faktorer med indvirkning på lysets ikke-billeddannede påvirkninger (21–23). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1A62FF"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Med alderen bliver øjets linse mindre transparent, hvilket kan reducere kroppens respons på en given lyseksponering.  </t>
+  </si>
+  <si>
+    <t>Med alderen kan øjets linser blive mindre gennemsigtig og klar. Dette kan nedsætte lysets understøttende virkning på det indre ur og søvnen.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Alder kan påvirke lysets fysiologiske effekt på mennesker, da mindre lys med alderen når øjets nethinde. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>At opretholde et regelmæssigt mønster med øgede belysningsstyrker i dagtimerne og mørke om natten er forbundet med bedre fysisk og mental sundhed.  </t>
+  </si>
+  <si>
+    <t>En sund daglig rutine indebærer øgede belysningsstyrker i dagtimerne og mørke om natten.  </t>
+  </si>
+  <si>
+    <r>
+      <t>En sund rutine for daglig lyseksponering, skaber en rytme, der både indeholder perioder med øgede belysningsstyrker og perioder med mørke henover døgnet. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Eksponering for øgede belysningsstyrker gennem lysterapi har vist sig at forbedre depressive symptomer hos personer med vinterdepression (Seasonal Affective Disorder).  </t>
+  </si>
+  <si>
+    <t>Læger kan vælge at ordinere lysterapi som behandling for vinterdepression og andre helbredstilstande.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Ved at følge en medicinsk-/ Lægeordineret protokol for lysterapi kan lyseksponering om morgenen føre til forbedringer i humør hos personer med visse kliniske diagnoser. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Semi-Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Lysets ikke-billeddannende påvirkning (10-20)</t>
+  </si>
+  <si>
+    <t>Udsættelse for højere belysningsniveauer i dagtimerne reducerer søvnfragmentering (opvågninger i løbet af natten) og øger mængden af dyb søvn om natten.  </t>
+  </si>
+  <si>
+    <t>Udsættelse for intenst lys i dagtimerne kan forbedre søvn.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Højere belysningsniveauer i dagtimerne kan forbedre søvnkvaliteten den efterfølgende nat. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Eksponering for naturligt dagslys (solen) eller elektrisk belysning med høj intensitet kan, når det er blændfrit, medvirke til at reducere stress og forbedre den ‘følelsesmæssige balance’.  </t>
+  </si>
+  <si>
+    <t>En højere belysningsstyrke i dagtimerne kan forbedre humøret.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Højere belysningsniveauer i dagtimerne kan forbedre humøret. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Lys om aftenen fortæller kroppen, at det stadig er dag. Herved øges vågenhed, samt forskydning af det indre ur til et senere ‘tidspunkt’.  </t>
+  </si>
+  <si>
+    <t>Udsættes man for lys om aftenen, kan det være sværere at falde i søvn.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Højere belysningslysniveauer om aftenen kan forlænge den tid, det tager at falde i søvn. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Kroppens reaktion på lys afhænger af, hvor meget lys der når ipRGC’erne i øjets nethinde, og på hvilket tidspunkt det sker.  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Disse fysiologiske funktioner drevet af lys bestemmes primært af, på et givent tidspunkt, hvor meget lys der når frem til nethinden, og hvor meget de stimulerer de intrinsisk-lysfølsomme retinale ganglieceller (ipRGC’er).  </t>
+    </r>
+  </si>
+  <si>
+    <t>Under visse omstændigheder kan høje belysningsstyrker øge årvågenhed/ vågenhed og forbedre kognition både i dagtimerne og om natten.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Lys kan også under visse betingelser øge vågenhed og kognitive funktioner.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Lys signalerer til hjernen, at den skal blive og forblive aktiv. Lys om morgenen fremrykker kroppens indre ur (skubber det til et tidligere ‘tidspunkt’), mens lys om aftenen forsinker det (skubber det til et senere ‘tidspunkt’). </t>
+  </si>
+  <si>
+    <t>At få lys om morgenen hjælper dig med at falde i søvn og vågne tidligere, imens lys om aftenen kan skubbe din sengetid og opvågning til senere.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Lys om morgenen kan faseskifte dit indre ur mod tidligere (Phase-Advance), og lys om aftenen kan forsinke dit indre ur mod senere (Phase-delay). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Semi-Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Lys­eksponering påvirker søvn, hormonudskillelse, stofskifte og vågenhed.    </t>
+  </si>
+  <si>
+    <t>Lys påvirker kroppens indre ur, som regulerer søvn- og vågenmønstre, samt andre fysiologiske funktioner der udviser en døgnrytme"  </t>
+  </si>
+  <si>
+    <r>
+      <t>Lys påvirker det biologiske ur i hjernen direkte og regulerer samtidig søvn-vågen-cyklusser samt andre fysiologiske funktioner der udviser en døgnrytme. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Lys hjælper med at regulere kroppens iboende rytmer. Det rigtige lys på de rigtige tidspunkter at dagen kan sikre, at biologiske processer starter og stopper på passende tidspunkter som er optimal for vores sundhed.  </t>
+  </si>
+  <si>
+    <t>Lys er det primære signal, der synkroniserer kroppens indre ur.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Lys er den vigtigste påvirkning af mennesker, der sikrer, at døgnrytmesystemet forbliver synkroniseret til døgnets og omgivelsernes 24-timers cyklusser. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>ipRGC'er besidder et lysfølsomt protein som kaldes melanopsin. Når cellerne udsættes for kraftigt lys, aktiveres melanopsin, hvilket får ipRGC'erne til at sende signaler til hjernen. Disse signaler aktiverer et neurologisk kredsløb, der reducerer dannelse af melatonin i koglekirtlen.  </t>
+  </si>
+  <si>
+    <t>Lys blokerer for produktionen af ‘mørkehormonet’ melatonin (et hormon, der regulerer søvn-vågen-cyklusser), især om aftenen og om natten.  </t>
+  </si>
+  <si>
+    <t>Gennem ipRGC'erne forårsager lys en undertrykkelse af melatonin.</t>
+  </si>
+  <si>
+    <t>ipRGC'er sender elektriske signaler til hjerneområder, der regulerer søvn-vågen-cyklusser, vagtsomhed og humør.  </t>
+  </si>
+  <si>
+    <t>Når ipRGC'er registrerer lys, sender de signaler til hjernen, som derigennem regulerer en række forskellige kropsfunktioner.  </t>
+  </si>
+  <si>
+    <r>
+      <t>De intrinsisk-lysfølsomme retinale ganglieceller (ipRGC'er) omdanner lys til signaler, der påvirker en lang række fysiologiske funktioner. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Stavene er meget følsomme over for svage belysningsniveauer. De er derfor afgørende for at kunne se og orientere sig om natten.  </t>
+  </si>
+  <si>
+    <t>Stavene hjælper os med at se former og detaljer i svagt lys.  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Menneskets fotoreceptorer (7-9) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1A62FF"/>
+        <rFont val="Poppins Bold"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Tappe er specialiserede celler i nethinden. De har fået deres navn efter deres form (som den ser ud under et mikroskop). Den højeste tæthed af tappe findes i fovea (i midten af nethinden).  </t>
+  </si>
+  <si>
+    <t>Tappe hjælper os med at se farver, bevægelse og genstande under øgede lysforhold.  </t>
+  </si>
+  <si>
+    <t>I det menneskelige øjes nethinde, findes lysfølsomme celler eller fotoreceptorer, der omdanner lys til signaler til hjernen. Disse celler kaldes tappe, stave og intrinsisk lysfølsomme retinale ganglieceller (ipRGC'er).  </t>
+  </si>
+  <si>
+    <t>I øjets nethinde findes forskellige fotoreceptorer, der gør det muligt for os at se og opfatte forskellige farver.  </t>
+  </si>
+  <si>
+    <t>Nethinden i menneskets øje, indeholder en række fotoreceptorer som er lysfølsomme celler. Disse fotoreceptorer adskiller sig fra hinanden ved deres respons på forskellige bølgelængder.  </t>
+  </si>
+  <si>
+    <t>Når sollyset bevæger sig gennem atmosfæren, spredes blåt, kortbølget lys mere end andre synlige bølgelængder. Det er grunden til at himlen ser blå ud.  </t>
+  </si>
+  <si>
+    <t>Dagslysets farve, intensitet og mønster ændrer sig i løbet af dagen samt med årstiderne og vejrforholdene.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Dagslysets egenskaber (spektrum og intensitet) varierer i løbet af dagen og året samt med skiftende vejrforhold. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lys- og lysspektrum (1-6) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1A62FF"/>
+        <rFont val="Poppins Bold"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Forskellige lysteknologier anvender forskellige materialer til at omdanne elektricitet til lys. Forskellige materialer får lysintensiteten til at fordele sig forskelligt over spektrets forskellige bølgelængder. Denne fordeling af lys på tværs af bølgelængder kaldes spektralfordeling.  </t>
+  </si>
+  <si>
+    <t>Forskellige lyskilder frembringer lys på forskellige måder og producerer særskilte lysspektre med forskellige farvesammensætninger.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Forskellige lyskilder (f.eks. LED- eller lysstofrør) har forskellige lysspektre. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Dagslys som er en kombinationen af direkte sollys og diffust himmellys, indeholder alle synlige bølgelængder og mere til. Tidspunktet på dagen og vejrforholdene ændrer bølgelængdesammensætningen. Denne forskydning ændrer derfor også den farvesammensætning, som dagslyset fremstår med.  </t>
+  </si>
+  <si>
+    <t>Dagslys har et bredt spektrum af energi på tværs af mange bølgelængder der kan opdeles i alle regnbuens farver.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Dagslys har det et bredt spektrum, med meget energi fordelt på mange bølgelængder. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Vi kan karakterisere en lyskilde ved at beskrive, hvor meget effekt den udsender ved hver bølgelængde. Denne effekt kaldes intensitet. Fysikere måler intensitet, mens biologiske og psykologiske forskere undersøger, hvordan intensitet påvirker forskellige processer.</t>
+  </si>
+  <si>
+    <r>
+      <t>Vi kan måle lys</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFD13438"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>­</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eksponering ved at vurdere lysets intensitet ved forskellige bølgelængder.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lys­eksponering kan beskrives ved lysets intensitet; som den samlede mængde energi på tværs af alle bølgelængder fra 380 til 780 nm. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lyset fra solen tiltager fra daggry til middag og aftager om aftenen. Afhængigt af beliggenheden varierer mængden af dagslys betydeligt mellem sommer og vinter.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Mængden af det lys vi udsættes for ændrer sig, når vi bevæger os mellem indendørs og udendørs omgivelser, i løbet af dagen og på tværs af årstiderne.  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Den lys­eksponering som mennesker udsættes for i løbet af døgnet og året kan være ret komplekst og afhænger af, hvor man befinder sig, og hvad man foretager sig. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Når vi ser forskellige farver, svarer det til forskellige bølgelængder i lyset. Lysets korte bølgelængder fremstår som violette, mens lysets længere bølgelængder fremstår som indigo, blå, grøn, gul, orange og rød.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343A40"/>
+        <rFont val="Poppins Bold"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Hvidt lys består af en mange forskellige bølgelængder, som vi opfatter som farver.  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lys kan beskrives ud fra dets spektrum: hvor meget energi der findes for hver bølgelængde på tværs af det synlige spektrum (fra cirka 380 til 780 nm). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans Bold"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Světlo je pro lidské tělo významný signál, protože ovlivňuje naše cirkadiánní rytmy, spánek, náladu i kognitivní výkon.</t>
+  </si>
+  <si>
+    <t>Nezáleží jen na intenzitě světla – podstatné je, kdy přichází a jaké má vlastnosti.</t>
+  </si>
+  <si>
+    <t>Denní světlo ráno a během dne utužuje zdraví těla i duše, naopak světlo v noci může zdraví škodit.</t>
+  </si>
+  <si>
+    <t>Ke zdravému rytmu světla a tmy patří nízká úroveň osvětlení ve večerních hodinách a tma během spánku.</t>
+  </si>
+  <si>
+    <t>Správné vystavování se světlu tvoří součást zdravého životního stylu stejně jako strava, pohyb a spánková hygiena.</t>
+  </si>
+  <si>
+    <t>Hlavatá</t>
+  </si>
+  <si>
+    <t>Patricie</t>
+  </si>
+  <si>
+    <t>patricie.hlavata@artemide.cz</t>
+  </si>
+  <si>
+    <t>Bendová</t>
+  </si>
+  <si>
+    <t>Zdenka</t>
+  </si>
+  <si>
+    <t>Assoc. Prof.; Ph.D.</t>
+  </si>
+  <si>
+    <t>zdenka.bendova@natur.cuni.cz</t>
+  </si>
+  <si>
+    <t>ISHSE; PřF UK, NUDZ</t>
+  </si>
+  <si>
+    <t>0000-0002-2693-2143</t>
+  </si>
+  <si>
+    <t>Roste zájem vědců i veřejnosti o působení světla na biologické rytmy, náladu a zdraví lidí. Díky pokrokům ve vědě a technologiích mohou dnes výzkumníci přesněji zkoumat různé vlnové délky a intenzity světla.</t>
+  </si>
+  <si>
+    <t>Vědci i nadále zkoumají, jak světlo ovlivňuje tělesné funkce a celkové zdraví.</t>
+  </si>
+  <si>
+    <t>Fyziologické účinky světla jsou oblastí aktivního výzkumu.</t>
+  </si>
+  <si>
+    <t>Výzkum nevizuálních účinků světla</t>
+  </si>
+  <si>
+    <t>Většina výzkumů fyziologických účinků světla se zatím soustředila na omezené populace (pouze některé věkové skupiny, etnika či zdravotní stav). Pro budoucí studie je důležité zkoumat pestřejší škálu populací z geograficky odlišnějších oblastí.</t>
+  </si>
+  <si>
+    <t>Potřebujeme více studií, abychom pochopili, jak světlo ovlivňuje zdraví různých skupin lidí.</t>
+  </si>
+  <si>
+    <t>Potřebujeme studie zkoumající fyziologické účinky světla, které by zahrnovaly pestrou škálu populačních skupin.</t>
+  </si>
+  <si>
+    <t>Potřebujeme studie zkoumající světelnou expozici v reálném světě.</t>
+  </si>
+  <si>
+    <t>Většina výzkumů účinků světla na lidský organismus se prováděla v laboratoři.</t>
+  </si>
+  <si>
+    <t>Většina studií týkajících se fyziologických účinků světla byly doposud laboratorní experimenty.</t>
+  </si>
+  <si>
+    <t>Individuální rozdíly v citlivosti ke světlu ovlivňuje zejména stáří, genetická výbava a chování.</t>
+  </si>
+  <si>
+    <t>Jak lidé reagují na světlo, se může výrazně lišit.</t>
+  </si>
+  <si>
+    <t>Ve fyziologické reakci na světlo jsou značné rozdíly mezi jednotlivými lidmi.</t>
+  </si>
+  <si>
+    <t>Faktory ovlivňující nevizuální účinky světla</t>
+  </si>
+  <si>
+    <t>Čočka v lidském oku s věkem ztrácí na průhlednosti a to může zmírnit reakci těla na vystavení se světlu.</t>
+  </si>
+  <si>
+    <t>Jak lidé stárnou, čočky jejich očí se zakalují, což může snížit účinky světla na jejich vnitřní hodiny a spánek.</t>
+  </si>
+  <si>
+    <t>Fyziologické účinky světla na lidské tělo může ovlivnit jeho věk, protože ve stáří projde na sítnici oka méně světla.</t>
+  </si>
+  <si>
+    <t>Dodržování pravidelného střídání jasného světla přes den a tmy v noci je asociované s lepším fyzickým i duševním zdravím.</t>
+  </si>
+  <si>
+    <t>Součástí zdravého denního režimu je jasné světlo přes den a tma v noci.</t>
+  </si>
+  <si>
+    <t>Ke zdravé světelné expozici patří každodenní střídání jasného světla ve dne s tmou v noci.</t>
+  </si>
+  <si>
+    <t>Bylo dokázáno, že expozice jasnému světlu zlepšuje depresivní příznaky u osob trpících sezónní afektivní poruchou.</t>
+  </si>
+  <si>
+    <t>Lékař může předepsat světelnou terapii k léčbě zimní deprese a dalších zdravotních potíží.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Při dodržení lékařem předepsaného protokolu světelné terapie může ranní expozice jasnému světlu vést ke zlepšení nálady u lidí s určitými klinickými diagnózami. </t>
+  </si>
+  <si>
+    <t>Nevizuální účinky světla</t>
+  </si>
+  <si>
+    <t>Expozice vyšší hladině světla přes den snižuje fragmentaci spánku (počet probuzení během noci) a zvyšuje hloubku spánku v noci.</t>
+  </si>
+  <si>
+    <t>Vystavení se intenzivnějšímu světlu během dne může zlepšit spánek.</t>
+  </si>
+  <si>
+    <t>Více světla přes den může zlepšit kvalitu spánku během následující noci.</t>
+  </si>
+  <si>
+    <t>Vystavení se přirozenému dennímu světlu (ze slunce) nebo elektrickému světlu vyšší intenzity, pokud neoslňuje, může snižovat stres a vylepšovat emoční rovnováhu.</t>
+  </si>
+  <si>
+    <t>Jasné světlo přes den může zlepšovat náladu.</t>
+  </si>
+  <si>
+    <t>Více světla přes den může zlepšovat náladu.</t>
+  </si>
+  <si>
+    <t>Večerní světlo organismu sděluje, že je stále ještě den. Tím zvyšuje bdělost a posouvá vnitřní hodiny na pozdější čas.</t>
+  </si>
+  <si>
+    <t>Vystavení se světlu večer může ztížit usínání.</t>
+  </si>
+  <si>
+    <t>Více světla večer může prodloužit čas potřebný k usnutí.</t>
+  </si>
+  <si>
+    <t>Reakce ipRGC zřejmě závisí na denní době a také na cirkadiánních faktorech.</t>
+  </si>
+  <si>
+    <t>Reakce našeho organismu na světlo závisí na tom, kolik světla a kdy dopadne na ipRGC buňky na sítnici oka.</t>
+  </si>
+  <si>
+    <t>Fyziologické reakce na světlo jsou určovány hlavně tím, kolik světla v daný okamžik dopadá na sítnici a stimuluje ipRGC.</t>
+  </si>
+  <si>
+    <t>Vystavení se intenzivnímu světlu během dne i v noci, za jistých podmínek zvyšuje bdělost a zlepšuje kognitivní výkon.</t>
+  </si>
+  <si>
+    <t>V určitých situacích dokáže světlo zlepšit naši bdělost a schopnost myslet.</t>
+  </si>
+  <si>
+    <t>Za jistých okolností může světlo také zvýšit naši bdělost a zlepšit kognitivní funkce.</t>
+  </si>
+  <si>
+    <t>Světlo vybízí mozek k aktivitě. Ranní světlo posouvá vnitřní hodiny těla dopředu (na dřívější čas), zatímco večerní světlo je zpožďuje (na pozdější čas).</t>
+  </si>
+  <si>
+    <t>Ranní světlo podporuje dřívější čas usnutí i následného probuzení, naopak světlo večer může usínání i probouzení posunout na později.</t>
+  </si>
+  <si>
+    <t>Ráno dokáže světlo posunout cirkadiánní hodiny dopředu, večer je může naopak zpozdit.</t>
+  </si>
+  <si>
+    <t>Světelná expozice ovlivňuje spánek, vylučování hormonů, metabolismus a stupeň bdělosti.</t>
+  </si>
+  <si>
+    <t>Světlo ovlivňuje naše vnitřní hodiny, které řídí střídání spánku a bdění a jiné denní rytmy.</t>
+  </si>
+  <si>
+    <t>Světlo přímo ovlivňuje biologické hodiny v mozku, čímž řídí cyklus spánku a bdění a jiné denní fyziologické rytmy.</t>
+  </si>
+  <si>
+    <t>Světlo se podílí na řízení vnitřních rytmů v těle. Tím zajišťuje, že biologické pochody začnou a skončí v příhodných časech.</t>
+  </si>
+  <si>
+    <t>Světlo je hlavním signálem, který synchronizuje vnitřní hodiny těla se střídáním dne a noci.</t>
+  </si>
+  <si>
+    <t>Světlo je hlavní signál, který zajišťuje signalizaci cirkadiánní soustavy s 24hodinovými cykly vnějšího prostředí.</t>
+  </si>
+  <si>
+    <t>Buňky ipRGC obsahují melanopsin (protein citlivý na světlo). Když ipRGC zaznamenají jasné světlo,  melanopsin se aktivuje. Tato aktivace stimuluje nervové dráhy, které zastaví tvorbu melatoninu v pineální žláze.</t>
+  </si>
+  <si>
+    <t>Světlo blokuje tvorbu melatoninu (hormonu, který řídí cykly spánku a bdění), zejména večer a v noci.</t>
+  </si>
+  <si>
+    <t>Světlo večer a v noci způsobuje potlačení tvorby melatoninu, a to převážně prostřednictvím ipRGC buněk.</t>
+  </si>
+  <si>
+    <t>Elektrické signály z ipRGC putují do oblastí v mozku, které řídí cykly spánku a bdění, stupeň bdělosti a náladu.</t>
+  </si>
+  <si>
+    <t>Když ipRGC zaznamenají světlo, vyšlou signály do mozku, čímž regulují různé tělesné funkce.</t>
+  </si>
+  <si>
+    <t>Vnitřně světlocitlivé gangliové buňky (ipRGC) převádějí světlo na signály, jež ovlivňují mnoho fyziologických funkcí.</t>
+  </si>
+  <si>
+    <t>Tyčinky jsou velmi citlivé na nízké hladiny světla. Jsou nezbytné pro noční vidění.</t>
+  </si>
+  <si>
+    <t>Díky tyčinkám vidíme tvary a obrysy za slabého světla.</t>
+  </si>
+  <si>
+    <t>Tyčinky nám umožňují vidět za slabého světla hrubé tvary v prostoru.</t>
+  </si>
+  <si>
+    <t>Lidské světlocitlivé buňky</t>
+  </si>
+  <si>
+    <t>Čípky jsou specializované buňky na sítnici oka. Název dostaly podle svého tvaru (jak vypadají pod mikroskopem). Nejvyšší hustota čípků je uprostřed sítnice, v tzv. žluté skvrně, odborně fovea.</t>
+  </si>
+  <si>
+    <t>Díky čípkům vidíme barvy, pohyb a předměty za jasného světla.</t>
+  </si>
+  <si>
+    <t>Čípky nám umožňují vidět v jasném světle barvy, pohyb a prostorové detaily.</t>
+  </si>
+  <si>
+    <t>Sítnice v lidském oku obsahuje světlocitlivé buňky, které převádějí světlo na signály do mozku. Tyto buňky se nazávají čípky, tyčinky a vnitřně fotosenzitivní gangliové buňky (ipRGC).</t>
+  </si>
+  <si>
+    <t>Sítnice v oku obsahuje buňky, které nám umožňují zaznamenat různé barvy.</t>
+  </si>
+  <si>
+    <t>V lidském oku se nachází sítnice, tvořená několika druhy světlocitlivých buněk, jež se liší reakcí na různé vlnové délky.</t>
+  </si>
+  <si>
+    <t>Při průchodu slunečního světla atmosférou se modré světlo rozptyluje více než jiné vlnové délky. Proto se nám obloha jeví jako modrá.</t>
+  </si>
+  <si>
+    <t>Barva, intenzita a charakter denního světla se mění v průběhu dne, podle roční doby i podle počasí.</t>
+  </si>
+  <si>
+    <t>Vlastnosti denního světla (spektrum, intenzita aprostorová distribuce) se mění během dne i roku a také se změnou počasí.</t>
+  </si>
+  <si>
+    <t>Světlo a spektrum</t>
+  </si>
+  <si>
+    <t>Různé technologie světelných zdrojů používají při převodu elektřiny na světlo různé materiály. Rozdíly v materiálech způsobují rozdíly v rozložení světelné energie do  jednotlivých vlnových délek. Tomuto rozčlenění energie se říká spektrální distribuce.</t>
+  </si>
+  <si>
+    <t>Různé světelné zdroje vytvářejí světlo různými způsoby, čímž vznikají odlišné vlnové délky nebo barvy.</t>
+  </si>
+  <si>
+    <t>Různé elektrické zdroje světla (např. LED žárovky, úsporné žárovky atd.) mají různá spektra.</t>
+  </si>
+  <si>
+    <t>Denní světlo, tedy kombinace přímého slunečního  a rozptýleného světla z oblohy, obsahuje všechny viditelné vlnové délky a nejen je. Skladba vln.délek se mění podle denní doby a počasí. To se projevuje změnou barvy denního světla.</t>
+  </si>
+  <si>
+    <t>Denní světlo má široké spektrum energie pokrývající mnoho vlnových délek – lze ho rozložit na všechny barvy duhy.</t>
+  </si>
+  <si>
+    <t>Denní světlo má takzvaně široké spektrum, obsahuje mnoho energie v mnoha vlnových délkách.</t>
+  </si>
+  <si>
+    <t>Světelný zdroj můžeme charakterizovat podle toho, kolik výkonu vyzařuje při jednotlivých vlnových délkách. Tento výkon se nazývá intenzita. Fyzikové intenzitu měří, zatímco biologové a psychologové zkoumají, jak intenzita světla ovlivňuje různé procesy v těle.</t>
+  </si>
+  <si>
+    <t>Světelnou expozici můžeme stanovit tak, že vyhodnotíme intenzitu světla v různých vlnových délkách.</t>
+  </si>
+  <si>
+    <t>Míru vystavení světlu, tedy světelnou expozici, lze popsat intenzitou, tedy celkovým množstvím energie ve všech vlnových délkách od 380 do 780 nm, váženým podle funkce, která nás zajímá.</t>
+  </si>
+  <si>
+    <t>Od úsvitu k poledni denní světlo přibývá, večer pak ubývá. Na mnoha místech světa se množství denního světla  v létě a v zimě velmi odlišuje.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Množství světla kolem nás (světla, jemuž jsme vystaveni) se mění s tím, jak přecházíme mezi různými interiéry a venkovním prostředím, a podle denní a roční doby. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozložení světelné expozice během dne i roku může být poměrně složité a závisí na tom, kde se člověk nachází a co dělá. </t>
+  </si>
+  <si>
+    <t>Když vidíme různé barvy, ve skutečnosti vidíme různé vlnové délky světla. Krátké vlnové délky se  jeví jako fialové, o něco delší jako modré, delší azurové, pak zelené, žluté, oranžové a červené.</t>
+  </si>
+  <si>
+    <t>Bílé světlo se skládá z mnoha různých vlnových délek, které vnímáme jako barvy.</t>
+  </si>
+  <si>
+    <t>Světlo lze popsat jeho spektrem: kolik energie obsahuje každá vlnová délka v celém viditelném rozsahu (od přibližně 380 do 780 nm).</t>
+  </si>
+  <si>
+    <t>Artemide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="64">
+  <fonts count="85">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5973,6 +7715,136 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242424"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF343A40"/>
+      <name val="WordVisi_MSFontService"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343A40"/>
+      <name val="Poppins Bold"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1A62FF"/>
+      <name val="Poppins Bold"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1A62FF"/>
+      <name val="Poppins Bold"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Poppins Bold"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343A40"/>
+      <name val="Poppins Semi-Bold"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343A40"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF343A40"/>
+      <name val="Poppins Bold"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFD13438"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF343A40"/>
+      <name val="Poppins Bold"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343A40"/>
+      <name val="Poppins Bold"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans Bold"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -6185,7 +8057,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -6517,8 +8389,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -6565,8 +8452,9 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6849,8 +8737,76 @@
     <xf numFmtId="0" fontId="28" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="64" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="36" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="71" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="45">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -6881,6 +8837,7 @@
     <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="44" xr:uid="{B2D74732-8E41-314C-B68A-0975ED16242F}"/>
     <cellStyle name="Link" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -7208,8 +9165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F22FC8-674F-B042-9987-EED3C133DD60}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7720,7 +9677,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="119">
+    <row r="26" spans="1:6" ht="136">
       <c r="A26" t="s">
         <v>206</v>
       </c>
@@ -7766,11 +9723,4867 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0227B8-6517-D949-81F0-BC1F8DC37DAA}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A6E799-3425-7049-AD78-3DEC34B23389}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="42.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="93" customHeight="1">
+      <c r="A2" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="118">
+        <v>1</v>
+      </c>
+      <c r="C2" s="115" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E2" s="115" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="85">
+      <c r="A3" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="118">
+        <v>2</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D3" s="115" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E3" s="115" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="153">
+      <c r="A4" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="118">
+        <v>3</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D4" s="115" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E4" s="117" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="117.75" customHeight="1">
+      <c r="A5" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="118">
+        <v>4</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D5" s="115" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E5" s="117" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="150" customHeight="1">
+      <c r="A6" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="118">
+        <v>5</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D6" s="115" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E6" s="115" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="68">
+      <c r="A7" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="118">
+        <v>6</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D7" s="115" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="91.5" customHeight="1">
+      <c r="A8" s="116" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="118">
+        <v>7</v>
+      </c>
+      <c r="C8" s="119" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E8" s="119" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="102">
+      <c r="A9" s="116" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="118">
+        <v>8</v>
+      </c>
+      <c r="C9" s="119" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D9" s="115" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E9" s="119" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="51">
+      <c r="A10" s="116" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="118">
+        <v>9</v>
+      </c>
+      <c r="C10" s="119" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D10" s="119" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E10" s="119" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="68">
+      <c r="A11" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="118">
+        <v>10</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E11" s="119" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="102">
+      <c r="A12" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="118">
+        <v>11</v>
+      </c>
+      <c r="C12" s="115" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D12" s="115" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E12" s="117" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="68">
+      <c r="A13" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="118">
+        <v>12</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D13" s="115" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E13" s="117" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="68">
+      <c r="A14" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="118">
+        <v>13</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D14" s="115" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E14" s="115" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="85">
+      <c r="A15" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="118">
+        <v>14</v>
+      </c>
+      <c r="C15" s="115" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D15" s="115" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E15" s="115" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="68">
+      <c r="A16" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="118">
+        <v>15</v>
+      </c>
+      <c r="C16" s="115" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D16" s="115" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E16" s="115" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="68">
+      <c r="A17" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="118">
+        <v>16</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D17" s="115" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E17" s="115" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="68">
+      <c r="A18" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="118">
+        <v>17</v>
+      </c>
+      <c r="C18" s="115" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D18" s="115" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E18" s="117" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="68">
+      <c r="A19" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="118">
+        <v>18</v>
+      </c>
+      <c r="C19" s="115" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D19" s="115" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E19" s="117" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="68">
+      <c r="A20" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="118">
+        <v>19</v>
+      </c>
+      <c r="C20" s="115" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D20" s="115" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E20" s="117" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="85">
+      <c r="A21" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="118">
+        <v>20</v>
+      </c>
+      <c r="C21" s="115" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D21" s="115" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E21" s="117" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="68">
+      <c r="A22" s="116" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="118">
+        <v>21</v>
+      </c>
+      <c r="C22" s="115" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D22" s="115" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E22" s="117" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="68">
+      <c r="A23" s="116" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="118">
+        <v>22</v>
+      </c>
+      <c r="C23" s="115" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D23" s="115" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E23" s="117" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="51">
+      <c r="A24" s="116" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="118">
+        <v>23</v>
+      </c>
+      <c r="C24" s="115" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D24" s="115" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E24" s="117" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="51">
+      <c r="A25" s="116" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="118">
+        <v>24</v>
+      </c>
+      <c r="C25" s="115" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D25" s="115" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E25" s="117" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="136">
+      <c r="A26" s="116" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="118">
+        <v>25</v>
+      </c>
+      <c r="C26" s="115" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D26" s="115" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E26" s="117" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="129.75" customHeight="1" thickBot="1">
+      <c r="A27" s="116" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" s="114">
+        <v>26</v>
+      </c>
+      <c r="C27" s="113" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D27" s="113" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E27" s="112" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B4CD89-6261-8048-A311-C06279C67C7B}">
+  <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="111" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="5" width="42.33203125" customWidth="1"/>
+    <col min="6" max="21" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="52" customHeight="1">
+      <c r="A1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="111" customHeight="1">
+      <c r="A2" s="72" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B2" s="77">
+        <v>1</v>
+      </c>
+      <c r="C2" s="128" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D2" s="128" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E2" s="127" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+    </row>
+    <row r="3" spans="1:21" ht="111" customHeight="1">
+      <c r="A3" s="72" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B3" s="77">
+        <v>2</v>
+      </c>
+      <c r="C3" s="128" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D3" s="128" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E3" s="127" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="111" customHeight="1">
+      <c r="A4" s="72" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B4" s="77">
+        <v>3</v>
+      </c>
+      <c r="C4" s="128" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E4" s="129" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="111" customHeight="1">
+      <c r="A5" s="72" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B5" s="75">
+        <v>4</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E5" s="127" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="111" customHeight="1">
+      <c r="A6" s="72" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B6" s="75">
+        <v>5</v>
+      </c>
+      <c r="C6" s="128" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E6" s="127" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="111" customHeight="1">
+      <c r="A7" s="72" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B7" s="75">
+        <v>6</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E7" s="127" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="111" customHeight="1">
+      <c r="A8" s="72" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B8" s="75">
+        <v>7</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E8" s="127" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="111" customHeight="1">
+      <c r="A9" s="72" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B9" s="75">
+        <v>8</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E9" s="127" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="111" customHeight="1">
+      <c r="A10" s="72" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B10" s="75">
+        <v>9</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E10" s="127" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="111" customHeight="1">
+      <c r="A11" s="72" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B11" s="75">
+        <v>10</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E11" s="127" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="111" customHeight="1">
+      <c r="A12" s="72" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B12" s="75">
+        <v>11</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E12" s="127" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="111" customHeight="1">
+      <c r="A13" s="72" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B13" s="75">
+        <v>12</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E13" s="127" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="111" customHeight="1">
+      <c r="A14" s="72" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B14" s="75">
+        <v>13</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E14" s="127" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="111" customHeight="1">
+      <c r="A15" s="72" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B15" s="75">
+        <v>14</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E15" s="127" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="111" customHeight="1">
+      <c r="A16" s="72" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B16" s="75">
+        <v>15</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E16" s="127" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="111" customHeight="1">
+      <c r="A17" s="72" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B17" s="75">
+        <v>16</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E17" s="127" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="111" customHeight="1">
+      <c r="A18" s="72" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B18" s="75">
+        <v>17</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E18" s="127" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="111" customHeight="1">
+      <c r="A19" s="72" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B19" s="75">
+        <v>18</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E19" s="127" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="111" customHeight="1">
+      <c r="A20" s="72" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B20" s="75">
+        <v>19</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E20" s="127" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="111" customHeight="1">
+      <c r="A21" s="72" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B21" s="75">
+        <v>20</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E21" s="127" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="111" customHeight="1">
+      <c r="A22" s="72" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B22" s="75">
+        <v>21</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E22" s="127" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="111" customHeight="1">
+      <c r="A23" s="72" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B23" s="75">
+        <v>22</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D23" s="73" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E23" s="127" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="111" customHeight="1">
+      <c r="A24" s="72" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B24" s="75">
+        <v>23</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E24" s="127" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="111" customHeight="1">
+      <c r="A25" s="72" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B25" s="75">
+        <v>24</v>
+      </c>
+      <c r="C25" s="74" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E25" s="127" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="111" customHeight="1">
+      <c r="A26" s="72" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B26" s="75">
+        <v>25</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D26" s="73" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E26" s="127" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="111" customHeight="1" thickBot="1">
+      <c r="A27" s="72" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B27" s="71">
+        <v>26</v>
+      </c>
+      <c r="C27" s="126" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D27" s="126" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E27" s="125" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="111" customHeight="1">
+      <c r="E28" s="124"/>
+    </row>
+    <row r="29" spans="1:5" ht="111" customHeight="1">
+      <c r="E29" s="124"/>
+    </row>
+    <row r="30" spans="1:5" ht="111" customHeight="1">
+      <c r="E30" s="124"/>
+    </row>
+    <row r="31" spans="1:5" ht="111" customHeight="1">
+      <c r="E31" s="124"/>
+    </row>
+    <row r="32" spans="1:5" ht="111" customHeight="1">
+      <c r="E32" s="124"/>
+    </row>
+    <row r="33" spans="5:5" ht="111" customHeight="1">
+      <c r="E33" s="124"/>
+    </row>
+    <row r="34" spans="5:5" ht="111" customHeight="1">
+      <c r="E34" s="124"/>
+    </row>
+    <row r="35" spans="5:5" ht="111" customHeight="1">
+      <c r="E35" s="124"/>
+    </row>
+    <row r="36" spans="5:5" ht="111" customHeight="1">
+      <c r="E36" s="124"/>
+    </row>
+    <row r="37" spans="5:5" ht="111" customHeight="1">
+      <c r="E37" s="124"/>
+    </row>
+    <row r="38" spans="5:5" ht="111" customHeight="1">
+      <c r="E38" s="124"/>
+    </row>
+    <row r="39" spans="5:5" ht="111" customHeight="1">
+      <c r="E39" s="124"/>
+    </row>
+    <row r="40" spans="5:5" ht="111" customHeight="1">
+      <c r="E40" s="124"/>
+    </row>
+    <row r="41" spans="5:5" ht="111" customHeight="1">
+      <c r="E41" s="124"/>
+    </row>
+    <row r="42" spans="5:5" ht="111" customHeight="1">
+      <c r="E42" s="124"/>
+    </row>
+    <row r="43" spans="5:5" ht="111" customHeight="1">
+      <c r="E43" s="124"/>
+    </row>
+    <row r="44" spans="5:5" ht="111" customHeight="1">
+      <c r="E44" s="124"/>
+    </row>
+    <row r="45" spans="5:5" ht="111" customHeight="1">
+      <c r="E45" s="124"/>
+    </row>
+    <row r="46" spans="5:5" ht="111" customHeight="1">
+      <c r="E46" s="124"/>
+    </row>
+    <row r="47" spans="5:5" ht="111" customHeight="1">
+      <c r="E47" s="124"/>
+    </row>
+    <row r="48" spans="5:5" ht="111" customHeight="1">
+      <c r="E48" s="124"/>
+    </row>
+    <row r="49" spans="5:5" ht="111" customHeight="1">
+      <c r="E49" s="124"/>
+    </row>
+    <row r="50" spans="5:5" ht="111" customHeight="1">
+      <c r="E50" s="124"/>
+    </row>
+    <row r="51" spans="5:5" ht="111" customHeight="1">
+      <c r="E51" s="124"/>
+    </row>
+    <row r="52" spans="5:5" ht="111" customHeight="1">
+      <c r="E52" s="124"/>
+    </row>
+    <row r="53" spans="5:5" ht="111" customHeight="1">
+      <c r="E53" s="124"/>
+    </row>
+    <row r="54" spans="5:5" ht="111" customHeight="1">
+      <c r="E54" s="124"/>
+    </row>
+    <row r="55" spans="5:5" ht="111" customHeight="1">
+      <c r="E55" s="124"/>
+    </row>
+    <row r="56" spans="5:5" ht="111" customHeight="1">
+      <c r="E56" s="124"/>
+    </row>
+    <row r="57" spans="5:5" ht="111" customHeight="1">
+      <c r="E57" s="124"/>
+    </row>
+    <row r="58" spans="5:5" ht="111" customHeight="1">
+      <c r="E58" s="124"/>
+    </row>
+    <row r="59" spans="5:5" ht="111" customHeight="1">
+      <c r="E59" s="124"/>
+    </row>
+    <row r="60" spans="5:5" ht="111" customHeight="1">
+      <c r="E60" s="124"/>
+    </row>
+    <row r="61" spans="5:5" ht="111" customHeight="1">
+      <c r="E61" s="124"/>
+    </row>
+    <row r="62" spans="5:5" ht="111" customHeight="1">
+      <c r="E62" s="124"/>
+    </row>
+    <row r="63" spans="5:5" ht="111" customHeight="1">
+      <c r="E63" s="124"/>
+    </row>
+    <row r="64" spans="5:5" ht="111" customHeight="1">
+      <c r="E64" s="124"/>
+    </row>
+    <row r="65" spans="5:5" ht="111" customHeight="1">
+      <c r="E65" s="124"/>
+    </row>
+    <row r="66" spans="5:5" ht="111" customHeight="1">
+      <c r="E66" s="124"/>
+    </row>
+    <row r="67" spans="5:5" ht="111" customHeight="1">
+      <c r="E67" s="124"/>
+    </row>
+    <row r="68" spans="5:5" ht="111" customHeight="1">
+      <c r="E68" s="124"/>
+    </row>
+    <row r="69" spans="5:5" ht="111" customHeight="1">
+      <c r="E69" s="124"/>
+    </row>
+    <row r="70" spans="5:5" ht="111" customHeight="1">
+      <c r="E70" s="124"/>
+    </row>
+    <row r="71" spans="5:5" ht="111" customHeight="1">
+      <c r="E71" s="124"/>
+    </row>
+    <row r="72" spans="5:5" ht="111" customHeight="1">
+      <c r="E72" s="124"/>
+    </row>
+    <row r="73" spans="5:5" ht="111" customHeight="1">
+      <c r="E73" s="124"/>
+    </row>
+    <row r="74" spans="5:5" ht="111" customHeight="1">
+      <c r="E74" s="124"/>
+    </row>
+    <row r="75" spans="5:5" ht="111" customHeight="1">
+      <c r="E75" s="124"/>
+    </row>
+    <row r="76" spans="5:5" ht="111" customHeight="1">
+      <c r="E76" s="124"/>
+    </row>
+    <row r="77" spans="5:5" ht="111" customHeight="1">
+      <c r="E77" s="124"/>
+    </row>
+    <row r="78" spans="5:5" ht="111" customHeight="1">
+      <c r="E78" s="124"/>
+    </row>
+    <row r="79" spans="5:5" ht="111" customHeight="1">
+      <c r="E79" s="124"/>
+    </row>
+    <row r="80" spans="5:5" ht="111" customHeight="1">
+      <c r="E80" s="124"/>
+    </row>
+    <row r="81" spans="5:5" ht="111" customHeight="1">
+      <c r="E81" s="124"/>
+    </row>
+    <row r="82" spans="5:5" ht="111" customHeight="1">
+      <c r="E82" s="124"/>
+    </row>
+    <row r="83" spans="5:5" ht="111" customHeight="1">
+      <c r="E83" s="124"/>
+    </row>
+    <row r="84" spans="5:5" ht="111" customHeight="1">
+      <c r="E84" s="124"/>
+    </row>
+    <row r="85" spans="5:5" ht="111" customHeight="1">
+      <c r="E85" s="124"/>
+    </row>
+    <row r="86" spans="5:5" ht="111" customHeight="1">
+      <c r="E86" s="124"/>
+    </row>
+    <row r="87" spans="5:5" ht="111" customHeight="1">
+      <c r="E87" s="124"/>
+    </row>
+    <row r="88" spans="5:5" ht="111" customHeight="1">
+      <c r="E88" s="124"/>
+    </row>
+    <row r="89" spans="5:5" ht="111" customHeight="1">
+      <c r="E89" s="124"/>
+    </row>
+    <row r="90" spans="5:5" ht="111" customHeight="1">
+      <c r="E90" s="124"/>
+    </row>
+    <row r="91" spans="5:5" ht="111" customHeight="1">
+      <c r="E91" s="124"/>
+    </row>
+    <row r="92" spans="5:5" ht="111" customHeight="1">
+      <c r="E92" s="124"/>
+    </row>
+    <row r="93" spans="5:5" ht="111" customHeight="1">
+      <c r="E93" s="124"/>
+    </row>
+    <row r="94" spans="5:5" ht="111" customHeight="1">
+      <c r="E94" s="124"/>
+    </row>
+    <row r="95" spans="5:5" ht="111" customHeight="1">
+      <c r="E95" s="124"/>
+    </row>
+    <row r="96" spans="5:5" ht="111" customHeight="1">
+      <c r="E96" s="124"/>
+    </row>
+    <row r="97" spans="5:5" ht="111" customHeight="1">
+      <c r="E97" s="124"/>
+    </row>
+    <row r="98" spans="5:5" ht="111" customHeight="1">
+      <c r="E98" s="124"/>
+    </row>
+    <row r="99" spans="5:5" ht="111" customHeight="1">
+      <c r="E99" s="124"/>
+    </row>
+    <row r="100" spans="5:5" ht="111" customHeight="1">
+      <c r="E100" s="124"/>
+    </row>
+    <row r="101" spans="5:5" ht="111" customHeight="1">
+      <c r="E101" s="124"/>
+    </row>
+    <row r="102" spans="5:5" ht="111" customHeight="1">
+      <c r="E102" s="124"/>
+    </row>
+    <row r="103" spans="5:5" ht="111" customHeight="1">
+      <c r="E103" s="124"/>
+    </row>
+    <row r="104" spans="5:5" ht="111" customHeight="1">
+      <c r="E104" s="124"/>
+    </row>
+    <row r="105" spans="5:5" ht="111" customHeight="1">
+      <c r="E105" s="124"/>
+    </row>
+    <row r="106" spans="5:5" ht="111" customHeight="1">
+      <c r="E106" s="124"/>
+    </row>
+    <row r="107" spans="5:5" ht="111" customHeight="1">
+      <c r="E107" s="124"/>
+    </row>
+    <row r="108" spans="5:5" ht="111" customHeight="1">
+      <c r="E108" s="124"/>
+    </row>
+    <row r="109" spans="5:5" ht="111" customHeight="1">
+      <c r="E109" s="124"/>
+    </row>
+    <row r="110" spans="5:5" ht="111" customHeight="1">
+      <c r="E110" s="124"/>
+    </row>
+    <row r="111" spans="5:5" ht="111" customHeight="1">
+      <c r="E111" s="124"/>
+    </row>
+    <row r="112" spans="5:5" ht="111" customHeight="1">
+      <c r="E112" s="124"/>
+    </row>
+    <row r="113" spans="5:5" ht="111" customHeight="1">
+      <c r="E113" s="124"/>
+    </row>
+    <row r="114" spans="5:5" ht="111" customHeight="1">
+      <c r="E114" s="124"/>
+    </row>
+    <row r="115" spans="5:5" ht="111" customHeight="1">
+      <c r="E115" s="124"/>
+    </row>
+    <row r="116" spans="5:5" ht="111" customHeight="1">
+      <c r="E116" s="124"/>
+    </row>
+    <row r="117" spans="5:5" ht="111" customHeight="1">
+      <c r="E117" s="124"/>
+    </row>
+    <row r="118" spans="5:5" ht="111" customHeight="1">
+      <c r="E118" s="124"/>
+    </row>
+    <row r="119" spans="5:5" ht="111" customHeight="1">
+      <c r="E119" s="124"/>
+    </row>
+    <row r="120" spans="5:5" ht="111" customHeight="1">
+      <c r="E120" s="124"/>
+    </row>
+    <row r="121" spans="5:5" ht="111" customHeight="1">
+      <c r="E121" s="124"/>
+    </row>
+    <row r="122" spans="5:5" ht="111" customHeight="1">
+      <c r="E122" s="124"/>
+    </row>
+    <row r="123" spans="5:5" ht="111" customHeight="1">
+      <c r="E123" s="124"/>
+    </row>
+    <row r="124" spans="5:5" ht="111" customHeight="1">
+      <c r="E124" s="124"/>
+    </row>
+    <row r="125" spans="5:5" ht="111" customHeight="1">
+      <c r="E125" s="124"/>
+    </row>
+    <row r="126" spans="5:5" ht="111" customHeight="1">
+      <c r="E126" s="124"/>
+    </row>
+    <row r="127" spans="5:5" ht="111" customHeight="1">
+      <c r="E127" s="124"/>
+    </row>
+    <row r="128" spans="5:5" ht="111" customHeight="1">
+      <c r="E128" s="124"/>
+    </row>
+    <row r="129" spans="5:5" ht="111" customHeight="1">
+      <c r="E129" s="124"/>
+    </row>
+    <row r="130" spans="5:5" ht="111" customHeight="1">
+      <c r="E130" s="124"/>
+    </row>
+    <row r="131" spans="5:5" ht="111" customHeight="1">
+      <c r="E131" s="124"/>
+    </row>
+    <row r="132" spans="5:5" ht="111" customHeight="1">
+      <c r="E132" s="124"/>
+    </row>
+    <row r="133" spans="5:5" ht="111" customHeight="1">
+      <c r="E133" s="124"/>
+    </row>
+    <row r="134" spans="5:5" ht="111" customHeight="1">
+      <c r="E134" s="124"/>
+    </row>
+    <row r="135" spans="5:5" ht="111" customHeight="1">
+      <c r="E135" s="124"/>
+    </row>
+    <row r="136" spans="5:5" ht="111" customHeight="1">
+      <c r="E136" s="124"/>
+    </row>
+    <row r="137" spans="5:5" ht="111" customHeight="1">
+      <c r="E137" s="124"/>
+    </row>
+    <row r="138" spans="5:5" ht="111" customHeight="1">
+      <c r="E138" s="124"/>
+    </row>
+    <row r="139" spans="5:5" ht="111" customHeight="1">
+      <c r="E139" s="124"/>
+    </row>
+    <row r="140" spans="5:5" ht="111" customHeight="1">
+      <c r="E140" s="124"/>
+    </row>
+    <row r="141" spans="5:5" ht="111" customHeight="1">
+      <c r="E141" s="124"/>
+    </row>
+    <row r="142" spans="5:5" ht="111" customHeight="1">
+      <c r="E142" s="124"/>
+    </row>
+    <row r="143" spans="5:5" ht="111" customHeight="1">
+      <c r="E143" s="124"/>
+    </row>
+    <row r="144" spans="5:5" ht="111" customHeight="1">
+      <c r="E144" s="124"/>
+    </row>
+    <row r="145" spans="5:5" ht="111" customHeight="1">
+      <c r="E145" s="124"/>
+    </row>
+    <row r="146" spans="5:5" ht="111" customHeight="1">
+      <c r="E146" s="124"/>
+    </row>
+    <row r="147" spans="5:5" ht="111" customHeight="1">
+      <c r="E147" s="124"/>
+    </row>
+    <row r="148" spans="5:5" ht="111" customHeight="1">
+      <c r="E148" s="124"/>
+    </row>
+    <row r="149" spans="5:5" ht="111" customHeight="1">
+      <c r="E149" s="124"/>
+    </row>
+    <row r="150" spans="5:5" ht="111" customHeight="1">
+      <c r="E150" s="124"/>
+    </row>
+    <row r="151" spans="5:5" ht="111" customHeight="1">
+      <c r="E151" s="124"/>
+    </row>
+    <row r="152" spans="5:5" ht="111" customHeight="1">
+      <c r="E152" s="124"/>
+    </row>
+    <row r="153" spans="5:5" ht="111" customHeight="1">
+      <c r="E153" s="124"/>
+    </row>
+    <row r="154" spans="5:5" ht="111" customHeight="1">
+      <c r="E154" s="124"/>
+    </row>
+    <row r="155" spans="5:5" ht="111" customHeight="1">
+      <c r="E155" s="124"/>
+    </row>
+    <row r="156" spans="5:5" ht="111" customHeight="1">
+      <c r="E156" s="124"/>
+    </row>
+    <row r="157" spans="5:5" ht="111" customHeight="1">
+      <c r="E157" s="124"/>
+    </row>
+    <row r="158" spans="5:5" ht="111" customHeight="1">
+      <c r="E158" s="124"/>
+    </row>
+    <row r="159" spans="5:5" ht="111" customHeight="1">
+      <c r="E159" s="124"/>
+    </row>
+    <row r="160" spans="5:5" ht="111" customHeight="1">
+      <c r="E160" s="124"/>
+    </row>
+    <row r="161" spans="5:5" ht="111" customHeight="1">
+      <c r="E161" s="124"/>
+    </row>
+    <row r="162" spans="5:5" ht="111" customHeight="1">
+      <c r="E162" s="124"/>
+    </row>
+    <row r="163" spans="5:5" ht="111" customHeight="1">
+      <c r="E163" s="124"/>
+    </row>
+    <row r="164" spans="5:5" ht="111" customHeight="1">
+      <c r="E164" s="124"/>
+    </row>
+    <row r="165" spans="5:5" ht="111" customHeight="1">
+      <c r="E165" s="124"/>
+    </row>
+    <row r="166" spans="5:5" ht="111" customHeight="1">
+      <c r="E166" s="124"/>
+    </row>
+    <row r="167" spans="5:5" ht="111" customHeight="1">
+      <c r="E167" s="124"/>
+    </row>
+    <row r="168" spans="5:5" ht="111" customHeight="1">
+      <c r="E168" s="124"/>
+    </row>
+    <row r="169" spans="5:5" ht="111" customHeight="1">
+      <c r="E169" s="124"/>
+    </row>
+    <row r="170" spans="5:5" ht="111" customHeight="1">
+      <c r="E170" s="124"/>
+    </row>
+    <row r="171" spans="5:5" ht="111" customHeight="1">
+      <c r="E171" s="124"/>
+    </row>
+    <row r="172" spans="5:5" ht="111" customHeight="1">
+      <c r="E172" s="124"/>
+    </row>
+    <row r="173" spans="5:5" ht="111" customHeight="1">
+      <c r="E173" s="124"/>
+    </row>
+    <row r="174" spans="5:5" ht="111" customHeight="1">
+      <c r="E174" s="124"/>
+    </row>
+    <row r="175" spans="5:5" ht="111" customHeight="1">
+      <c r="E175" s="124"/>
+    </row>
+    <row r="176" spans="5:5" ht="111" customHeight="1">
+      <c r="E176" s="124"/>
+    </row>
+    <row r="177" spans="5:5" ht="111" customHeight="1">
+      <c r="E177" s="124"/>
+    </row>
+    <row r="178" spans="5:5" ht="111" customHeight="1">
+      <c r="E178" s="124"/>
+    </row>
+    <row r="179" spans="5:5" ht="111" customHeight="1">
+      <c r="E179" s="124"/>
+    </row>
+    <row r="180" spans="5:5" ht="111" customHeight="1">
+      <c r="E180" s="124"/>
+    </row>
+    <row r="181" spans="5:5" ht="111" customHeight="1">
+      <c r="E181" s="124"/>
+    </row>
+    <row r="182" spans="5:5" ht="111" customHeight="1">
+      <c r="E182" s="124"/>
+    </row>
+    <row r="183" spans="5:5" ht="111" customHeight="1">
+      <c r="E183" s="124"/>
+    </row>
+    <row r="184" spans="5:5" ht="111" customHeight="1">
+      <c r="E184" s="124"/>
+    </row>
+    <row r="185" spans="5:5" ht="111" customHeight="1">
+      <c r="E185" s="124"/>
+    </row>
+    <row r="186" spans="5:5" ht="111" customHeight="1">
+      <c r="E186" s="124"/>
+    </row>
+    <row r="187" spans="5:5" ht="111" customHeight="1">
+      <c r="E187" s="124"/>
+    </row>
+    <row r="188" spans="5:5" ht="111" customHeight="1">
+      <c r="E188" s="124"/>
+    </row>
+    <row r="189" spans="5:5" ht="111" customHeight="1">
+      <c r="E189" s="124"/>
+    </row>
+    <row r="190" spans="5:5" ht="111" customHeight="1">
+      <c r="E190" s="124"/>
+    </row>
+    <row r="191" spans="5:5" ht="111" customHeight="1">
+      <c r="E191" s="124"/>
+    </row>
+    <row r="192" spans="5:5" ht="111" customHeight="1">
+      <c r="E192" s="124"/>
+    </row>
+    <row r="193" spans="5:5" ht="111" customHeight="1">
+      <c r="E193" s="124"/>
+    </row>
+    <row r="194" spans="5:5" ht="111" customHeight="1">
+      <c r="E194" s="124"/>
+    </row>
+    <row r="195" spans="5:5" ht="111" customHeight="1">
+      <c r="E195" s="124"/>
+    </row>
+    <row r="196" spans="5:5" ht="111" customHeight="1">
+      <c r="E196" s="124"/>
+    </row>
+    <row r="197" spans="5:5" ht="111" customHeight="1">
+      <c r="E197" s="124"/>
+    </row>
+    <row r="198" spans="5:5" ht="111" customHeight="1">
+      <c r="E198" s="124"/>
+    </row>
+    <row r="199" spans="5:5" ht="111" customHeight="1">
+      <c r="E199" s="124"/>
+    </row>
+    <row r="200" spans="5:5" ht="111" customHeight="1">
+      <c r="E200" s="124"/>
+    </row>
+    <row r="201" spans="5:5" ht="111" customHeight="1">
+      <c r="E201" s="124"/>
+    </row>
+    <row r="202" spans="5:5" ht="111" customHeight="1">
+      <c r="E202" s="124"/>
+    </row>
+    <row r="203" spans="5:5" ht="111" customHeight="1">
+      <c r="E203" s="124"/>
+    </row>
+    <row r="204" spans="5:5" ht="111" customHeight="1">
+      <c r="E204" s="124"/>
+    </row>
+    <row r="205" spans="5:5" ht="111" customHeight="1">
+      <c r="E205" s="124"/>
+    </row>
+    <row r="206" spans="5:5" ht="111" customHeight="1">
+      <c r="E206" s="124"/>
+    </row>
+    <row r="207" spans="5:5" ht="111" customHeight="1">
+      <c r="E207" s="124"/>
+    </row>
+    <row r="208" spans="5:5" ht="111" customHeight="1">
+      <c r="E208" s="124"/>
+    </row>
+    <row r="209" spans="5:5" ht="111" customHeight="1">
+      <c r="E209" s="124"/>
+    </row>
+    <row r="210" spans="5:5" ht="111" customHeight="1">
+      <c r="E210" s="124"/>
+    </row>
+    <row r="211" spans="5:5" ht="111" customHeight="1">
+      <c r="E211" s="124"/>
+    </row>
+    <row r="212" spans="5:5" ht="111" customHeight="1">
+      <c r="E212" s="124"/>
+    </row>
+    <row r="213" spans="5:5" ht="111" customHeight="1">
+      <c r="E213" s="124"/>
+    </row>
+    <row r="214" spans="5:5" ht="111" customHeight="1">
+      <c r="E214" s="124"/>
+    </row>
+    <row r="215" spans="5:5" ht="111" customHeight="1">
+      <c r="E215" s="124"/>
+    </row>
+    <row r="216" spans="5:5" ht="111" customHeight="1">
+      <c r="E216" s="124"/>
+    </row>
+    <row r="217" spans="5:5" ht="111" customHeight="1">
+      <c r="E217" s="124"/>
+    </row>
+    <row r="218" spans="5:5" ht="111" customHeight="1">
+      <c r="E218" s="124"/>
+    </row>
+    <row r="219" spans="5:5" ht="111" customHeight="1">
+      <c r="E219" s="124"/>
+    </row>
+    <row r="220" spans="5:5" ht="111" customHeight="1">
+      <c r="E220" s="124"/>
+    </row>
+    <row r="221" spans="5:5" ht="111" customHeight="1">
+      <c r="E221" s="124"/>
+    </row>
+    <row r="222" spans="5:5" ht="111" customHeight="1">
+      <c r="E222" s="124"/>
+    </row>
+    <row r="223" spans="5:5" ht="111" customHeight="1">
+      <c r="E223" s="124"/>
+    </row>
+    <row r="224" spans="5:5" ht="111" customHeight="1">
+      <c r="E224" s="124"/>
+    </row>
+    <row r="225" spans="5:5" ht="111" customHeight="1">
+      <c r="E225" s="124"/>
+    </row>
+    <row r="226" spans="5:5" ht="111" customHeight="1">
+      <c r="E226" s="124"/>
+    </row>
+    <row r="227" spans="5:5" ht="111" customHeight="1">
+      <c r="E227" s="124"/>
+    </row>
+    <row r="228" spans="5:5" ht="111" customHeight="1">
+      <c r="E228" s="124"/>
+    </row>
+    <row r="229" spans="5:5" ht="111" customHeight="1">
+      <c r="E229" s="124"/>
+    </row>
+    <row r="230" spans="5:5" ht="111" customHeight="1">
+      <c r="E230" s="124"/>
+    </row>
+    <row r="231" spans="5:5" ht="111" customHeight="1">
+      <c r="E231" s="124"/>
+    </row>
+    <row r="232" spans="5:5" ht="111" customHeight="1">
+      <c r="E232" s="124"/>
+    </row>
+    <row r="233" spans="5:5" ht="111" customHeight="1">
+      <c r="E233" s="124"/>
+    </row>
+    <row r="234" spans="5:5" ht="111" customHeight="1">
+      <c r="E234" s="124"/>
+    </row>
+    <row r="235" spans="5:5" ht="111" customHeight="1">
+      <c r="E235" s="124"/>
+    </row>
+    <row r="236" spans="5:5" ht="111" customHeight="1">
+      <c r="E236" s="124"/>
+    </row>
+    <row r="237" spans="5:5" ht="111" customHeight="1">
+      <c r="E237" s="124"/>
+    </row>
+    <row r="238" spans="5:5" ht="111" customHeight="1">
+      <c r="E238" s="124"/>
+    </row>
+    <row r="239" spans="5:5" ht="111" customHeight="1">
+      <c r="E239" s="124"/>
+    </row>
+    <row r="240" spans="5:5" ht="111" customHeight="1">
+      <c r="E240" s="124"/>
+    </row>
+    <row r="241" spans="5:5" ht="111" customHeight="1">
+      <c r="E241" s="124"/>
+    </row>
+    <row r="242" spans="5:5" ht="111" customHeight="1">
+      <c r="E242" s="124"/>
+    </row>
+    <row r="243" spans="5:5" ht="111" customHeight="1">
+      <c r="E243" s="124"/>
+    </row>
+    <row r="244" spans="5:5" ht="111" customHeight="1">
+      <c r="E244" s="124"/>
+    </row>
+    <row r="245" spans="5:5" ht="111" customHeight="1">
+      <c r="E245" s="124"/>
+    </row>
+    <row r="246" spans="5:5" ht="111" customHeight="1">
+      <c r="E246" s="124"/>
+    </row>
+    <row r="247" spans="5:5" ht="111" customHeight="1">
+      <c r="E247" s="124"/>
+    </row>
+    <row r="248" spans="5:5" ht="111" customHeight="1">
+      <c r="E248" s="124"/>
+    </row>
+    <row r="249" spans="5:5" ht="111" customHeight="1">
+      <c r="E249" s="124"/>
+    </row>
+    <row r="250" spans="5:5" ht="111" customHeight="1">
+      <c r="E250" s="124"/>
+    </row>
+    <row r="251" spans="5:5" ht="111" customHeight="1">
+      <c r="E251" s="124"/>
+    </row>
+    <row r="252" spans="5:5" ht="111" customHeight="1">
+      <c r="E252" s="124"/>
+    </row>
+    <row r="253" spans="5:5" ht="111" customHeight="1">
+      <c r="E253" s="124"/>
+    </row>
+    <row r="254" spans="5:5" ht="111" customHeight="1">
+      <c r="E254" s="124"/>
+    </row>
+    <row r="255" spans="5:5" ht="111" customHeight="1">
+      <c r="E255" s="124"/>
+    </row>
+    <row r="256" spans="5:5" ht="111" customHeight="1">
+      <c r="E256" s="124"/>
+    </row>
+    <row r="257" spans="5:5" ht="111" customHeight="1">
+      <c r="E257" s="124"/>
+    </row>
+    <row r="258" spans="5:5" ht="111" customHeight="1">
+      <c r="E258" s="124"/>
+    </row>
+    <row r="259" spans="5:5" ht="111" customHeight="1">
+      <c r="E259" s="124"/>
+    </row>
+    <row r="260" spans="5:5" ht="111" customHeight="1">
+      <c r="E260" s="124"/>
+    </row>
+    <row r="261" spans="5:5" ht="111" customHeight="1">
+      <c r="E261" s="124"/>
+    </row>
+    <row r="262" spans="5:5" ht="111" customHeight="1">
+      <c r="E262" s="124"/>
+    </row>
+    <row r="263" spans="5:5" ht="111" customHeight="1">
+      <c r="E263" s="124"/>
+    </row>
+    <row r="264" spans="5:5" ht="111" customHeight="1">
+      <c r="E264" s="124"/>
+    </row>
+    <row r="265" spans="5:5" ht="111" customHeight="1">
+      <c r="E265" s="124"/>
+    </row>
+    <row r="266" spans="5:5" ht="111" customHeight="1">
+      <c r="E266" s="124"/>
+    </row>
+    <row r="267" spans="5:5" ht="111" customHeight="1">
+      <c r="E267" s="124"/>
+    </row>
+    <row r="268" spans="5:5" ht="111" customHeight="1">
+      <c r="E268" s="124"/>
+    </row>
+    <row r="269" spans="5:5" ht="111" customHeight="1">
+      <c r="E269" s="124"/>
+    </row>
+    <row r="270" spans="5:5" ht="111" customHeight="1">
+      <c r="E270" s="124"/>
+    </row>
+    <row r="271" spans="5:5" ht="111" customHeight="1">
+      <c r="E271" s="124"/>
+    </row>
+    <row r="272" spans="5:5" ht="111" customHeight="1">
+      <c r="E272" s="124"/>
+    </row>
+    <row r="273" spans="5:5" ht="111" customHeight="1">
+      <c r="E273" s="124"/>
+    </row>
+    <row r="274" spans="5:5" ht="111" customHeight="1">
+      <c r="E274" s="124"/>
+    </row>
+    <row r="275" spans="5:5" ht="111" customHeight="1">
+      <c r="E275" s="124"/>
+    </row>
+    <row r="276" spans="5:5" ht="111" customHeight="1">
+      <c r="E276" s="124"/>
+    </row>
+    <row r="277" spans="5:5" ht="111" customHeight="1">
+      <c r="E277" s="124"/>
+    </row>
+    <row r="278" spans="5:5" ht="111" customHeight="1">
+      <c r="E278" s="124"/>
+    </row>
+    <row r="279" spans="5:5" ht="111" customHeight="1">
+      <c r="E279" s="124"/>
+    </row>
+    <row r="280" spans="5:5" ht="111" customHeight="1">
+      <c r="E280" s="124"/>
+    </row>
+    <row r="281" spans="5:5" ht="111" customHeight="1">
+      <c r="E281" s="124"/>
+    </row>
+    <row r="282" spans="5:5" ht="111" customHeight="1">
+      <c r="E282" s="124"/>
+    </row>
+    <row r="283" spans="5:5" ht="111" customHeight="1">
+      <c r="E283" s="124"/>
+    </row>
+    <row r="284" spans="5:5" ht="111" customHeight="1">
+      <c r="E284" s="124"/>
+    </row>
+    <row r="285" spans="5:5" ht="111" customHeight="1">
+      <c r="E285" s="124"/>
+    </row>
+    <row r="286" spans="5:5" ht="111" customHeight="1">
+      <c r="E286" s="124"/>
+    </row>
+    <row r="287" spans="5:5" ht="111" customHeight="1">
+      <c r="E287" s="124"/>
+    </row>
+    <row r="288" spans="5:5" ht="111" customHeight="1">
+      <c r="E288" s="124"/>
+    </row>
+    <row r="289" spans="5:5" ht="111" customHeight="1">
+      <c r="E289" s="124"/>
+    </row>
+    <row r="290" spans="5:5" ht="111" customHeight="1">
+      <c r="E290" s="124"/>
+    </row>
+    <row r="291" spans="5:5" ht="111" customHeight="1">
+      <c r="E291" s="124"/>
+    </row>
+    <row r="292" spans="5:5" ht="111" customHeight="1">
+      <c r="E292" s="124"/>
+    </row>
+    <row r="293" spans="5:5" ht="111" customHeight="1">
+      <c r="E293" s="124"/>
+    </row>
+    <row r="294" spans="5:5" ht="111" customHeight="1">
+      <c r="E294" s="124"/>
+    </row>
+    <row r="295" spans="5:5" ht="111" customHeight="1">
+      <c r="E295" s="124"/>
+    </row>
+    <row r="296" spans="5:5" ht="111" customHeight="1">
+      <c r="E296" s="124"/>
+    </row>
+    <row r="297" spans="5:5" ht="111" customHeight="1">
+      <c r="E297" s="124"/>
+    </row>
+    <row r="298" spans="5:5" ht="111" customHeight="1">
+      <c r="E298" s="124"/>
+    </row>
+    <row r="299" spans="5:5" ht="111" customHeight="1">
+      <c r="E299" s="124"/>
+    </row>
+    <row r="300" spans="5:5" ht="111" customHeight="1">
+      <c r="E300" s="124"/>
+    </row>
+    <row r="301" spans="5:5" ht="111" customHeight="1">
+      <c r="E301" s="124"/>
+    </row>
+    <row r="302" spans="5:5" ht="111" customHeight="1">
+      <c r="E302" s="124"/>
+    </row>
+    <row r="303" spans="5:5" ht="111" customHeight="1">
+      <c r="E303" s="124"/>
+    </row>
+    <row r="304" spans="5:5" ht="111" customHeight="1">
+      <c r="E304" s="124"/>
+    </row>
+    <row r="305" spans="5:5" ht="111" customHeight="1">
+      <c r="E305" s="124"/>
+    </row>
+    <row r="306" spans="5:5" ht="111" customHeight="1">
+      <c r="E306" s="124"/>
+    </row>
+    <row r="307" spans="5:5" ht="111" customHeight="1">
+      <c r="E307" s="124"/>
+    </row>
+    <row r="308" spans="5:5" ht="111" customHeight="1">
+      <c r="E308" s="124"/>
+    </row>
+    <row r="309" spans="5:5" ht="111" customHeight="1">
+      <c r="E309" s="124"/>
+    </row>
+    <row r="310" spans="5:5" ht="111" customHeight="1">
+      <c r="E310" s="124"/>
+    </row>
+    <row r="311" spans="5:5" ht="111" customHeight="1">
+      <c r="E311" s="124"/>
+    </row>
+    <row r="312" spans="5:5" ht="111" customHeight="1">
+      <c r="E312" s="124"/>
+    </row>
+    <row r="313" spans="5:5" ht="111" customHeight="1">
+      <c r="E313" s="124"/>
+    </row>
+    <row r="314" spans="5:5" ht="111" customHeight="1">
+      <c r="E314" s="124"/>
+    </row>
+    <row r="315" spans="5:5" ht="111" customHeight="1">
+      <c r="E315" s="124"/>
+    </row>
+    <row r="316" spans="5:5" ht="111" customHeight="1">
+      <c r="E316" s="124"/>
+    </row>
+    <row r="317" spans="5:5" ht="111" customHeight="1">
+      <c r="E317" s="124"/>
+    </row>
+    <row r="318" spans="5:5" ht="111" customHeight="1">
+      <c r="E318" s="124"/>
+    </row>
+    <row r="319" spans="5:5" ht="111" customHeight="1">
+      <c r="E319" s="124"/>
+    </row>
+    <row r="320" spans="5:5" ht="111" customHeight="1">
+      <c r="E320" s="124"/>
+    </row>
+    <row r="321" spans="5:5" ht="111" customHeight="1">
+      <c r="E321" s="124"/>
+    </row>
+    <row r="322" spans="5:5" ht="111" customHeight="1">
+      <c r="E322" s="124"/>
+    </row>
+    <row r="323" spans="5:5" ht="111" customHeight="1">
+      <c r="E323" s="124"/>
+    </row>
+    <row r="324" spans="5:5" ht="111" customHeight="1">
+      <c r="E324" s="124"/>
+    </row>
+    <row r="325" spans="5:5" ht="111" customHeight="1">
+      <c r="E325" s="124"/>
+    </row>
+    <row r="326" spans="5:5" ht="111" customHeight="1">
+      <c r="E326" s="124"/>
+    </row>
+    <row r="327" spans="5:5" ht="111" customHeight="1">
+      <c r="E327" s="124"/>
+    </row>
+    <row r="328" spans="5:5" ht="111" customHeight="1">
+      <c r="E328" s="124"/>
+    </row>
+    <row r="329" spans="5:5" ht="111" customHeight="1">
+      <c r="E329" s="124"/>
+    </row>
+    <row r="330" spans="5:5" ht="111" customHeight="1">
+      <c r="E330" s="124"/>
+    </row>
+    <row r="331" spans="5:5" ht="111" customHeight="1">
+      <c r="E331" s="124"/>
+    </row>
+    <row r="332" spans="5:5" ht="111" customHeight="1">
+      <c r="E332" s="124"/>
+    </row>
+    <row r="333" spans="5:5" ht="111" customHeight="1">
+      <c r="E333" s="124"/>
+    </row>
+    <row r="334" spans="5:5" ht="111" customHeight="1">
+      <c r="E334" s="124"/>
+    </row>
+    <row r="335" spans="5:5" ht="111" customHeight="1">
+      <c r="E335" s="124"/>
+    </row>
+    <row r="336" spans="5:5" ht="111" customHeight="1">
+      <c r="E336" s="124"/>
+    </row>
+    <row r="337" spans="5:5" ht="111" customHeight="1">
+      <c r="E337" s="124"/>
+    </row>
+    <row r="338" spans="5:5" ht="111" customHeight="1">
+      <c r="E338" s="124"/>
+    </row>
+    <row r="339" spans="5:5" ht="111" customHeight="1">
+      <c r="E339" s="124"/>
+    </row>
+    <row r="340" spans="5:5" ht="111" customHeight="1">
+      <c r="E340" s="124"/>
+    </row>
+    <row r="341" spans="5:5" ht="111" customHeight="1">
+      <c r="E341" s="124"/>
+    </row>
+    <row r="342" spans="5:5" ht="111" customHeight="1">
+      <c r="E342" s="124"/>
+    </row>
+    <row r="343" spans="5:5" ht="111" customHeight="1">
+      <c r="E343" s="124"/>
+    </row>
+    <row r="344" spans="5:5" ht="111" customHeight="1">
+      <c r="E344" s="124"/>
+    </row>
+    <row r="345" spans="5:5" ht="111" customHeight="1">
+      <c r="E345" s="124"/>
+    </row>
+    <row r="346" spans="5:5" ht="111" customHeight="1">
+      <c r="E346" s="124"/>
+    </row>
+    <row r="347" spans="5:5" ht="111" customHeight="1">
+      <c r="E347" s="124"/>
+    </row>
+    <row r="348" spans="5:5" ht="111" customHeight="1">
+      <c r="E348" s="124"/>
+    </row>
+    <row r="349" spans="5:5" ht="111" customHeight="1">
+      <c r="E349" s="124"/>
+    </row>
+    <row r="350" spans="5:5" ht="111" customHeight="1">
+      <c r="E350" s="124"/>
+    </row>
+    <row r="351" spans="5:5" ht="111" customHeight="1">
+      <c r="E351" s="124"/>
+    </row>
+    <row r="352" spans="5:5" ht="111" customHeight="1">
+      <c r="E352" s="124"/>
+    </row>
+    <row r="353" spans="5:5" ht="111" customHeight="1">
+      <c r="E353" s="124"/>
+    </row>
+    <row r="354" spans="5:5" ht="111" customHeight="1">
+      <c r="E354" s="124"/>
+    </row>
+    <row r="355" spans="5:5" ht="111" customHeight="1">
+      <c r="E355" s="124"/>
+    </row>
+    <row r="356" spans="5:5" ht="111" customHeight="1">
+      <c r="E356" s="124"/>
+    </row>
+    <row r="357" spans="5:5" ht="111" customHeight="1">
+      <c r="E357" s="124"/>
+    </row>
+    <row r="358" spans="5:5" ht="111" customHeight="1">
+      <c r="E358" s="124"/>
+    </row>
+    <row r="359" spans="5:5" ht="111" customHeight="1">
+      <c r="E359" s="124"/>
+    </row>
+    <row r="360" spans="5:5" ht="111" customHeight="1">
+      <c r="E360" s="124"/>
+    </row>
+    <row r="361" spans="5:5" ht="111" customHeight="1">
+      <c r="E361" s="124"/>
+    </row>
+    <row r="362" spans="5:5" ht="111" customHeight="1">
+      <c r="E362" s="124"/>
+    </row>
+    <row r="363" spans="5:5" ht="111" customHeight="1">
+      <c r="E363" s="124"/>
+    </row>
+    <row r="364" spans="5:5" ht="111" customHeight="1">
+      <c r="E364" s="124"/>
+    </row>
+    <row r="365" spans="5:5" ht="111" customHeight="1">
+      <c r="E365" s="124"/>
+    </row>
+    <row r="366" spans="5:5" ht="111" customHeight="1">
+      <c r="E366" s="124"/>
+    </row>
+    <row r="367" spans="5:5" ht="111" customHeight="1">
+      <c r="E367" s="124"/>
+    </row>
+    <row r="368" spans="5:5" ht="111" customHeight="1">
+      <c r="E368" s="124"/>
+    </row>
+    <row r="369" spans="5:5" ht="111" customHeight="1">
+      <c r="E369" s="124"/>
+    </row>
+    <row r="370" spans="5:5" ht="111" customHeight="1">
+      <c r="E370" s="124"/>
+    </row>
+    <row r="371" spans="5:5" ht="111" customHeight="1">
+      <c r="E371" s="124"/>
+    </row>
+    <row r="372" spans="5:5" ht="111" customHeight="1">
+      <c r="E372" s="124"/>
+    </row>
+    <row r="373" spans="5:5" ht="111" customHeight="1">
+      <c r="E373" s="124"/>
+    </row>
+    <row r="374" spans="5:5" ht="111" customHeight="1">
+      <c r="E374" s="124"/>
+    </row>
+    <row r="375" spans="5:5" ht="111" customHeight="1">
+      <c r="E375" s="124"/>
+    </row>
+    <row r="376" spans="5:5" ht="111" customHeight="1">
+      <c r="E376" s="124"/>
+    </row>
+    <row r="377" spans="5:5" ht="111" customHeight="1">
+      <c r="E377" s="124"/>
+    </row>
+    <row r="378" spans="5:5" ht="111" customHeight="1">
+      <c r="E378" s="124"/>
+    </row>
+    <row r="379" spans="5:5" ht="111" customHeight="1">
+      <c r="E379" s="124"/>
+    </row>
+    <row r="380" spans="5:5" ht="111" customHeight="1">
+      <c r="E380" s="124"/>
+    </row>
+    <row r="381" spans="5:5" ht="111" customHeight="1">
+      <c r="E381" s="124"/>
+    </row>
+    <row r="382" spans="5:5" ht="111" customHeight="1">
+      <c r="E382" s="124"/>
+    </row>
+    <row r="383" spans="5:5" ht="111" customHeight="1">
+      <c r="E383" s="124"/>
+    </row>
+    <row r="384" spans="5:5" ht="111" customHeight="1">
+      <c r="E384" s="124"/>
+    </row>
+    <row r="385" spans="5:5" ht="111" customHeight="1">
+      <c r="E385" s="124"/>
+    </row>
+    <row r="386" spans="5:5" ht="111" customHeight="1">
+      <c r="E386" s="124"/>
+    </row>
+    <row r="387" spans="5:5" ht="111" customHeight="1">
+      <c r="E387" s="124"/>
+    </row>
+    <row r="388" spans="5:5" ht="111" customHeight="1">
+      <c r="E388" s="124"/>
+    </row>
+    <row r="389" spans="5:5" ht="111" customHeight="1">
+      <c r="E389" s="124"/>
+    </row>
+    <row r="390" spans="5:5" ht="111" customHeight="1">
+      <c r="E390" s="124"/>
+    </row>
+    <row r="391" spans="5:5" ht="111" customHeight="1">
+      <c r="E391" s="124"/>
+    </row>
+    <row r="392" spans="5:5" ht="111" customHeight="1">
+      <c r="E392" s="124"/>
+    </row>
+    <row r="393" spans="5:5" ht="111" customHeight="1">
+      <c r="E393" s="124"/>
+    </row>
+    <row r="394" spans="5:5" ht="111" customHeight="1">
+      <c r="E394" s="124"/>
+    </row>
+    <row r="395" spans="5:5" ht="111" customHeight="1">
+      <c r="E395" s="124"/>
+    </row>
+    <row r="396" spans="5:5" ht="111" customHeight="1">
+      <c r="E396" s="124"/>
+    </row>
+    <row r="397" spans="5:5" ht="111" customHeight="1">
+      <c r="E397" s="124"/>
+    </row>
+    <row r="398" spans="5:5" ht="111" customHeight="1">
+      <c r="E398" s="124"/>
+    </row>
+    <row r="399" spans="5:5" ht="111" customHeight="1">
+      <c r="E399" s="124"/>
+    </row>
+    <row r="400" spans="5:5" ht="111" customHeight="1">
+      <c r="E400" s="124"/>
+    </row>
+    <row r="401" spans="5:5" ht="111" customHeight="1">
+      <c r="E401" s="124"/>
+    </row>
+    <row r="402" spans="5:5" ht="111" customHeight="1">
+      <c r="E402" s="124"/>
+    </row>
+    <row r="403" spans="5:5" ht="111" customHeight="1">
+      <c r="E403" s="124"/>
+    </row>
+    <row r="404" spans="5:5" ht="111" customHeight="1">
+      <c r="E404" s="124"/>
+    </row>
+    <row r="405" spans="5:5" ht="111" customHeight="1">
+      <c r="E405" s="124"/>
+    </row>
+    <row r="406" spans="5:5" ht="111" customHeight="1">
+      <c r="E406" s="124"/>
+    </row>
+    <row r="407" spans="5:5" ht="111" customHeight="1">
+      <c r="E407" s="124"/>
+    </row>
+    <row r="408" spans="5:5" ht="111" customHeight="1">
+      <c r="E408" s="124"/>
+    </row>
+    <row r="409" spans="5:5" ht="111" customHeight="1">
+      <c r="E409" s="124"/>
+    </row>
+    <row r="410" spans="5:5" ht="111" customHeight="1">
+      <c r="E410" s="124"/>
+    </row>
+    <row r="411" spans="5:5" ht="111" customHeight="1">
+      <c r="E411" s="124"/>
+    </row>
+    <row r="412" spans="5:5" ht="111" customHeight="1">
+      <c r="E412" s="124"/>
+    </row>
+    <row r="413" spans="5:5" ht="111" customHeight="1">
+      <c r="E413" s="124"/>
+    </row>
+    <row r="414" spans="5:5" ht="111" customHeight="1">
+      <c r="E414" s="124"/>
+    </row>
+    <row r="415" spans="5:5" ht="111" customHeight="1">
+      <c r="E415" s="124"/>
+    </row>
+    <row r="416" spans="5:5" ht="111" customHeight="1">
+      <c r="E416" s="124"/>
+    </row>
+    <row r="417" spans="5:5" ht="111" customHeight="1">
+      <c r="E417" s="124"/>
+    </row>
+    <row r="418" spans="5:5" ht="111" customHeight="1">
+      <c r="E418" s="124"/>
+    </row>
+    <row r="419" spans="5:5" ht="111" customHeight="1">
+      <c r="E419" s="124"/>
+    </row>
+    <row r="420" spans="5:5" ht="111" customHeight="1">
+      <c r="E420" s="124"/>
+    </row>
+    <row r="421" spans="5:5" ht="111" customHeight="1">
+      <c r="E421" s="124"/>
+    </row>
+    <row r="422" spans="5:5" ht="111" customHeight="1">
+      <c r="E422" s="124"/>
+    </row>
+    <row r="423" spans="5:5" ht="111" customHeight="1">
+      <c r="E423" s="124"/>
+    </row>
+    <row r="424" spans="5:5" ht="111" customHeight="1">
+      <c r="E424" s="124"/>
+    </row>
+    <row r="425" spans="5:5" ht="111" customHeight="1">
+      <c r="E425" s="124"/>
+    </row>
+    <row r="426" spans="5:5" ht="111" customHeight="1">
+      <c r="E426" s="124"/>
+    </row>
+    <row r="427" spans="5:5" ht="111" customHeight="1">
+      <c r="E427" s="124"/>
+    </row>
+    <row r="428" spans="5:5" ht="111" customHeight="1">
+      <c r="E428" s="124"/>
+    </row>
+    <row r="429" spans="5:5" ht="111" customHeight="1">
+      <c r="E429" s="124"/>
+    </row>
+    <row r="430" spans="5:5" ht="111" customHeight="1">
+      <c r="E430" s="124"/>
+    </row>
+    <row r="431" spans="5:5" ht="111" customHeight="1">
+      <c r="E431" s="124"/>
+    </row>
+    <row r="432" spans="5:5" ht="111" customHeight="1">
+      <c r="E432" s="124"/>
+    </row>
+    <row r="433" spans="5:5" ht="111" customHeight="1">
+      <c r="E433" s="124"/>
+    </row>
+    <row r="434" spans="5:5" ht="111" customHeight="1">
+      <c r="E434" s="124"/>
+    </row>
+    <row r="435" spans="5:5" ht="111" customHeight="1">
+      <c r="E435" s="124"/>
+    </row>
+    <row r="436" spans="5:5" ht="111" customHeight="1">
+      <c r="E436" s="124"/>
+    </row>
+    <row r="437" spans="5:5" ht="111" customHeight="1">
+      <c r="E437" s="124"/>
+    </row>
+    <row r="438" spans="5:5" ht="111" customHeight="1">
+      <c r="E438" s="124"/>
+    </row>
+    <row r="439" spans="5:5" ht="111" customHeight="1">
+      <c r="E439" s="124"/>
+    </row>
+    <row r="440" spans="5:5" ht="111" customHeight="1">
+      <c r="E440" s="124"/>
+    </row>
+    <row r="441" spans="5:5" ht="111" customHeight="1">
+      <c r="E441" s="124"/>
+    </row>
+    <row r="442" spans="5:5" ht="111" customHeight="1">
+      <c r="E442" s="124"/>
+    </row>
+    <row r="443" spans="5:5" ht="111" customHeight="1">
+      <c r="E443" s="124"/>
+    </row>
+    <row r="444" spans="5:5" ht="111" customHeight="1">
+      <c r="E444" s="124"/>
+    </row>
+    <row r="445" spans="5:5" ht="111" customHeight="1">
+      <c r="E445" s="124"/>
+    </row>
+    <row r="446" spans="5:5" ht="111" customHeight="1">
+      <c r="E446" s="124"/>
+    </row>
+    <row r="447" spans="5:5" ht="111" customHeight="1">
+      <c r="E447" s="124"/>
+    </row>
+    <row r="448" spans="5:5" ht="111" customHeight="1">
+      <c r="E448" s="124"/>
+    </row>
+    <row r="449" spans="5:5" ht="111" customHeight="1">
+      <c r="E449" s="124"/>
+    </row>
+    <row r="450" spans="5:5" ht="111" customHeight="1">
+      <c r="E450" s="124"/>
+    </row>
+    <row r="451" spans="5:5" ht="111" customHeight="1">
+      <c r="E451" s="124"/>
+    </row>
+    <row r="452" spans="5:5" ht="111" customHeight="1">
+      <c r="E452" s="124"/>
+    </row>
+    <row r="453" spans="5:5" ht="111" customHeight="1">
+      <c r="E453" s="124"/>
+    </row>
+    <row r="454" spans="5:5" ht="111" customHeight="1">
+      <c r="E454" s="124"/>
+    </row>
+    <row r="455" spans="5:5" ht="111" customHeight="1">
+      <c r="E455" s="124"/>
+    </row>
+    <row r="456" spans="5:5" ht="111" customHeight="1">
+      <c r="E456" s="124"/>
+    </row>
+    <row r="457" spans="5:5" ht="111" customHeight="1">
+      <c r="E457" s="124"/>
+    </row>
+    <row r="458" spans="5:5" ht="111" customHeight="1">
+      <c r="E458" s="124"/>
+    </row>
+    <row r="459" spans="5:5" ht="111" customHeight="1">
+      <c r="E459" s="124"/>
+    </row>
+    <row r="460" spans="5:5" ht="111" customHeight="1">
+      <c r="E460" s="124"/>
+    </row>
+    <row r="461" spans="5:5" ht="111" customHeight="1">
+      <c r="E461" s="124"/>
+    </row>
+    <row r="462" spans="5:5" ht="111" customHeight="1">
+      <c r="E462" s="124"/>
+    </row>
+    <row r="463" spans="5:5" ht="111" customHeight="1">
+      <c r="E463" s="124"/>
+    </row>
+    <row r="464" spans="5:5" ht="111" customHeight="1">
+      <c r="E464" s="124"/>
+    </row>
+    <row r="465" spans="5:5" ht="111" customHeight="1">
+      <c r="E465" s="124"/>
+    </row>
+    <row r="466" spans="5:5" ht="111" customHeight="1">
+      <c r="E466" s="124"/>
+    </row>
+    <row r="467" spans="5:5" ht="111" customHeight="1">
+      <c r="E467" s="124"/>
+    </row>
+    <row r="468" spans="5:5" ht="111" customHeight="1">
+      <c r="E468" s="124"/>
+    </row>
+    <row r="469" spans="5:5" ht="111" customHeight="1">
+      <c r="E469" s="124"/>
+    </row>
+    <row r="470" spans="5:5" ht="111" customHeight="1">
+      <c r="E470" s="124"/>
+    </row>
+    <row r="471" spans="5:5" ht="111" customHeight="1">
+      <c r="E471" s="124"/>
+    </row>
+    <row r="472" spans="5:5" ht="111" customHeight="1">
+      <c r="E472" s="124"/>
+    </row>
+    <row r="473" spans="5:5" ht="111" customHeight="1">
+      <c r="E473" s="124"/>
+    </row>
+    <row r="474" spans="5:5" ht="111" customHeight="1">
+      <c r="E474" s="124"/>
+    </row>
+    <row r="475" spans="5:5" ht="111" customHeight="1">
+      <c r="E475" s="124"/>
+    </row>
+    <row r="476" spans="5:5" ht="111" customHeight="1">
+      <c r="E476" s="124"/>
+    </row>
+    <row r="477" spans="5:5" ht="111" customHeight="1">
+      <c r="E477" s="124"/>
+    </row>
+    <row r="478" spans="5:5" ht="111" customHeight="1">
+      <c r="E478" s="124"/>
+    </row>
+    <row r="479" spans="5:5" ht="111" customHeight="1">
+      <c r="E479" s="124"/>
+    </row>
+    <row r="480" spans="5:5" ht="111" customHeight="1">
+      <c r="E480" s="124"/>
+    </row>
+    <row r="481" spans="5:5" ht="111" customHeight="1">
+      <c r="E481" s="124"/>
+    </row>
+    <row r="482" spans="5:5" ht="111" customHeight="1">
+      <c r="E482" s="124"/>
+    </row>
+    <row r="483" spans="5:5" ht="111" customHeight="1">
+      <c r="E483" s="124"/>
+    </row>
+    <row r="484" spans="5:5" ht="111" customHeight="1">
+      <c r="E484" s="124"/>
+    </row>
+    <row r="485" spans="5:5" ht="111" customHeight="1">
+      <c r="E485" s="124"/>
+    </row>
+    <row r="486" spans="5:5" ht="111" customHeight="1">
+      <c r="E486" s="124"/>
+    </row>
+    <row r="487" spans="5:5" ht="111" customHeight="1">
+      <c r="E487" s="124"/>
+    </row>
+    <row r="488" spans="5:5" ht="111" customHeight="1">
+      <c r="E488" s="124"/>
+    </row>
+    <row r="489" spans="5:5" ht="111" customHeight="1">
+      <c r="E489" s="124"/>
+    </row>
+    <row r="490" spans="5:5" ht="111" customHeight="1">
+      <c r="E490" s="124"/>
+    </row>
+    <row r="491" spans="5:5" ht="111" customHeight="1">
+      <c r="E491" s="124"/>
+    </row>
+    <row r="492" spans="5:5" ht="111" customHeight="1">
+      <c r="E492" s="124"/>
+    </row>
+    <row r="493" spans="5:5" ht="111" customHeight="1">
+      <c r="E493" s="124"/>
+    </row>
+    <row r="494" spans="5:5" ht="111" customHeight="1">
+      <c r="E494" s="124"/>
+    </row>
+    <row r="495" spans="5:5" ht="111" customHeight="1">
+      <c r="E495" s="124"/>
+    </row>
+    <row r="496" spans="5:5" ht="111" customHeight="1">
+      <c r="E496" s="124"/>
+    </row>
+    <row r="497" spans="5:5" ht="111" customHeight="1">
+      <c r="E497" s="124"/>
+    </row>
+    <row r="498" spans="5:5" ht="111" customHeight="1">
+      <c r="E498" s="124"/>
+    </row>
+    <row r="499" spans="5:5" ht="111" customHeight="1">
+      <c r="E499" s="124"/>
+    </row>
+    <row r="500" spans="5:5" ht="111" customHeight="1">
+      <c r="E500" s="124"/>
+    </row>
+    <row r="501" spans="5:5" ht="111" customHeight="1">
+      <c r="E501" s="124"/>
+    </row>
+    <row r="502" spans="5:5" ht="111" customHeight="1">
+      <c r="E502" s="124"/>
+    </row>
+    <row r="503" spans="5:5" ht="111" customHeight="1">
+      <c r="E503" s="124"/>
+    </row>
+    <row r="504" spans="5:5" ht="111" customHeight="1">
+      <c r="E504" s="124"/>
+    </row>
+    <row r="505" spans="5:5" ht="111" customHeight="1">
+      <c r="E505" s="124"/>
+    </row>
+    <row r="506" spans="5:5" ht="111" customHeight="1">
+      <c r="E506" s="124"/>
+    </row>
+    <row r="507" spans="5:5" ht="111" customHeight="1">
+      <c r="E507" s="124"/>
+    </row>
+    <row r="508" spans="5:5" ht="111" customHeight="1">
+      <c r="E508" s="124"/>
+    </row>
+    <row r="509" spans="5:5" ht="111" customHeight="1">
+      <c r="E509" s="124"/>
+    </row>
+    <row r="510" spans="5:5" ht="111" customHeight="1">
+      <c r="E510" s="124"/>
+    </row>
+    <row r="511" spans="5:5" ht="111" customHeight="1">
+      <c r="E511" s="124"/>
+    </row>
+    <row r="512" spans="5:5" ht="111" customHeight="1">
+      <c r="E512" s="124"/>
+    </row>
+    <row r="513" spans="5:5" ht="111" customHeight="1">
+      <c r="E513" s="124"/>
+    </row>
+    <row r="514" spans="5:5" ht="111" customHeight="1">
+      <c r="E514" s="124"/>
+    </row>
+    <row r="515" spans="5:5" ht="111" customHeight="1">
+      <c r="E515" s="124"/>
+    </row>
+    <row r="516" spans="5:5" ht="111" customHeight="1">
+      <c r="E516" s="124"/>
+    </row>
+    <row r="517" spans="5:5" ht="111" customHeight="1">
+      <c r="E517" s="124"/>
+    </row>
+    <row r="518" spans="5:5" ht="111" customHeight="1">
+      <c r="E518" s="124"/>
+    </row>
+    <row r="519" spans="5:5" ht="111" customHeight="1">
+      <c r="E519" s="124"/>
+    </row>
+    <row r="520" spans="5:5" ht="111" customHeight="1">
+      <c r="E520" s="124"/>
+    </row>
+    <row r="521" spans="5:5" ht="111" customHeight="1">
+      <c r="E521" s="124"/>
+    </row>
+    <row r="522" spans="5:5" ht="111" customHeight="1">
+      <c r="E522" s="124"/>
+    </row>
+    <row r="523" spans="5:5" ht="111" customHeight="1">
+      <c r="E523" s="124"/>
+    </row>
+    <row r="524" spans="5:5" ht="111" customHeight="1">
+      <c r="E524" s="124"/>
+    </row>
+    <row r="525" spans="5:5" ht="111" customHeight="1">
+      <c r="E525" s="124"/>
+    </row>
+    <row r="526" spans="5:5" ht="111" customHeight="1">
+      <c r="E526" s="124"/>
+    </row>
+    <row r="527" spans="5:5" ht="111" customHeight="1">
+      <c r="E527" s="124"/>
+    </row>
+    <row r="528" spans="5:5" ht="111" customHeight="1">
+      <c r="E528" s="124"/>
+    </row>
+    <row r="529" spans="5:5" ht="111" customHeight="1">
+      <c r="E529" s="124"/>
+    </row>
+    <row r="530" spans="5:5" ht="111" customHeight="1">
+      <c r="E530" s="124"/>
+    </row>
+    <row r="531" spans="5:5" ht="111" customHeight="1">
+      <c r="E531" s="124"/>
+    </row>
+    <row r="532" spans="5:5" ht="111" customHeight="1">
+      <c r="E532" s="124"/>
+    </row>
+    <row r="533" spans="5:5" ht="111" customHeight="1">
+      <c r="E533" s="124"/>
+    </row>
+    <row r="534" spans="5:5" ht="111" customHeight="1">
+      <c r="E534" s="124"/>
+    </row>
+    <row r="535" spans="5:5" ht="111" customHeight="1">
+      <c r="E535" s="124"/>
+    </row>
+    <row r="536" spans="5:5" ht="111" customHeight="1">
+      <c r="E536" s="124"/>
+    </row>
+    <row r="537" spans="5:5" ht="111" customHeight="1">
+      <c r="E537" s="124"/>
+    </row>
+    <row r="538" spans="5:5" ht="111" customHeight="1">
+      <c r="E538" s="124"/>
+    </row>
+    <row r="539" spans="5:5" ht="111" customHeight="1">
+      <c r="E539" s="124"/>
+    </row>
+    <row r="540" spans="5:5" ht="111" customHeight="1">
+      <c r="E540" s="124"/>
+    </row>
+    <row r="541" spans="5:5" ht="111" customHeight="1">
+      <c r="E541" s="124"/>
+    </row>
+    <row r="542" spans="5:5" ht="111" customHeight="1">
+      <c r="E542" s="124"/>
+    </row>
+    <row r="543" spans="5:5" ht="111" customHeight="1">
+      <c r="E543" s="124"/>
+    </row>
+    <row r="544" spans="5:5" ht="111" customHeight="1">
+      <c r="E544" s="124"/>
+    </row>
+    <row r="545" spans="5:5" ht="111" customHeight="1">
+      <c r="E545" s="124"/>
+    </row>
+    <row r="546" spans="5:5" ht="111" customHeight="1">
+      <c r="E546" s="124"/>
+    </row>
+    <row r="547" spans="5:5" ht="111" customHeight="1">
+      <c r="E547" s="124"/>
+    </row>
+    <row r="548" spans="5:5" ht="111" customHeight="1">
+      <c r="E548" s="124"/>
+    </row>
+    <row r="549" spans="5:5" ht="111" customHeight="1">
+      <c r="E549" s="124"/>
+    </row>
+    <row r="550" spans="5:5" ht="111" customHeight="1">
+      <c r="E550" s="124"/>
+    </row>
+    <row r="551" spans="5:5" ht="111" customHeight="1">
+      <c r="E551" s="124"/>
+    </row>
+    <row r="552" spans="5:5" ht="111" customHeight="1">
+      <c r="E552" s="124"/>
+    </row>
+    <row r="553" spans="5:5" ht="111" customHeight="1">
+      <c r="E553" s="124"/>
+    </row>
+    <row r="554" spans="5:5" ht="111" customHeight="1">
+      <c r="E554" s="124"/>
+    </row>
+    <row r="555" spans="5:5" ht="111" customHeight="1">
+      <c r="E555" s="124"/>
+    </row>
+    <row r="556" spans="5:5" ht="111" customHeight="1">
+      <c r="E556" s="124"/>
+    </row>
+    <row r="557" spans="5:5" ht="111" customHeight="1">
+      <c r="E557" s="124"/>
+    </row>
+    <row r="558" spans="5:5" ht="111" customHeight="1">
+      <c r="E558" s="124"/>
+    </row>
+    <row r="559" spans="5:5" ht="111" customHeight="1">
+      <c r="E559" s="124"/>
+    </row>
+    <row r="560" spans="5:5" ht="111" customHeight="1">
+      <c r="E560" s="124"/>
+    </row>
+    <row r="561" spans="5:5" ht="111" customHeight="1">
+      <c r="E561" s="124"/>
+    </row>
+    <row r="562" spans="5:5" ht="111" customHeight="1">
+      <c r="E562" s="124"/>
+    </row>
+    <row r="563" spans="5:5" ht="111" customHeight="1">
+      <c r="E563" s="124"/>
+    </row>
+    <row r="564" spans="5:5" ht="111" customHeight="1">
+      <c r="E564" s="124"/>
+    </row>
+    <row r="565" spans="5:5" ht="111" customHeight="1">
+      <c r="E565" s="124"/>
+    </row>
+    <row r="566" spans="5:5" ht="111" customHeight="1">
+      <c r="E566" s="124"/>
+    </row>
+    <row r="567" spans="5:5" ht="111" customHeight="1">
+      <c r="E567" s="124"/>
+    </row>
+    <row r="568" spans="5:5" ht="111" customHeight="1">
+      <c r="E568" s="124"/>
+    </row>
+    <row r="569" spans="5:5" ht="111" customHeight="1">
+      <c r="E569" s="124"/>
+    </row>
+    <row r="570" spans="5:5" ht="111" customHeight="1">
+      <c r="E570" s="124"/>
+    </row>
+    <row r="571" spans="5:5" ht="111" customHeight="1">
+      <c r="E571" s="124"/>
+    </row>
+    <row r="572" spans="5:5" ht="111" customHeight="1">
+      <c r="E572" s="124"/>
+    </row>
+    <row r="573" spans="5:5" ht="111" customHeight="1">
+      <c r="E573" s="124"/>
+    </row>
+    <row r="574" spans="5:5" ht="111" customHeight="1">
+      <c r="E574" s="124"/>
+    </row>
+    <row r="575" spans="5:5" ht="111" customHeight="1">
+      <c r="E575" s="124"/>
+    </row>
+    <row r="576" spans="5:5" ht="111" customHeight="1">
+      <c r="E576" s="124"/>
+    </row>
+    <row r="577" spans="5:5" ht="111" customHeight="1">
+      <c r="E577" s="124"/>
+    </row>
+    <row r="578" spans="5:5" ht="111" customHeight="1">
+      <c r="E578" s="124"/>
+    </row>
+    <row r="579" spans="5:5" ht="111" customHeight="1">
+      <c r="E579" s="124"/>
+    </row>
+    <row r="580" spans="5:5" ht="111" customHeight="1">
+      <c r="E580" s="124"/>
+    </row>
+    <row r="581" spans="5:5" ht="111" customHeight="1">
+      <c r="E581" s="124"/>
+    </row>
+    <row r="582" spans="5:5" ht="111" customHeight="1">
+      <c r="E582" s="124"/>
+    </row>
+    <row r="583" spans="5:5" ht="111" customHeight="1">
+      <c r="E583" s="124"/>
+    </row>
+    <row r="584" spans="5:5" ht="111" customHeight="1">
+      <c r="E584" s="124"/>
+    </row>
+    <row r="585" spans="5:5" ht="111" customHeight="1">
+      <c r="E585" s="124"/>
+    </row>
+    <row r="586" spans="5:5" ht="111" customHeight="1">
+      <c r="E586" s="124"/>
+    </row>
+    <row r="587" spans="5:5" ht="111" customHeight="1">
+      <c r="E587" s="124"/>
+    </row>
+    <row r="588" spans="5:5" ht="111" customHeight="1">
+      <c r="E588" s="124"/>
+    </row>
+    <row r="589" spans="5:5" ht="111" customHeight="1">
+      <c r="E589" s="124"/>
+    </row>
+    <row r="590" spans="5:5" ht="111" customHeight="1">
+      <c r="E590" s="124"/>
+    </row>
+    <row r="591" spans="5:5" ht="111" customHeight="1">
+      <c r="E591" s="124"/>
+    </row>
+    <row r="592" spans="5:5" ht="111" customHeight="1">
+      <c r="E592" s="124"/>
+    </row>
+    <row r="593" spans="5:5" ht="111" customHeight="1">
+      <c r="E593" s="124"/>
+    </row>
+    <row r="594" spans="5:5" ht="111" customHeight="1">
+      <c r="E594" s="124"/>
+    </row>
+    <row r="595" spans="5:5" ht="111" customHeight="1">
+      <c r="E595" s="124"/>
+    </row>
+    <row r="596" spans="5:5" ht="111" customHeight="1">
+      <c r="E596" s="124"/>
+    </row>
+    <row r="597" spans="5:5" ht="111" customHeight="1">
+      <c r="E597" s="124"/>
+    </row>
+    <row r="598" spans="5:5" ht="111" customHeight="1">
+      <c r="E598" s="124"/>
+    </row>
+    <row r="599" spans="5:5" ht="111" customHeight="1">
+      <c r="E599" s="124"/>
+    </row>
+    <row r="600" spans="5:5" ht="111" customHeight="1">
+      <c r="E600" s="124"/>
+    </row>
+    <row r="601" spans="5:5" ht="111" customHeight="1">
+      <c r="E601" s="124"/>
+    </row>
+    <row r="602" spans="5:5" ht="111" customHeight="1">
+      <c r="E602" s="124"/>
+    </row>
+    <row r="603" spans="5:5" ht="111" customHeight="1">
+      <c r="E603" s="124"/>
+    </row>
+    <row r="604" spans="5:5" ht="111" customHeight="1">
+      <c r="E604" s="124"/>
+    </row>
+    <row r="605" spans="5:5" ht="111" customHeight="1">
+      <c r="E605" s="124"/>
+    </row>
+    <row r="606" spans="5:5" ht="111" customHeight="1">
+      <c r="E606" s="124"/>
+    </row>
+    <row r="607" spans="5:5" ht="111" customHeight="1">
+      <c r="E607" s="124"/>
+    </row>
+    <row r="608" spans="5:5" ht="111" customHeight="1">
+      <c r="E608" s="124"/>
+    </row>
+    <row r="609" spans="5:5" ht="111" customHeight="1">
+      <c r="E609" s="124"/>
+    </row>
+    <row r="610" spans="5:5" ht="111" customHeight="1">
+      <c r="E610" s="124"/>
+    </row>
+    <row r="611" spans="5:5" ht="111" customHeight="1">
+      <c r="E611" s="124"/>
+    </row>
+    <row r="612" spans="5:5" ht="111" customHeight="1">
+      <c r="E612" s="124"/>
+    </row>
+    <row r="613" spans="5:5" ht="111" customHeight="1">
+      <c r="E613" s="124"/>
+    </row>
+    <row r="614" spans="5:5" ht="111" customHeight="1">
+      <c r="E614" s="124"/>
+    </row>
+    <row r="615" spans="5:5" ht="111" customHeight="1">
+      <c r="E615" s="124"/>
+    </row>
+    <row r="616" spans="5:5" ht="111" customHeight="1">
+      <c r="E616" s="124"/>
+    </row>
+    <row r="617" spans="5:5" ht="111" customHeight="1">
+      <c r="E617" s="124"/>
+    </row>
+    <row r="618" spans="5:5" ht="111" customHeight="1">
+      <c r="E618" s="124"/>
+    </row>
+    <row r="619" spans="5:5" ht="111" customHeight="1">
+      <c r="E619" s="124"/>
+    </row>
+    <row r="620" spans="5:5" ht="111" customHeight="1">
+      <c r="E620" s="124"/>
+    </row>
+    <row r="621" spans="5:5" ht="111" customHeight="1">
+      <c r="E621" s="124"/>
+    </row>
+    <row r="622" spans="5:5" ht="111" customHeight="1">
+      <c r="E622" s="124"/>
+    </row>
+    <row r="623" spans="5:5" ht="111" customHeight="1">
+      <c r="E623" s="124"/>
+    </row>
+    <row r="624" spans="5:5" ht="111" customHeight="1">
+      <c r="E624" s="124"/>
+    </row>
+    <row r="625" spans="5:5" ht="111" customHeight="1">
+      <c r="E625" s="124"/>
+    </row>
+    <row r="626" spans="5:5" ht="111" customHeight="1">
+      <c r="E626" s="124"/>
+    </row>
+    <row r="627" spans="5:5" ht="111" customHeight="1">
+      <c r="E627" s="124"/>
+    </row>
+    <row r="628" spans="5:5" ht="111" customHeight="1">
+      <c r="E628" s="124"/>
+    </row>
+    <row r="629" spans="5:5" ht="111" customHeight="1">
+      <c r="E629" s="124"/>
+    </row>
+    <row r="630" spans="5:5" ht="111" customHeight="1">
+      <c r="E630" s="124"/>
+    </row>
+    <row r="631" spans="5:5" ht="111" customHeight="1">
+      <c r="E631" s="124"/>
+    </row>
+    <row r="632" spans="5:5" ht="111" customHeight="1">
+      <c r="E632" s="124"/>
+    </row>
+    <row r="633" spans="5:5" ht="111" customHeight="1">
+      <c r="E633" s="124"/>
+    </row>
+    <row r="634" spans="5:5" ht="111" customHeight="1">
+      <c r="E634" s="124"/>
+    </row>
+    <row r="635" spans="5:5" ht="111" customHeight="1">
+      <c r="E635" s="124"/>
+    </row>
+    <row r="636" spans="5:5" ht="111" customHeight="1">
+      <c r="E636" s="124"/>
+    </row>
+    <row r="637" spans="5:5" ht="111" customHeight="1">
+      <c r="E637" s="124"/>
+    </row>
+    <row r="638" spans="5:5" ht="111" customHeight="1">
+      <c r="E638" s="124"/>
+    </row>
+    <row r="639" spans="5:5" ht="111" customHeight="1">
+      <c r="E639" s="124"/>
+    </row>
+    <row r="640" spans="5:5" ht="111" customHeight="1">
+      <c r="E640" s="124"/>
+    </row>
+    <row r="641" spans="5:5" ht="111" customHeight="1">
+      <c r="E641" s="124"/>
+    </row>
+    <row r="642" spans="5:5" ht="111" customHeight="1">
+      <c r="E642" s="124"/>
+    </row>
+    <row r="643" spans="5:5" ht="111" customHeight="1">
+      <c r="E643" s="124"/>
+    </row>
+    <row r="644" spans="5:5" ht="111" customHeight="1">
+      <c r="E644" s="124"/>
+    </row>
+    <row r="645" spans="5:5" ht="111" customHeight="1">
+      <c r="E645" s="124"/>
+    </row>
+    <row r="646" spans="5:5" ht="111" customHeight="1">
+      <c r="E646" s="124"/>
+    </row>
+    <row r="647" spans="5:5" ht="111" customHeight="1">
+      <c r="E647" s="124"/>
+    </row>
+    <row r="648" spans="5:5" ht="111" customHeight="1">
+      <c r="E648" s="124"/>
+    </row>
+    <row r="649" spans="5:5" ht="111" customHeight="1">
+      <c r="E649" s="124"/>
+    </row>
+    <row r="650" spans="5:5" ht="111" customHeight="1">
+      <c r="E650" s="124"/>
+    </row>
+    <row r="651" spans="5:5" ht="111" customHeight="1">
+      <c r="E651" s="124"/>
+    </row>
+    <row r="652" spans="5:5" ht="111" customHeight="1">
+      <c r="E652" s="124"/>
+    </row>
+    <row r="653" spans="5:5" ht="111" customHeight="1">
+      <c r="E653" s="124"/>
+    </row>
+    <row r="654" spans="5:5" ht="111" customHeight="1">
+      <c r="E654" s="124"/>
+    </row>
+    <row r="655" spans="5:5" ht="111" customHeight="1">
+      <c r="E655" s="124"/>
+    </row>
+    <row r="656" spans="5:5" ht="111" customHeight="1">
+      <c r="E656" s="124"/>
+    </row>
+    <row r="657" spans="5:5" ht="111" customHeight="1">
+      <c r="E657" s="124"/>
+    </row>
+    <row r="658" spans="5:5" ht="111" customHeight="1">
+      <c r="E658" s="124"/>
+    </row>
+    <row r="659" spans="5:5" ht="111" customHeight="1">
+      <c r="E659" s="124"/>
+    </row>
+    <row r="660" spans="5:5" ht="111" customHeight="1">
+      <c r="E660" s="124"/>
+    </row>
+    <row r="661" spans="5:5" ht="111" customHeight="1">
+      <c r="E661" s="124"/>
+    </row>
+    <row r="662" spans="5:5" ht="111" customHeight="1">
+      <c r="E662" s="124"/>
+    </row>
+    <row r="663" spans="5:5" ht="111" customHeight="1">
+      <c r="E663" s="124"/>
+    </row>
+    <row r="664" spans="5:5" ht="111" customHeight="1">
+      <c r="E664" s="124"/>
+    </row>
+    <row r="665" spans="5:5" ht="111" customHeight="1">
+      <c r="E665" s="124"/>
+    </row>
+    <row r="666" spans="5:5" ht="111" customHeight="1">
+      <c r="E666" s="124"/>
+    </row>
+    <row r="667" spans="5:5" ht="111" customHeight="1">
+      <c r="E667" s="124"/>
+    </row>
+    <row r="668" spans="5:5" ht="111" customHeight="1">
+      <c r="E668" s="124"/>
+    </row>
+    <row r="669" spans="5:5" ht="111" customHeight="1">
+      <c r="E669" s="124"/>
+    </row>
+    <row r="670" spans="5:5" ht="111" customHeight="1">
+      <c r="E670" s="124"/>
+    </row>
+    <row r="671" spans="5:5" ht="111" customHeight="1">
+      <c r="E671" s="124"/>
+    </row>
+    <row r="672" spans="5:5" ht="111" customHeight="1">
+      <c r="E672" s="124"/>
+    </row>
+    <row r="673" spans="5:5" ht="111" customHeight="1">
+      <c r="E673" s="124"/>
+    </row>
+    <row r="674" spans="5:5" ht="111" customHeight="1">
+      <c r="E674" s="124"/>
+    </row>
+    <row r="675" spans="5:5" ht="111" customHeight="1">
+      <c r="E675" s="124"/>
+    </row>
+    <row r="676" spans="5:5" ht="111" customHeight="1">
+      <c r="E676" s="124"/>
+    </row>
+    <row r="677" spans="5:5" ht="111" customHeight="1">
+      <c r="E677" s="124"/>
+    </row>
+    <row r="678" spans="5:5" ht="111" customHeight="1">
+      <c r="E678" s="124"/>
+    </row>
+    <row r="679" spans="5:5" ht="111" customHeight="1">
+      <c r="E679" s="124"/>
+    </row>
+    <row r="680" spans="5:5" ht="111" customHeight="1">
+      <c r="E680" s="124"/>
+    </row>
+    <row r="681" spans="5:5" ht="111" customHeight="1">
+      <c r="E681" s="124"/>
+    </row>
+    <row r="682" spans="5:5" ht="111" customHeight="1">
+      <c r="E682" s="124"/>
+    </row>
+    <row r="683" spans="5:5" ht="111" customHeight="1">
+      <c r="E683" s="124"/>
+    </row>
+    <row r="684" spans="5:5" ht="111" customHeight="1">
+      <c r="E684" s="124"/>
+    </row>
+    <row r="685" spans="5:5" ht="111" customHeight="1">
+      <c r="E685" s="124"/>
+    </row>
+    <row r="686" spans="5:5" ht="111" customHeight="1">
+      <c r="E686" s="124"/>
+    </row>
+    <row r="687" spans="5:5" ht="111" customHeight="1">
+      <c r="E687" s="124"/>
+    </row>
+    <row r="688" spans="5:5" ht="111" customHeight="1">
+      <c r="E688" s="124"/>
+    </row>
+    <row r="689" spans="5:5" ht="111" customHeight="1">
+      <c r="E689" s="124"/>
+    </row>
+    <row r="690" spans="5:5" ht="111" customHeight="1">
+      <c r="E690" s="124"/>
+    </row>
+    <row r="691" spans="5:5" ht="111" customHeight="1">
+      <c r="E691" s="124"/>
+    </row>
+    <row r="692" spans="5:5" ht="111" customHeight="1">
+      <c r="E692" s="124"/>
+    </row>
+    <row r="693" spans="5:5" ht="111" customHeight="1">
+      <c r="E693" s="124"/>
+    </row>
+    <row r="694" spans="5:5" ht="111" customHeight="1">
+      <c r="E694" s="124"/>
+    </row>
+    <row r="695" spans="5:5" ht="111" customHeight="1">
+      <c r="E695" s="124"/>
+    </row>
+    <row r="696" spans="5:5" ht="111" customHeight="1">
+      <c r="E696" s="124"/>
+    </row>
+    <row r="697" spans="5:5" ht="111" customHeight="1">
+      <c r="E697" s="124"/>
+    </row>
+    <row r="698" spans="5:5" ht="111" customHeight="1">
+      <c r="E698" s="124"/>
+    </row>
+    <row r="699" spans="5:5" ht="111" customHeight="1">
+      <c r="E699" s="124"/>
+    </row>
+    <row r="700" spans="5:5" ht="111" customHeight="1">
+      <c r="E700" s="124"/>
+    </row>
+    <row r="701" spans="5:5" ht="111" customHeight="1">
+      <c r="E701" s="124"/>
+    </row>
+    <row r="702" spans="5:5" ht="111" customHeight="1">
+      <c r="E702" s="124"/>
+    </row>
+    <row r="703" spans="5:5" ht="111" customHeight="1">
+      <c r="E703" s="124"/>
+    </row>
+    <row r="704" spans="5:5" ht="111" customHeight="1">
+      <c r="E704" s="124"/>
+    </row>
+    <row r="705" spans="5:5" ht="111" customHeight="1">
+      <c r="E705" s="124"/>
+    </row>
+    <row r="706" spans="5:5" ht="111" customHeight="1">
+      <c r="E706" s="124"/>
+    </row>
+    <row r="707" spans="5:5" ht="111" customHeight="1">
+      <c r="E707" s="124"/>
+    </row>
+    <row r="708" spans="5:5" ht="111" customHeight="1">
+      <c r="E708" s="124"/>
+    </row>
+    <row r="709" spans="5:5" ht="111" customHeight="1">
+      <c r="E709" s="124"/>
+    </row>
+    <row r="710" spans="5:5" ht="111" customHeight="1">
+      <c r="E710" s="124"/>
+    </row>
+    <row r="711" spans="5:5" ht="111" customHeight="1">
+      <c r="E711" s="124"/>
+    </row>
+    <row r="712" spans="5:5" ht="111" customHeight="1">
+      <c r="E712" s="124"/>
+    </row>
+    <row r="713" spans="5:5" ht="111" customHeight="1">
+      <c r="E713" s="124"/>
+    </row>
+    <row r="714" spans="5:5" ht="111" customHeight="1">
+      <c r="E714" s="124"/>
+    </row>
+    <row r="715" spans="5:5" ht="111" customHeight="1">
+      <c r="E715" s="124"/>
+    </row>
+    <row r="716" spans="5:5" ht="111" customHeight="1">
+      <c r="E716" s="124"/>
+    </row>
+    <row r="717" spans="5:5" ht="111" customHeight="1">
+      <c r="E717" s="124"/>
+    </row>
+    <row r="718" spans="5:5" ht="111" customHeight="1">
+      <c r="E718" s="124"/>
+    </row>
+    <row r="719" spans="5:5" ht="111" customHeight="1">
+      <c r="E719" s="124"/>
+    </row>
+    <row r="720" spans="5:5" ht="111" customHeight="1">
+      <c r="E720" s="124"/>
+    </row>
+    <row r="721" spans="5:5" ht="111" customHeight="1">
+      <c r="E721" s="124"/>
+    </row>
+    <row r="722" spans="5:5" ht="111" customHeight="1">
+      <c r="E722" s="124"/>
+    </row>
+    <row r="723" spans="5:5" ht="111" customHeight="1">
+      <c r="E723" s="124"/>
+    </row>
+    <row r="724" spans="5:5" ht="111" customHeight="1">
+      <c r="E724" s="124"/>
+    </row>
+    <row r="725" spans="5:5" ht="111" customHeight="1">
+      <c r="E725" s="124"/>
+    </row>
+    <row r="726" spans="5:5" ht="111" customHeight="1">
+      <c r="E726" s="124"/>
+    </row>
+    <row r="727" spans="5:5" ht="111" customHeight="1">
+      <c r="E727" s="124"/>
+    </row>
+    <row r="728" spans="5:5" ht="111" customHeight="1">
+      <c r="E728" s="124"/>
+    </row>
+    <row r="729" spans="5:5" ht="111" customHeight="1">
+      <c r="E729" s="124"/>
+    </row>
+    <row r="730" spans="5:5" ht="111" customHeight="1">
+      <c r="E730" s="124"/>
+    </row>
+    <row r="731" spans="5:5" ht="111" customHeight="1">
+      <c r="E731" s="124"/>
+    </row>
+    <row r="732" spans="5:5" ht="111" customHeight="1">
+      <c r="E732" s="124"/>
+    </row>
+    <row r="733" spans="5:5" ht="111" customHeight="1">
+      <c r="E733" s="124"/>
+    </row>
+    <row r="734" spans="5:5" ht="111" customHeight="1">
+      <c r="E734" s="124"/>
+    </row>
+    <row r="735" spans="5:5" ht="111" customHeight="1">
+      <c r="E735" s="124"/>
+    </row>
+    <row r="736" spans="5:5" ht="111" customHeight="1">
+      <c r="E736" s="124"/>
+    </row>
+    <row r="737" spans="5:5" ht="111" customHeight="1">
+      <c r="E737" s="124"/>
+    </row>
+    <row r="738" spans="5:5" ht="111" customHeight="1">
+      <c r="E738" s="124"/>
+    </row>
+    <row r="739" spans="5:5" ht="111" customHeight="1">
+      <c r="E739" s="124"/>
+    </row>
+    <row r="740" spans="5:5" ht="111" customHeight="1">
+      <c r="E740" s="124"/>
+    </row>
+    <row r="741" spans="5:5" ht="111" customHeight="1">
+      <c r="E741" s="124"/>
+    </row>
+    <row r="742" spans="5:5" ht="111" customHeight="1">
+      <c r="E742" s="124"/>
+    </row>
+    <row r="743" spans="5:5" ht="111" customHeight="1">
+      <c r="E743" s="124"/>
+    </row>
+    <row r="744" spans="5:5" ht="111" customHeight="1">
+      <c r="E744" s="124"/>
+    </row>
+    <row r="745" spans="5:5" ht="111" customHeight="1">
+      <c r="E745" s="124"/>
+    </row>
+    <row r="746" spans="5:5" ht="111" customHeight="1">
+      <c r="E746" s="124"/>
+    </row>
+    <row r="747" spans="5:5" ht="111" customHeight="1">
+      <c r="E747" s="124"/>
+    </row>
+    <row r="748" spans="5:5" ht="111" customHeight="1">
+      <c r="E748" s="124"/>
+    </row>
+    <row r="749" spans="5:5" ht="111" customHeight="1">
+      <c r="E749" s="124"/>
+    </row>
+    <row r="750" spans="5:5" ht="111" customHeight="1">
+      <c r="E750" s="124"/>
+    </row>
+    <row r="751" spans="5:5" ht="111" customHeight="1">
+      <c r="E751" s="124"/>
+    </row>
+    <row r="752" spans="5:5" ht="111" customHeight="1">
+      <c r="E752" s="124"/>
+    </row>
+    <row r="753" spans="5:5" ht="111" customHeight="1">
+      <c r="E753" s="124"/>
+    </row>
+    <row r="754" spans="5:5" ht="111" customHeight="1">
+      <c r="E754" s="124"/>
+    </row>
+    <row r="755" spans="5:5" ht="111" customHeight="1">
+      <c r="E755" s="124"/>
+    </row>
+    <row r="756" spans="5:5" ht="111" customHeight="1">
+      <c r="E756" s="124"/>
+    </row>
+    <row r="757" spans="5:5" ht="111" customHeight="1">
+      <c r="E757" s="124"/>
+    </row>
+    <row r="758" spans="5:5" ht="111" customHeight="1">
+      <c r="E758" s="124"/>
+    </row>
+    <row r="759" spans="5:5" ht="111" customHeight="1">
+      <c r="E759" s="124"/>
+    </row>
+    <row r="760" spans="5:5" ht="111" customHeight="1">
+      <c r="E760" s="124"/>
+    </row>
+    <row r="761" spans="5:5" ht="111" customHeight="1">
+      <c r="E761" s="124"/>
+    </row>
+    <row r="762" spans="5:5" ht="111" customHeight="1">
+      <c r="E762" s="124"/>
+    </row>
+    <row r="763" spans="5:5" ht="111" customHeight="1">
+      <c r="E763" s="124"/>
+    </row>
+    <row r="764" spans="5:5" ht="111" customHeight="1">
+      <c r="E764" s="124"/>
+    </row>
+    <row r="765" spans="5:5" ht="111" customHeight="1">
+      <c r="E765" s="124"/>
+    </row>
+    <row r="766" spans="5:5" ht="111" customHeight="1">
+      <c r="E766" s="124"/>
+    </row>
+    <row r="767" spans="5:5" ht="111" customHeight="1">
+      <c r="E767" s="124"/>
+    </row>
+    <row r="768" spans="5:5" ht="111" customHeight="1">
+      <c r="E768" s="124"/>
+    </row>
+    <row r="769" spans="5:5" ht="111" customHeight="1">
+      <c r="E769" s="124"/>
+    </row>
+    <row r="770" spans="5:5" ht="111" customHeight="1">
+      <c r="E770" s="124"/>
+    </row>
+    <row r="771" spans="5:5" ht="111" customHeight="1">
+      <c r="E771" s="124"/>
+    </row>
+    <row r="772" spans="5:5" ht="111" customHeight="1">
+      <c r="E772" s="124"/>
+    </row>
+    <row r="773" spans="5:5" ht="111" customHeight="1">
+      <c r="E773" s="124"/>
+    </row>
+    <row r="774" spans="5:5" ht="111" customHeight="1">
+      <c r="E774" s="124"/>
+    </row>
+    <row r="775" spans="5:5" ht="111" customHeight="1">
+      <c r="E775" s="124"/>
+    </row>
+    <row r="776" spans="5:5" ht="111" customHeight="1">
+      <c r="E776" s="124"/>
+    </row>
+    <row r="777" spans="5:5" ht="111" customHeight="1">
+      <c r="E777" s="124"/>
+    </row>
+    <row r="778" spans="5:5" ht="111" customHeight="1">
+      <c r="E778" s="124"/>
+    </row>
+    <row r="779" spans="5:5" ht="111" customHeight="1">
+      <c r="E779" s="124"/>
+    </row>
+    <row r="780" spans="5:5" ht="111" customHeight="1">
+      <c r="E780" s="124"/>
+    </row>
+    <row r="781" spans="5:5" ht="111" customHeight="1">
+      <c r="E781" s="124"/>
+    </row>
+    <row r="782" spans="5:5" ht="111" customHeight="1">
+      <c r="E782" s="124"/>
+    </row>
+    <row r="783" spans="5:5" ht="111" customHeight="1">
+      <c r="E783" s="124"/>
+    </row>
+    <row r="784" spans="5:5" ht="111" customHeight="1">
+      <c r="E784" s="124"/>
+    </row>
+    <row r="785" spans="5:5" ht="111" customHeight="1">
+      <c r="E785" s="124"/>
+    </row>
+    <row r="786" spans="5:5" ht="111" customHeight="1">
+      <c r="E786" s="124"/>
+    </row>
+    <row r="787" spans="5:5" ht="111" customHeight="1">
+      <c r="E787" s="124"/>
+    </row>
+    <row r="788" spans="5:5" ht="111" customHeight="1">
+      <c r="E788" s="124"/>
+    </row>
+    <row r="789" spans="5:5" ht="111" customHeight="1">
+      <c r="E789" s="124"/>
+    </row>
+    <row r="790" spans="5:5" ht="111" customHeight="1">
+      <c r="E790" s="124"/>
+    </row>
+    <row r="791" spans="5:5" ht="111" customHeight="1">
+      <c r="E791" s="124"/>
+    </row>
+    <row r="792" spans="5:5" ht="111" customHeight="1">
+      <c r="E792" s="124"/>
+    </row>
+    <row r="793" spans="5:5" ht="111" customHeight="1">
+      <c r="E793" s="124"/>
+    </row>
+    <row r="794" spans="5:5" ht="111" customHeight="1">
+      <c r="E794" s="124"/>
+    </row>
+    <row r="795" spans="5:5" ht="111" customHeight="1">
+      <c r="E795" s="124"/>
+    </row>
+    <row r="796" spans="5:5" ht="111" customHeight="1">
+      <c r="E796" s="124"/>
+    </row>
+    <row r="797" spans="5:5" ht="111" customHeight="1">
+      <c r="E797" s="124"/>
+    </row>
+    <row r="798" spans="5:5" ht="111" customHeight="1">
+      <c r="E798" s="124"/>
+    </row>
+    <row r="799" spans="5:5" ht="111" customHeight="1">
+      <c r="E799" s="124"/>
+    </row>
+    <row r="800" spans="5:5" ht="111" customHeight="1">
+      <c r="E800" s="124"/>
+    </row>
+    <row r="801" spans="5:5" ht="111" customHeight="1">
+      <c r="E801" s="124"/>
+    </row>
+    <row r="802" spans="5:5" ht="111" customHeight="1">
+      <c r="E802" s="124"/>
+    </row>
+    <row r="803" spans="5:5" ht="111" customHeight="1">
+      <c r="E803" s="124"/>
+    </row>
+    <row r="804" spans="5:5" ht="111" customHeight="1">
+      <c r="E804" s="124"/>
+    </row>
+    <row r="805" spans="5:5" ht="111" customHeight="1">
+      <c r="E805" s="124"/>
+    </row>
+    <row r="806" spans="5:5" ht="111" customHeight="1">
+      <c r="E806" s="124"/>
+    </row>
+    <row r="807" spans="5:5" ht="111" customHeight="1">
+      <c r="E807" s="124"/>
+    </row>
+    <row r="808" spans="5:5" ht="111" customHeight="1">
+      <c r="E808" s="124"/>
+    </row>
+    <row r="809" spans="5:5" ht="111" customHeight="1">
+      <c r="E809" s="124"/>
+    </row>
+    <row r="810" spans="5:5" ht="111" customHeight="1">
+      <c r="E810" s="124"/>
+    </row>
+    <row r="811" spans="5:5" ht="111" customHeight="1">
+      <c r="E811" s="124"/>
+    </row>
+    <row r="812" spans="5:5" ht="111" customHeight="1">
+      <c r="E812" s="124"/>
+    </row>
+    <row r="813" spans="5:5" ht="111" customHeight="1">
+      <c r="E813" s="124"/>
+    </row>
+    <row r="814" spans="5:5" ht="111" customHeight="1">
+      <c r="E814" s="124"/>
+    </row>
+    <row r="815" spans="5:5" ht="111" customHeight="1">
+      <c r="E815" s="124"/>
+    </row>
+    <row r="816" spans="5:5" ht="111" customHeight="1">
+      <c r="E816" s="124"/>
+    </row>
+    <row r="817" spans="5:5" ht="111" customHeight="1">
+      <c r="E817" s="124"/>
+    </row>
+    <row r="818" spans="5:5" ht="111" customHeight="1">
+      <c r="E818" s="124"/>
+    </row>
+    <row r="819" spans="5:5" ht="111" customHeight="1">
+      <c r="E819" s="124"/>
+    </row>
+    <row r="820" spans="5:5" ht="111" customHeight="1">
+      <c r="E820" s="124"/>
+    </row>
+    <row r="821" spans="5:5" ht="111" customHeight="1">
+      <c r="E821" s="124"/>
+    </row>
+    <row r="822" spans="5:5" ht="111" customHeight="1">
+      <c r="E822" s="124"/>
+    </row>
+    <row r="823" spans="5:5" ht="111" customHeight="1">
+      <c r="E823" s="124"/>
+    </row>
+    <row r="824" spans="5:5" ht="111" customHeight="1">
+      <c r="E824" s="124"/>
+    </row>
+    <row r="825" spans="5:5" ht="111" customHeight="1">
+      <c r="E825" s="124"/>
+    </row>
+    <row r="826" spans="5:5" ht="111" customHeight="1">
+      <c r="E826" s="124"/>
+    </row>
+    <row r="827" spans="5:5" ht="111" customHeight="1">
+      <c r="E827" s="124"/>
+    </row>
+    <row r="828" spans="5:5" ht="111" customHeight="1">
+      <c r="E828" s="124"/>
+    </row>
+    <row r="829" spans="5:5" ht="111" customHeight="1">
+      <c r="E829" s="124"/>
+    </row>
+    <row r="830" spans="5:5" ht="111" customHeight="1">
+      <c r="E830" s="124"/>
+    </row>
+    <row r="831" spans="5:5" ht="111" customHeight="1">
+      <c r="E831" s="124"/>
+    </row>
+    <row r="832" spans="5:5" ht="111" customHeight="1">
+      <c r="E832" s="124"/>
+    </row>
+    <row r="833" spans="5:5" ht="111" customHeight="1">
+      <c r="E833" s="124"/>
+    </row>
+    <row r="834" spans="5:5" ht="111" customHeight="1">
+      <c r="E834" s="124"/>
+    </row>
+    <row r="835" spans="5:5" ht="111" customHeight="1">
+      <c r="E835" s="124"/>
+    </row>
+    <row r="836" spans="5:5" ht="111" customHeight="1">
+      <c r="E836" s="124"/>
+    </row>
+    <row r="837" spans="5:5" ht="111" customHeight="1">
+      <c r="E837" s="124"/>
+    </row>
+    <row r="838" spans="5:5" ht="111" customHeight="1">
+      <c r="E838" s="124"/>
+    </row>
+    <row r="839" spans="5:5" ht="111" customHeight="1">
+      <c r="E839" s="124"/>
+    </row>
+    <row r="840" spans="5:5" ht="111" customHeight="1">
+      <c r="E840" s="124"/>
+    </row>
+    <row r="841" spans="5:5" ht="111" customHeight="1">
+      <c r="E841" s="124"/>
+    </row>
+    <row r="842" spans="5:5" ht="111" customHeight="1">
+      <c r="E842" s="124"/>
+    </row>
+    <row r="843" spans="5:5" ht="111" customHeight="1">
+      <c r="E843" s="124"/>
+    </row>
+    <row r="844" spans="5:5" ht="111" customHeight="1">
+      <c r="E844" s="124"/>
+    </row>
+    <row r="845" spans="5:5" ht="111" customHeight="1">
+      <c r="E845" s="124"/>
+    </row>
+    <row r="846" spans="5:5" ht="111" customHeight="1">
+      <c r="E846" s="124"/>
+    </row>
+    <row r="847" spans="5:5" ht="111" customHeight="1">
+      <c r="E847" s="124"/>
+    </row>
+    <row r="848" spans="5:5" ht="111" customHeight="1">
+      <c r="E848" s="124"/>
+    </row>
+    <row r="849" spans="5:5" ht="111" customHeight="1">
+      <c r="E849" s="124"/>
+    </row>
+    <row r="850" spans="5:5" ht="111" customHeight="1">
+      <c r="E850" s="124"/>
+    </row>
+    <row r="851" spans="5:5" ht="111" customHeight="1">
+      <c r="E851" s="124"/>
+    </row>
+    <row r="852" spans="5:5" ht="111" customHeight="1">
+      <c r="E852" s="124"/>
+    </row>
+    <row r="853" spans="5:5" ht="111" customHeight="1">
+      <c r="E853" s="124"/>
+    </row>
+    <row r="854" spans="5:5" ht="111" customHeight="1">
+      <c r="E854" s="124"/>
+    </row>
+    <row r="855" spans="5:5" ht="111" customHeight="1">
+      <c r="E855" s="124"/>
+    </row>
+    <row r="856" spans="5:5" ht="111" customHeight="1">
+      <c r="E856" s="124"/>
+    </row>
+    <row r="857" spans="5:5" ht="111" customHeight="1">
+      <c r="E857" s="124"/>
+    </row>
+    <row r="858" spans="5:5" ht="111" customHeight="1">
+      <c r="E858" s="124"/>
+    </row>
+    <row r="859" spans="5:5" ht="111" customHeight="1">
+      <c r="E859" s="124"/>
+    </row>
+    <row r="860" spans="5:5" ht="111" customHeight="1">
+      <c r="E860" s="124"/>
+    </row>
+    <row r="861" spans="5:5" ht="111" customHeight="1">
+      <c r="E861" s="124"/>
+    </row>
+    <row r="862" spans="5:5" ht="111" customHeight="1">
+      <c r="E862" s="124"/>
+    </row>
+    <row r="863" spans="5:5" ht="111" customHeight="1">
+      <c r="E863" s="124"/>
+    </row>
+    <row r="864" spans="5:5" ht="111" customHeight="1">
+      <c r="E864" s="124"/>
+    </row>
+    <row r="865" spans="5:5" ht="111" customHeight="1">
+      <c r="E865" s="124"/>
+    </row>
+    <row r="866" spans="5:5" ht="111" customHeight="1">
+      <c r="E866" s="124"/>
+    </row>
+    <row r="867" spans="5:5" ht="111" customHeight="1">
+      <c r="E867" s="124"/>
+    </row>
+    <row r="868" spans="5:5" ht="111" customHeight="1">
+      <c r="E868" s="124"/>
+    </row>
+    <row r="869" spans="5:5" ht="111" customHeight="1">
+      <c r="E869" s="124"/>
+    </row>
+    <row r="870" spans="5:5" ht="111" customHeight="1">
+      <c r="E870" s="124"/>
+    </row>
+    <row r="871" spans="5:5" ht="111" customHeight="1">
+      <c r="E871" s="124"/>
+    </row>
+    <row r="872" spans="5:5" ht="111" customHeight="1">
+      <c r="E872" s="124"/>
+    </row>
+    <row r="873" spans="5:5" ht="111" customHeight="1">
+      <c r="E873" s="124"/>
+    </row>
+    <row r="874" spans="5:5" ht="111" customHeight="1">
+      <c r="E874" s="124"/>
+    </row>
+    <row r="875" spans="5:5" ht="111" customHeight="1">
+      <c r="E875" s="124"/>
+    </row>
+    <row r="876" spans="5:5" ht="111" customHeight="1">
+      <c r="E876" s="124"/>
+    </row>
+    <row r="877" spans="5:5" ht="111" customHeight="1">
+      <c r="E877" s="124"/>
+    </row>
+    <row r="878" spans="5:5" ht="111" customHeight="1">
+      <c r="E878" s="124"/>
+    </row>
+    <row r="879" spans="5:5" ht="111" customHeight="1">
+      <c r="E879" s="124"/>
+    </row>
+    <row r="880" spans="5:5" ht="111" customHeight="1">
+      <c r="E880" s="124"/>
+    </row>
+    <row r="881" spans="5:5" ht="111" customHeight="1">
+      <c r="E881" s="124"/>
+    </row>
+    <row r="882" spans="5:5" ht="111" customHeight="1">
+      <c r="E882" s="124"/>
+    </row>
+    <row r="883" spans="5:5" ht="111" customHeight="1">
+      <c r="E883" s="124"/>
+    </row>
+    <row r="884" spans="5:5" ht="111" customHeight="1">
+      <c r="E884" s="124"/>
+    </row>
+    <row r="885" spans="5:5" ht="111" customHeight="1">
+      <c r="E885" s="124"/>
+    </row>
+    <row r="886" spans="5:5" ht="111" customHeight="1">
+      <c r="E886" s="124"/>
+    </row>
+    <row r="887" spans="5:5" ht="111" customHeight="1">
+      <c r="E887" s="124"/>
+    </row>
+    <row r="888" spans="5:5" ht="111" customHeight="1">
+      <c r="E888" s="124"/>
+    </row>
+    <row r="889" spans="5:5" ht="111" customHeight="1">
+      <c r="E889" s="124"/>
+    </row>
+    <row r="890" spans="5:5" ht="111" customHeight="1">
+      <c r="E890" s="124"/>
+    </row>
+    <row r="891" spans="5:5" ht="111" customHeight="1">
+      <c r="E891" s="124"/>
+    </row>
+    <row r="892" spans="5:5" ht="111" customHeight="1">
+      <c r="E892" s="124"/>
+    </row>
+    <row r="893" spans="5:5" ht="111" customHeight="1">
+      <c r="E893" s="124"/>
+    </row>
+    <row r="894" spans="5:5" ht="111" customHeight="1">
+      <c r="E894" s="124"/>
+    </row>
+    <row r="895" spans="5:5" ht="111" customHeight="1">
+      <c r="E895" s="124"/>
+    </row>
+    <row r="896" spans="5:5" ht="111" customHeight="1">
+      <c r="E896" s="124"/>
+    </row>
+    <row r="897" spans="5:5" ht="111" customHeight="1">
+      <c r="E897" s="124"/>
+    </row>
+    <row r="898" spans="5:5" ht="111" customHeight="1">
+      <c r="E898" s="124"/>
+    </row>
+    <row r="899" spans="5:5" ht="111" customHeight="1">
+      <c r="E899" s="124"/>
+    </row>
+    <row r="900" spans="5:5" ht="111" customHeight="1">
+      <c r="E900" s="124"/>
+    </row>
+    <row r="901" spans="5:5" ht="111" customHeight="1">
+      <c r="E901" s="124"/>
+    </row>
+    <row r="902" spans="5:5" ht="111" customHeight="1">
+      <c r="E902" s="124"/>
+    </row>
+    <row r="903" spans="5:5" ht="111" customHeight="1">
+      <c r="E903" s="124"/>
+    </row>
+    <row r="904" spans="5:5" ht="111" customHeight="1">
+      <c r="E904" s="124"/>
+    </row>
+    <row r="905" spans="5:5" ht="111" customHeight="1">
+      <c r="E905" s="124"/>
+    </row>
+    <row r="906" spans="5:5" ht="111" customHeight="1">
+      <c r="E906" s="124"/>
+    </row>
+    <row r="907" spans="5:5" ht="111" customHeight="1">
+      <c r="E907" s="124"/>
+    </row>
+    <row r="908" spans="5:5" ht="111" customHeight="1">
+      <c r="E908" s="124"/>
+    </row>
+    <row r="909" spans="5:5" ht="111" customHeight="1">
+      <c r="E909" s="124"/>
+    </row>
+    <row r="910" spans="5:5" ht="111" customHeight="1">
+      <c r="E910" s="124"/>
+    </row>
+    <row r="911" spans="5:5" ht="111" customHeight="1">
+      <c r="E911" s="124"/>
+    </row>
+    <row r="912" spans="5:5" ht="111" customHeight="1">
+      <c r="E912" s="124"/>
+    </row>
+    <row r="913" spans="5:5" ht="111" customHeight="1">
+      <c r="E913" s="124"/>
+    </row>
+    <row r="914" spans="5:5" ht="111" customHeight="1">
+      <c r="E914" s="124"/>
+    </row>
+    <row r="915" spans="5:5" ht="111" customHeight="1">
+      <c r="E915" s="124"/>
+    </row>
+    <row r="916" spans="5:5" ht="111" customHeight="1">
+      <c r="E916" s="124"/>
+    </row>
+    <row r="917" spans="5:5" ht="111" customHeight="1">
+      <c r="E917" s="124"/>
+    </row>
+    <row r="918" spans="5:5" ht="111" customHeight="1">
+      <c r="E918" s="124"/>
+    </row>
+    <row r="919" spans="5:5" ht="111" customHeight="1">
+      <c r="E919" s="124"/>
+    </row>
+    <row r="920" spans="5:5" ht="111" customHeight="1">
+      <c r="E920" s="124"/>
+    </row>
+    <row r="921" spans="5:5" ht="111" customHeight="1">
+      <c r="E921" s="124"/>
+    </row>
+    <row r="922" spans="5:5" ht="111" customHeight="1">
+      <c r="E922" s="124"/>
+    </row>
+    <row r="923" spans="5:5" ht="111" customHeight="1">
+      <c r="E923" s="124"/>
+    </row>
+    <row r="924" spans="5:5" ht="111" customHeight="1">
+      <c r="E924" s="124"/>
+    </row>
+    <row r="925" spans="5:5" ht="111" customHeight="1">
+      <c r="E925" s="124"/>
+    </row>
+    <row r="926" spans="5:5" ht="111" customHeight="1">
+      <c r="E926" s="124"/>
+    </row>
+    <row r="927" spans="5:5" ht="111" customHeight="1">
+      <c r="E927" s="124"/>
+    </row>
+    <row r="928" spans="5:5" ht="111" customHeight="1">
+      <c r="E928" s="124"/>
+    </row>
+    <row r="929" spans="5:5" ht="111" customHeight="1">
+      <c r="E929" s="124"/>
+    </row>
+    <row r="930" spans="5:5" ht="111" customHeight="1">
+      <c r="E930" s="124"/>
+    </row>
+    <row r="931" spans="5:5" ht="111" customHeight="1">
+      <c r="E931" s="124"/>
+    </row>
+    <row r="932" spans="5:5" ht="111" customHeight="1">
+      <c r="E932" s="124"/>
+    </row>
+    <row r="933" spans="5:5" ht="111" customHeight="1">
+      <c r="E933" s="124"/>
+    </row>
+    <row r="934" spans="5:5" ht="111" customHeight="1">
+      <c r="E934" s="124"/>
+    </row>
+    <row r="935" spans="5:5" ht="111" customHeight="1">
+      <c r="E935" s="124"/>
+    </row>
+    <row r="936" spans="5:5" ht="111" customHeight="1">
+      <c r="E936" s="124"/>
+    </row>
+    <row r="937" spans="5:5" ht="111" customHeight="1">
+      <c r="E937" s="124"/>
+    </row>
+    <row r="938" spans="5:5" ht="111" customHeight="1">
+      <c r="E938" s="124"/>
+    </row>
+    <row r="939" spans="5:5" ht="111" customHeight="1">
+      <c r="E939" s="124"/>
+    </row>
+    <row r="940" spans="5:5" ht="111" customHeight="1">
+      <c r="E940" s="124"/>
+    </row>
+    <row r="941" spans="5:5" ht="111" customHeight="1">
+      <c r="E941" s="124"/>
+    </row>
+    <row r="942" spans="5:5" ht="111" customHeight="1">
+      <c r="E942" s="124"/>
+    </row>
+    <row r="943" spans="5:5" ht="111" customHeight="1">
+      <c r="E943" s="124"/>
+    </row>
+    <row r="944" spans="5:5" ht="111" customHeight="1">
+      <c r="E944" s="124"/>
+    </row>
+    <row r="945" spans="5:5" ht="111" customHeight="1">
+      <c r="E945" s="124"/>
+    </row>
+    <row r="946" spans="5:5" ht="111" customHeight="1">
+      <c r="E946" s="124"/>
+    </row>
+    <row r="947" spans="5:5" ht="111" customHeight="1">
+      <c r="E947" s="124"/>
+    </row>
+    <row r="948" spans="5:5" ht="111" customHeight="1">
+      <c r="E948" s="124"/>
+    </row>
+    <row r="949" spans="5:5" ht="111" customHeight="1">
+      <c r="E949" s="124"/>
+    </row>
+    <row r="950" spans="5:5" ht="111" customHeight="1">
+      <c r="E950" s="124"/>
+    </row>
+    <row r="951" spans="5:5" ht="111" customHeight="1">
+      <c r="E951" s="124"/>
+    </row>
+    <row r="952" spans="5:5" ht="111" customHeight="1">
+      <c r="E952" s="124"/>
+    </row>
+    <row r="953" spans="5:5" ht="111" customHeight="1">
+      <c r="E953" s="124"/>
+    </row>
+    <row r="954" spans="5:5" ht="111" customHeight="1">
+      <c r="E954" s="124"/>
+    </row>
+    <row r="955" spans="5:5" ht="111" customHeight="1">
+      <c r="E955" s="124"/>
+    </row>
+    <row r="956" spans="5:5" ht="111" customHeight="1">
+      <c r="E956" s="124"/>
+    </row>
+    <row r="957" spans="5:5" ht="111" customHeight="1">
+      <c r="E957" s="124"/>
+    </row>
+    <row r="958" spans="5:5" ht="111" customHeight="1">
+      <c r="E958" s="124"/>
+    </row>
+    <row r="959" spans="5:5" ht="111" customHeight="1">
+      <c r="E959" s="124"/>
+    </row>
+    <row r="960" spans="5:5" ht="111" customHeight="1">
+      <c r="E960" s="124"/>
+    </row>
+    <row r="961" spans="5:5" ht="111" customHeight="1">
+      <c r="E961" s="124"/>
+    </row>
+    <row r="962" spans="5:5" ht="111" customHeight="1">
+      <c r="E962" s="124"/>
+    </row>
+    <row r="963" spans="5:5" ht="111" customHeight="1">
+      <c r="E963" s="124"/>
+    </row>
+    <row r="964" spans="5:5" ht="111" customHeight="1">
+      <c r="E964" s="124"/>
+    </row>
+    <row r="965" spans="5:5" ht="111" customHeight="1">
+      <c r="E965" s="124"/>
+    </row>
+    <row r="966" spans="5:5" ht="111" customHeight="1">
+      <c r="E966" s="124"/>
+    </row>
+    <row r="967" spans="5:5" ht="111" customHeight="1">
+      <c r="E967" s="124"/>
+    </row>
+    <row r="968" spans="5:5" ht="111" customHeight="1">
+      <c r="E968" s="124"/>
+    </row>
+    <row r="969" spans="5:5" ht="111" customHeight="1">
+      <c r="E969" s="124"/>
+    </row>
+    <row r="970" spans="5:5" ht="111" customHeight="1">
+      <c r="E970" s="124"/>
+    </row>
+    <row r="971" spans="5:5" ht="111" customHeight="1">
+      <c r="E971" s="124"/>
+    </row>
+    <row r="972" spans="5:5" ht="111" customHeight="1">
+      <c r="E972" s="124"/>
+    </row>
+    <row r="973" spans="5:5" ht="111" customHeight="1">
+      <c r="E973" s="124"/>
+    </row>
+    <row r="974" spans="5:5" ht="111" customHeight="1">
+      <c r="E974" s="124"/>
+    </row>
+    <row r="975" spans="5:5" ht="111" customHeight="1">
+      <c r="E975" s="124"/>
+    </row>
+    <row r="976" spans="5:5" ht="111" customHeight="1">
+      <c r="E976" s="124"/>
+    </row>
+    <row r="977" spans="5:5" ht="111" customHeight="1">
+      <c r="E977" s="124"/>
+    </row>
+    <row r="978" spans="5:5" ht="111" customHeight="1">
+      <c r="E978" s="124"/>
+    </row>
+    <row r="979" spans="5:5" ht="111" customHeight="1">
+      <c r="E979" s="124"/>
+    </row>
+    <row r="980" spans="5:5" ht="111" customHeight="1">
+      <c r="E980" s="124"/>
+    </row>
+    <row r="981" spans="5:5" ht="111" customHeight="1">
+      <c r="E981" s="124"/>
+    </row>
+    <row r="982" spans="5:5" ht="111" customHeight="1">
+      <c r="E982" s="124"/>
+    </row>
+    <row r="983" spans="5:5" ht="111" customHeight="1">
+      <c r="E983" s="124"/>
+    </row>
+    <row r="984" spans="5:5" ht="111" customHeight="1">
+      <c r="E984" s="124"/>
+    </row>
+    <row r="985" spans="5:5" ht="111" customHeight="1">
+      <c r="E985" s="124"/>
+    </row>
+    <row r="986" spans="5:5" ht="111" customHeight="1">
+      <c r="E986" s="124"/>
+    </row>
+    <row r="987" spans="5:5" ht="111" customHeight="1">
+      <c r="E987" s="124"/>
+    </row>
+    <row r="988" spans="5:5" ht="111" customHeight="1">
+      <c r="E988" s="124"/>
+    </row>
+    <row r="989" spans="5:5" ht="111" customHeight="1">
+      <c r="E989" s="124"/>
+    </row>
+    <row r="990" spans="5:5" ht="111" customHeight="1">
+      <c r="E990" s="124"/>
+    </row>
+    <row r="991" spans="5:5" ht="111" customHeight="1">
+      <c r="E991" s="124"/>
+    </row>
+    <row r="992" spans="5:5" ht="111" customHeight="1">
+      <c r="E992" s="124"/>
+    </row>
+    <row r="993" spans="5:5" ht="111" customHeight="1">
+      <c r="E993" s="124"/>
+    </row>
+    <row r="994" spans="5:5" ht="111" customHeight="1">
+      <c r="E994" s="124"/>
+    </row>
+    <row r="995" spans="5:5" ht="111" customHeight="1">
+      <c r="E995" s="124"/>
+    </row>
+    <row r="996" spans="5:5" ht="111" customHeight="1">
+      <c r="E996" s="124"/>
+    </row>
+    <row r="997" spans="5:5" ht="111" customHeight="1">
+      <c r="E997" s="124"/>
+    </row>
+    <row r="998" spans="5:5" ht="111" customHeight="1">
+      <c r="E998" s="124"/>
+    </row>
+    <row r="999" spans="5:5" ht="111" customHeight="1">
+      <c r="E999" s="124"/>
+    </row>
+    <row r="1000" spans="5:5" ht="111" customHeight="1">
+      <c r="E1000" s="124"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5344526-0759-5748-9599-6774FD0E2E70}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="65.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="134.5" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="55" style="133" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="34" customFormat="1" ht="19">
+      <c r="A2" s="136" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B2" s="33">
+        <v>1</v>
+      </c>
+      <c r="C2" s="134" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D2" s="134" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E2" s="134" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19">
+      <c r="A3" s="136" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B3" s="33">
+        <v>2</v>
+      </c>
+      <c r="C3" s="137" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D3" s="134" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E3" s="134" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19">
+      <c r="A4" s="136" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B4" s="33">
+        <v>3</v>
+      </c>
+      <c r="C4" s="135" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D4" s="134" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E4" s="134" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19">
+      <c r="A5" s="136" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B5" s="31">
+        <v>4</v>
+      </c>
+      <c r="C5" s="135" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D5" s="134" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E5" s="134" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19">
+      <c r="A6" s="136" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B6" s="31">
+        <v>5</v>
+      </c>
+      <c r="C6" s="135" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D6" s="134" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E6" s="134" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19">
+      <c r="A7" s="136" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B7" s="31">
+        <v>6</v>
+      </c>
+      <c r="C7" s="135" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D7" s="134" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E7" s="134" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19">
+      <c r="A8" s="136" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B8" s="31">
+        <v>7</v>
+      </c>
+      <c r="C8" s="135" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D8" s="134" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E8" s="134" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19">
+      <c r="A9" s="136" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B9" s="31">
+        <v>8</v>
+      </c>
+      <c r="C9" s="135" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D9" s="134" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E9" s="134" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19">
+      <c r="A10" s="136" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B10" s="31">
+        <v>9</v>
+      </c>
+      <c r="C10" s="135" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D10" s="134" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E10" s="134" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19">
+      <c r="A11" s="136" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B11" s="31">
+        <v>10</v>
+      </c>
+      <c r="C11" s="135" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D11" s="134" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E11" s="134" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="136" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B12" s="31">
+        <v>11</v>
+      </c>
+      <c r="C12" s="135" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D12" s="134" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E12" s="134" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19">
+      <c r="A13" s="136" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B13" s="31">
+        <v>12</v>
+      </c>
+      <c r="C13" s="135" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D13" s="134" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E13" s="134" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20">
+      <c r="A14" s="136" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B14" s="31">
+        <v>13</v>
+      </c>
+      <c r="C14" s="135" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D14" s="134" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E14" s="134" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="136" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B15" s="31">
+        <v>14</v>
+      </c>
+      <c r="C15" s="135" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D15" s="134" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E15" s="134" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19">
+      <c r="A16" s="136" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B16" s="31">
+        <v>15</v>
+      </c>
+      <c r="C16" s="135" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D16" s="134" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E16" s="134" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="136" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B17" s="31">
+        <v>16</v>
+      </c>
+      <c r="C17" s="135" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D17" s="134" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E17" s="134" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19">
+      <c r="A18" s="136" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B18" s="31">
+        <v>17</v>
+      </c>
+      <c r="C18" s="135" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D18" s="134" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E18" s="134" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19">
+      <c r="A19" s="136" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B19" s="31">
+        <v>18</v>
+      </c>
+      <c r="C19" s="135" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D19" s="134" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E19" s="134" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19">
+      <c r="A20" s="136" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B20" s="31">
+        <v>19</v>
+      </c>
+      <c r="C20" s="135" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D20" s="134" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E20" s="134" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="136" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B21" s="31">
+        <v>20</v>
+      </c>
+      <c r="C21" s="135" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D21" s="134" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E21" s="134" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19">
+      <c r="A22" s="136" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B22" s="31">
+        <v>21</v>
+      </c>
+      <c r="C22" s="135" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D22" s="134" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E22" s="134" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19">
+      <c r="A23" s="136" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B23" s="31">
+        <v>22</v>
+      </c>
+      <c r="C23" s="135" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D23" s="134" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E23" s="134" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19">
+      <c r="A24" s="136" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B24" s="31">
+        <v>23</v>
+      </c>
+      <c r="C24" s="135" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D24" s="134" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E24" s="134" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="19">
+      <c r="A25" s="136" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B25" s="31">
+        <v>24</v>
+      </c>
+      <c r="C25" s="135" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D25" s="134" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E25" s="134" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19">
+      <c r="A26" s="136" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B26" s="31">
+        <v>25</v>
+      </c>
+      <c r="C26" s="135" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D26" s="134" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E26" s="134" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" thickBot="1">
+      <c r="A27" s="136" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B27" s="28">
+        <v>26</v>
+      </c>
+      <c r="C27" s="135" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D27" s="134" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E27" s="134" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD20F301-A307-714C-9879-0F7D8927DA0D}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="4" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="133" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="34" customFormat="1" ht="68">
+      <c r="A2" s="23" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B2" s="33">
+        <v>1</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="68">
+      <c r="A3" s="23" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B3" s="33">
+        <v>2</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E3" s="98" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="102">
+      <c r="A4" s="23" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B4" s="33">
+        <v>3</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D4" s="93" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E4" s="96" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="102">
+      <c r="A5" s="23" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B5" s="31">
+        <v>4</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="102">
+      <c r="A6" s="23" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B6" s="31">
+        <v>5</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="57">
+      <c r="A7" s="23" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B7" s="31">
+        <v>6</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="68">
+      <c r="A8" s="23" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B8" s="31">
+        <v>7</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="85">
+      <c r="A9" s="23" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B9" s="31">
+        <v>8</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D9" s="93" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="38">
+      <c r="A10" s="23" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B10" s="31">
+        <v>9</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="51">
+      <c r="A11" s="23" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B11" s="31">
+        <v>10</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="85">
+      <c r="A12" s="23" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B12" s="31">
+        <v>11</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D12" s="93" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="57">
+      <c r="A13" s="23" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B13" s="31">
+        <v>12</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D13" s="94" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="57">
+      <c r="A14" s="23" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B14" s="31">
+        <v>13</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D14" s="94" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="76">
+      <c r="A15" s="23" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B15" s="31">
+        <v>14</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="51">
+      <c r="A16" s="23" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B16" s="31">
+        <v>15</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D16" s="93" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E16" s="92" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="68">
+      <c r="A17" s="23" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B17" s="31">
+        <v>16</v>
+      </c>
+      <c r="C17" s="94" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="51">
+      <c r="A18" s="23" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B18" s="31">
+        <v>17</v>
+      </c>
+      <c r="C18" s="93" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D18" s="93" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E18" s="92" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="68">
+      <c r="A19" s="23" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B19" s="31">
+        <v>18</v>
+      </c>
+      <c r="C19" s="93" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D19" s="93" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E19" s="92" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="51">
+      <c r="A20" s="23" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B20" s="31">
+        <v>19</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D20" s="94" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="95">
+      <c r="A21" s="23" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B21" s="31">
+        <v>20</v>
+      </c>
+      <c r="C21" s="93" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D21" s="93" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="57">
+      <c r="A22" s="23" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B22" s="31">
+        <v>21</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D22" s="93" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E22" s="92" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="57">
+      <c r="A23" s="23" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B23" s="31">
+        <v>22</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D23" s="93" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E23" s="92" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="38">
+      <c r="A24" s="23" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B24" s="31">
+        <v>23</v>
+      </c>
+      <c r="C24" s="94" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D24" s="93" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E24" s="92" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="51">
+      <c r="A25" s="23" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B25" s="31">
+        <v>24</v>
+      </c>
+      <c r="C25" s="94" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D25" s="93" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E25" s="92" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="85">
+      <c r="A26" s="23" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B26" s="31">
+        <v>25</v>
+      </c>
+      <c r="C26" s="93" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D26" s="93" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E26" s="92" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="86" thickBot="1">
+      <c r="A27" s="23" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B27" s="28">
+        <v>26</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D27" s="91" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E27" s="90" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0227B8-6517-D949-81F0-BC1F8DC37DAA}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7781,7 +14594,7 @@
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
+    <row r="1" spans="1:13" ht="21">
       <c r="A1" s="6" t="s">
         <v>160</v>
       </c>
@@ -7809,8 +14622,20 @@
       <c r="I1" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="119" customHeight="1">
+      <c r="J1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="119" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>159</v>
       </c>
@@ -7838,8 +14663,20 @@
       <c r="I2" s="107" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="159" customHeight="1">
+      <c r="J2" s="111" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K2" s="72" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L2" s="132" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="159" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>161</v>
       </c>
@@ -7867,8 +14704,20 @@
       <c r="I3" s="107" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="125" customHeight="1">
+      <c r="J3" s="111" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K3" s="72" t="s">
+        <v>1179</v>
+      </c>
+      <c r="L3" s="132" t="s">
+        <v>1288</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="125" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>162</v>
       </c>
@@ -7896,8 +14745,20 @@
       <c r="I4" s="107" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="88" customHeight="1">
+      <c r="J4" s="111" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L4" s="132" t="s">
+        <v>1289</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="88" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>163</v>
       </c>
@@ -7925,8 +14786,20 @@
       <c r="I5" s="107" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="128" customHeight="1">
+      <c r="J5" s="111" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K5" s="72" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L5" s="132" t="s">
+        <v>1290</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="128" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>164</v>
       </c>
@@ -7953,6 +14826,18 @@
       </c>
       <c r="I6" s="107" t="s">
         <v>992</v>
+      </c>
+      <c r="J6" s="111" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K6" s="72" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L6" s="132" t="s">
+        <v>1291</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>1376</v>
       </c>
     </row>
   </sheetData>
@@ -7960,12 +14845,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D128F0C-3C92-B24F-9D24-BF419F807E89}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8702,6 +15587,274 @@
       </c>
       <c r="G32" s="49" t="s">
         <v>1007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="E33" s="109" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="E34" s="109" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>996</v>
+      </c>
+      <c r="E35" s="109" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E36" s="109" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="E37" s="109" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F37" s="85" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G37" s="109" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="E38" s="110" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G38" s="109" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="E39" s="120" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G39" s="121" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>996</v>
+      </c>
+      <c r="E40" s="122" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G40" s="123" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B41" s="130" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C41" s="130" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D41" s="130" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E41" s="131" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F41" s="130" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G41" s="131" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B42" s="130" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C42" s="130" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D42" s="130"/>
+      <c r="E42" s="131" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F42" s="130" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G42" s="130"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="46" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G43" s="46"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F44" s="49" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>1385</v>
       </c>
     </row>
   </sheetData>
@@ -8735,7 +15888,284 @@
     <hyperlink ref="E30" r:id="rId27" xr:uid="{F9219FC4-650D-A647-94A8-FBD0AA56CFB7}"/>
     <hyperlink ref="E31" r:id="rId28" xr:uid="{53118788-31F1-0149-8A20-F71DC03A8C9E}"/>
     <hyperlink ref="E32" r:id="rId29" xr:uid="{6674C05C-673B-944F-98AB-75A0E6DAD5D7}"/>
+    <hyperlink ref="E33" r:id="rId30" xr:uid="{1E6CE376-85BC-EA4A-910D-DE1116AE6626}"/>
+    <hyperlink ref="E34" r:id="rId31" xr:uid="{8EE7483F-11FE-1248-B139-1CACB6186AA8}"/>
+    <hyperlink ref="E35" r:id="rId32" xr:uid="{77795DE8-0FC2-7341-81B6-278D1A2C4C8C}"/>
+    <hyperlink ref="E36" r:id="rId33" display="mailto:manon.de.deyne@vub.be" xr:uid="{AA5027B5-300A-F74C-B55B-E65732A75CDC}"/>
+    <hyperlink ref="E37" r:id="rId34" xr:uid="{C7E7CDCA-035E-1E4D-8532-EBEF677A2F25}"/>
+    <hyperlink ref="G37" r:id="rId35" display="https://orcid.org/0000-0002-1370-2090" xr:uid="{03A1AF0E-1F44-4940-A09A-56AB0017FB99}"/>
+    <hyperlink ref="E38" r:id="rId36" xr:uid="{1B1D269B-6E40-9748-A5C1-2D0CBA515977}"/>
+    <hyperlink ref="G38" r:id="rId37" display="https://orcid.org/0000-0001-9521-8085" xr:uid="{E54A6775-6C19-3A4B-BB48-482DD27FEE2E}"/>
+    <hyperlink ref="E39" r:id="rId38" xr:uid="{10759E79-85C3-DE40-8D6A-6C833FE92CB4}"/>
+    <hyperlink ref="G41" r:id="rId39" display="https://orcid.org/0000-0002-4202-4655" xr:uid="{848147C0-A9CA-E642-883A-ABE0683BC099}"/>
+    <hyperlink ref="E41" r:id="rId40" xr:uid="{1F029844-97BD-AA4C-B9EC-4978EC0229B0}"/>
+    <hyperlink ref="E42" r:id="rId41" xr:uid="{48E273F6-ED98-9A4D-B926-3360708B7FC2}"/>
+    <hyperlink ref="E43" r:id="rId42" xr:uid="{AF1B887C-35B7-8E4D-91D8-29E3CA5ACE86}"/>
+    <hyperlink ref="E44" r:id="rId43" xr:uid="{D9F36DA3-D0B7-7E42-85A4-528353BCA0E2}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C35D0C-FC96-9247-B6ED-A62B9AB8F511}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="108" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="108" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="108" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="108" t="s">
+        <v>554</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="108" t="s">
+        <v>586</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="108" t="s">
+        <v>775</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="108" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="108" t="s">
+        <v>816</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="108" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="108" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="108" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="108" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8929,7 +16359,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="102">
+    <row r="11" spans="1:6" ht="119">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -9709,7 +17139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1870FBA-EDD6-F747-8146-AD8380227C7B}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -9738,7 +17168,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="34" customFormat="1" ht="102">
+    <row r="2" spans="1:5" s="34" customFormat="1" ht="119">
       <c r="A2" s="23" t="s">
         <v>405</v>
       </c>
@@ -9959,7 +17389,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="85">
+    <row r="15" spans="1:5" ht="102">
       <c r="A15" s="23" t="s">
         <v>361</v>
       </c>
@@ -10336,7 +17766,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="102">
+    <row r="9" spans="1:5" ht="119">
       <c r="A9" s="41" t="s">
         <v>527</v>
       </c>
@@ -11122,7 +18552,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="77" thickBot="1">
+    <row r="27" spans="1:5" ht="96" thickBot="1">
       <c r="A27" s="57" t="s">
         <v>597</v>
       </c>
@@ -11894,7 +19324,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="85">
+    <row r="15" spans="1:5" ht="102">
       <c r="A15" s="23" t="s">
         <v>875</v>
       </c>
@@ -11979,7 +19409,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="68">
+    <row r="20" spans="1:5" ht="85">
       <c r="A20" s="23" t="s">
         <v>875</v>
       </c>
@@ -11996,7 +19426,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="95">
+    <row r="21" spans="1:5" ht="114">
       <c r="A21" s="23" t="s">
         <v>875</v>
       </c>
@@ -12081,7 +19511,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="119">
+    <row r="26" spans="1:5" ht="136">
       <c r="A26" s="23" t="s">
         <v>831</v>
       </c>

--- a/assets/LadenburgConsensuStatements.xlsx
+++ b/assets/LadenburgConsensuStatements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Arbeit/12-TUM/_Misc/2024-04_Ladenburg_Roundtable/LCS/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mspitschan/Projects/LadenburgConsensusStatements/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2E39E0-81DA-D84D-8DB8-7F0FE97B7086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A22C67-6159-5848-8EFF-CDAC9F4AEF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="680" windowWidth="25380" windowHeight="21660" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="880" windowWidth="17540" windowHeight="22500" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="1470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1484">
   <si>
     <t>Number</t>
   </si>
@@ -7252,6 +7252,48 @@
   </si>
   <si>
     <t>Artemide</t>
+  </si>
+  <si>
+    <t>Leiden University Medical Center</t>
+  </si>
+  <si>
+    <t>Chrono@Work &amp; University of Groningen</t>
+  </si>
+  <si>
+    <t>National Research Council of Canada</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>Renske</t>
+  </si>
+  <si>
+    <t>Lok</t>
+  </si>
+  <si>
+    <t>Gordijn</t>
+  </si>
+  <si>
+    <t>Jennifer A.</t>
+  </si>
+  <si>
+    <t>Veitch</t>
+  </si>
+  <si>
+    <t>rlok@stanford.edu</t>
+  </si>
+  <si>
+    <t>Jennifer.Veitch@nrc-cnrc.gc.ca</t>
+  </si>
+  <si>
+    <t>L.Kervezee@lumc.nl</t>
+  </si>
+  <si>
+    <t>0000-0003-3183-4537</t>
+  </si>
+  <si>
+    <t>0000-0003-1684-5625</t>
   </si>
 </sst>
 </file>
@@ -8405,7 +8447,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -8452,9 +8494,8 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8790,7 +8831,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="44"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8805,53 +8846,53 @@
     <xf numFmtId="0" fontId="73" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="45">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="44" xr:uid="{B2D74732-8E41-314C-B68A-0975ED16242F}"/>
-    <cellStyle name="Link" xfId="42" builtinId="8"/>
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" xr:uid="{B2D74732-8E41-314C-B68A-0975ED16242F}"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Standard 2" xfId="43" xr:uid="{70AE8D79-DF60-5941-BC6B-2804C19A889C}"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8867,9 +8908,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8907,7 +8948,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9013,7 +9054,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9677,7 +9718,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="136">
+    <row r="26" spans="1:6" ht="119">
       <c r="A26" t="s">
         <v>206</v>
       </c>
@@ -9788,7 +9829,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="153">
+    <row r="4" spans="1:5" ht="136">
       <c r="A4" s="116" t="s">
         <v>202</v>
       </c>
@@ -10094,7 +10135,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="68">
+    <row r="22" spans="1:5" ht="51">
       <c r="A22" s="116" t="s">
         <v>205</v>
       </c>
@@ -14386,7 +14427,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="68">
+    <row r="17" spans="1:5" ht="51">
       <c r="A17" s="23" t="s">
         <v>1409</v>
       </c>
@@ -14471,7 +14512,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="57">
+    <row r="22" spans="1:5" ht="51">
       <c r="A22" s="23" t="s">
         <v>1399</v>
       </c>
@@ -14847,10 +14888,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D128F0C-3C92-B24F-9D24-BF419F807E89}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14905,803 +14946,803 @@
         <v>590</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="34">
       <c r="A3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>309</v>
+        <v>160</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" s="131" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>315</v>
+        <v>160</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" s="131" t="s">
+        <v>449</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>320</v>
+        <v>160</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" s="131" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F5" s="138" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>325</v>
+        <v>160</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" s="131" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>421</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>423</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>798</v>
+        <v>160</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="E7" s="131" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>1483</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>337</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>428</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>797</v>
+        <v>302</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>337</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>431</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="G9" s="38"/>
+        <v>302</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" t="s">
-        <v>436</v>
-      </c>
-      <c r="C10" t="s">
-        <v>437</v>
-      </c>
-      <c r="D10" t="s">
-        <v>799</v>
-      </c>
-      <c r="E10" t="s">
-        <v>438</v>
-      </c>
-      <c r="F10" t="s">
-        <v>439</v>
-      </c>
-      <c r="G10" t="s">
-        <v>440</v>
+        <v>302</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11" t="s">
-        <v>441</v>
-      </c>
-      <c r="C11" t="s">
-        <v>442</v>
-      </c>
-      <c r="D11" t="s">
-        <v>443</v>
-      </c>
-      <c r="E11" t="s">
-        <v>444</v>
-      </c>
-      <c r="F11" t="s">
-        <v>445</v>
-      </c>
-      <c r="G11" t="s">
-        <v>446</v>
+        <v>302</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" t="s">
-        <v>447</v>
-      </c>
-      <c r="C12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D12" t="s">
-        <v>428</v>
-      </c>
-      <c r="E12" t="s">
-        <v>449</v>
-      </c>
-      <c r="F12" t="s">
-        <v>450</v>
-      </c>
-      <c r="G12" t="s">
-        <v>451</v>
+        <v>337</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B13" t="s">
-        <v>452</v>
-      </c>
-      <c r="C13" t="s">
-        <v>453</v>
-      </c>
-      <c r="D13" t="s">
-        <v>454</v>
-      </c>
-      <c r="E13" t="s">
-        <v>455</v>
-      </c>
-      <c r="F13" t="s">
-        <v>456</v>
-      </c>
-      <c r="G13" t="s">
-        <v>457</v>
+        <v>337</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" t="s">
-        <v>458</v>
-      </c>
-      <c r="C14" t="s">
-        <v>459</v>
-      </c>
-      <c r="D14" t="s">
-        <v>460</v>
-      </c>
-      <c r="E14" t="s">
-        <v>461</v>
-      </c>
-      <c r="F14" t="s">
-        <v>462</v>
-      </c>
-      <c r="G14" t="s">
-        <v>463</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="C15" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="D15" t="s">
-        <v>466</v>
+        <v>799</v>
       </c>
       <c r="E15" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="F15" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="G15" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>554</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>562</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>563</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>555</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>556</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>557</v>
+        <v>214</v>
+      </c>
+      <c r="B16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16" t="s">
+        <v>442</v>
+      </c>
+      <c r="D16" t="s">
+        <v>443</v>
+      </c>
+      <c r="E16" t="s">
+        <v>444</v>
+      </c>
+      <c r="F16" t="s">
+        <v>445</v>
+      </c>
+      <c r="G16" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>554</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>565</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>566</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>567</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>556</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>559</v>
+        <v>214</v>
+      </c>
+      <c r="B17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D17" t="s">
+        <v>428</v>
+      </c>
+      <c r="E17" t="s">
+        <v>449</v>
+      </c>
+      <c r="F17" t="s">
+        <v>450</v>
+      </c>
+      <c r="G17" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>554</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>568</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>567</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>556</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18">
+        <v>214</v>
+      </c>
+      <c r="B18" t="s">
+        <v>452</v>
+      </c>
+      <c r="C18" t="s">
+        <v>453</v>
+      </c>
+      <c r="D18" t="s">
+        <v>454</v>
+      </c>
+      <c r="E18" t="s">
+        <v>455</v>
+      </c>
+      <c r="F18" t="s">
+        <v>456</v>
+      </c>
+      <c r="G18" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>586</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>570</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>571</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>572</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>573</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18">
+        <v>214</v>
+      </c>
+      <c r="B19" t="s">
+        <v>458</v>
+      </c>
+      <c r="C19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D19" t="s">
+        <v>460</v>
+      </c>
+      <c r="E19" t="s">
+        <v>461</v>
+      </c>
+      <c r="F19" t="s">
+        <v>462</v>
+      </c>
+      <c r="G19" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>586</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>574</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>575</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>576</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>592</v>
+        <v>214</v>
+      </c>
+      <c r="B20" t="s">
+        <v>464</v>
+      </c>
+      <c r="C20" t="s">
+        <v>465</v>
+      </c>
+      <c r="D20" t="s">
+        <v>466</v>
+      </c>
+      <c r="E20" t="s">
+        <v>467</v>
+      </c>
+      <c r="F20" t="s">
+        <v>468</v>
+      </c>
+      <c r="G20" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>579</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>306</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>580</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>581</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="23">
+        <v>562</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>564</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>555</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>556</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>582</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>583</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>584</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>585</v>
-      </c>
-      <c r="G22" s="51"/>
+        <v>565</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>566</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>567</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>556</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>775</v>
-      </c>
-      <c r="B23" s="80" t="s">
-        <v>776</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>777</v>
-      </c>
-      <c r="D23" s="80" t="s">
-        <v>778</v>
-      </c>
-      <c r="E23" s="80" t="s">
-        <v>779</v>
-      </c>
-      <c r="F23" s="80" t="s">
-        <v>780</v>
-      </c>
-      <c r="G23" s="88" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>554</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>568</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>567</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>556</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18">
       <c r="A24" t="s">
-        <v>775</v>
-      </c>
-      <c r="B24" s="80" t="s">
-        <v>781</v>
-      </c>
-      <c r="C24" s="80" t="s">
-        <v>782</v>
-      </c>
-      <c r="D24" s="80" t="s">
-        <v>318</v>
-      </c>
-      <c r="E24" s="82" t="s">
-        <v>783</v>
-      </c>
-      <c r="F24" s="83" t="s">
-        <v>784</v>
-      </c>
-      <c r="G24" s="89" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>586</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>570</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>572</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>573</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18">
       <c r="A25" t="s">
-        <v>775</v>
-      </c>
-      <c r="B25" s="80" t="s">
-        <v>785</v>
-      </c>
-      <c r="C25" s="80" t="s">
-        <v>786</v>
-      </c>
-      <c r="D25" s="80" t="s">
-        <v>778</v>
-      </c>
-      <c r="E25" s="81" t="s">
-        <v>787</v>
-      </c>
-      <c r="F25" s="80" t="s">
-        <v>788</v>
-      </c>
-      <c r="G25" s="84" t="s">
-        <v>795</v>
+        <v>586</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>574</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>575</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>576</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>775</v>
-      </c>
-      <c r="B26" s="85" t="s">
-        <v>789</v>
-      </c>
-      <c r="C26" s="80" t="s">
-        <v>790</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="E26" s="86" t="s">
-        <v>791</v>
-      </c>
-      <c r="F26" s="87" t="s">
-        <v>792</v>
-      </c>
-      <c r="G26" s="81" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>586</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>578</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>579</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>580</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>581</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="23">
       <c r="A27" t="s">
-        <v>816</v>
+        <v>586</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>800</v>
+        <v>578</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>801</v>
+        <v>582</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>802</v>
+        <v>583</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>803</v>
+        <v>584</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>804</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>805</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="G27" s="51"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>816</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>806</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>807</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>428</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>808</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>809</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>810</v>
+        <v>775</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>776</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>777</v>
+      </c>
+      <c r="D28" s="80" t="s">
+        <v>778</v>
+      </c>
+      <c r="E28" s="80" t="s">
+        <v>779</v>
+      </c>
+      <c r="F28" s="80" t="s">
+        <v>780</v>
+      </c>
+      <c r="G28" s="88" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>816</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>811</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>812</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>428</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>813</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>814</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>815</v>
+        <v>775</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>781</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>782</v>
+      </c>
+      <c r="D29" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>783</v>
+      </c>
+      <c r="F29" s="83" t="s">
+        <v>784</v>
+      </c>
+      <c r="G29" s="89" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>993</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>994</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>995</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>996</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>997</v>
-      </c>
-      <c r="F30" s="49" t="s">
-        <v>998</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>999</v>
+        <v>775</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>785</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>786</v>
+      </c>
+      <c r="D30" s="80" t="s">
+        <v>778</v>
+      </c>
+      <c r="E30" s="81" t="s">
+        <v>787</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>788</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>993</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D31" s="49" t="s">
+        <v>775</v>
+      </c>
+      <c r="B31" s="85" t="s">
+        <v>789</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>790</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="E31" s="46" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G31" s="46"/>
+      <c r="E31" s="86" t="s">
+        <v>791</v>
+      </c>
+      <c r="F31" s="87" t="s">
+        <v>792</v>
+      </c>
+      <c r="G31" s="81" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>993</v>
+        <v>816</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>1004</v>
+        <v>800</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>1005</v>
+        <v>801</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>428</v>
+        <v>802</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>1006</v>
+        <v>803</v>
       </c>
       <c r="F32" s="49" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G32" s="49" t="s">
-        <v>1007</v>
+        <v>804</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D33" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>806</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>807</v>
+      </c>
+      <c r="D33" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="E33" s="109" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>1069</v>
+      <c r="E33" s="46" t="s">
+        <v>808</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>809</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D34" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>811</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>812</v>
+      </c>
+      <c r="D34" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="E34" s="109" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>1074</v>
+      <c r="E34" s="46" t="s">
+        <v>813</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>814</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D35" s="24" t="s">
+        <v>993</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>994</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>995</v>
+      </c>
+      <c r="D35" s="49" t="s">
         <v>996</v>
       </c>
-      <c r="E35" s="109" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>1078</v>
+      <c r="E35" s="46" t="s">
+        <v>997</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>998</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E36" s="109" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>1084</v>
-      </c>
+        <v>993</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G36" s="46"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D37" s="24" t="s">
+        <v>993</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D37" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="E37" s="109" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F37" s="85" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G37" s="109" t="s">
-        <v>1093</v>
+      <c r="E37" s="46" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -15709,199 +15750,319 @@
         <v>1050</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1089</v>
+        <v>1065</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>1090</v>
+        <v>1066</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="E38" s="110" t="s">
-        <v>1091</v>
+      <c r="E38" s="109" t="s">
+        <v>1067</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G38" s="109" t="s">
-        <v>1094</v>
+        <v>1068</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D39" s="49" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D39" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="E39" s="120" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G39" s="121" t="s">
-        <v>1188</v>
+      <c r="E39" s="109" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D40" s="49" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D40" s="24" t="s">
         <v>996</v>
       </c>
-      <c r="E40" s="122" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F40" s="49" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G40" s="123" t="s">
-        <v>1193</v>
+      <c r="E40" s="109" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B41" s="130" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C41" s="130" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D41" s="130" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E41" s="131" t="s">
-        <v>1280</v>
-      </c>
-      <c r="F41" s="130" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G41" s="131" t="s">
-        <v>1286</v>
+        <v>1050</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E41" s="109" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B42" s="130" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C42" s="130" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D42" s="130"/>
-      <c r="E42" s="131" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F42" s="130" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G42" s="130"/>
+        <v>1050</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="E42" s="109" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F42" s="85" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G42" s="109" t="s">
+        <v>1093</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B43" s="49" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="46" t="s">
-        <v>1379</v>
-      </c>
-      <c r="F43" s="49" t="s">
-        <v>1469</v>
-      </c>
-      <c r="G43" s="46"/>
+        <v>1050</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="E43" s="110" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G43" s="109" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="E44" s="120" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F44" s="49" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G44" s="121" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>996</v>
+      </c>
+      <c r="E45" s="122" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F45" s="49" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G45" s="123" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B46" s="130" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C46" s="130" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D46" s="130" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E46" s="131" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F46" s="130" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G46" s="131" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B47" s="130" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C47" s="130" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D47" s="130"/>
+      <c r="E47" s="131" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F47" s="130" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G47" s="130"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
         <v>1059</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B48" s="49" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D48" s="49"/>
+      <c r="E48" s="46" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F48" s="49" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G48" s="46"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B49" s="49" t="s">
         <v>1380</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C49" s="49" t="s">
         <v>1381</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D49" s="49" t="s">
         <v>1382</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E49" s="46" t="s">
         <v>1383</v>
       </c>
-      <c r="F44" s="49" t="s">
+      <c r="F49" s="49" t="s">
         <v>1384</v>
       </c>
-      <c r="G44" s="46" t="s">
+      <c r="G49" s="46" t="s">
         <v>1385</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{E3CFFE38-E6D6-714C-8CB2-6C7908765724}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{F2E60514-AAF2-A440-AE6A-F3B7A800911F}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{B079DF0E-018E-9341-8C9C-61E8233F15E0}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{1AC7D81A-6207-0940-9797-1B54146D29C9}"/>
-    <hyperlink ref="G8" r:id="rId5" display="https://orcid.org/0000-0001-6769-1983" xr:uid="{C44E8F08-6368-D74F-B1B2-A27AC4441576}"/>
-    <hyperlink ref="G7" r:id="rId6" display="https://orcid.org/0000-0003-2477-6869" xr:uid="{0489100D-EEF4-B949-AEFF-A6A4DC402620}"/>
-    <hyperlink ref="E16" r:id="rId7" xr:uid="{5F4E651F-562B-E24E-9CD1-9B3C1936C245}"/>
-    <hyperlink ref="E18" r:id="rId8" xr:uid="{F1125717-1141-4D42-A3A9-699125D01684}"/>
-    <hyperlink ref="E17" r:id="rId9" xr:uid="{1F332E72-AFB1-6744-B32C-C21F6FEBAA6E}"/>
-    <hyperlink ref="G16" r:id="rId10" display="https://orcid.org/0000-0002-1381-253X" xr:uid="{8EAB4384-125C-1B4B-BE58-8509C671817B}"/>
-    <hyperlink ref="E19" r:id="rId11" xr:uid="{87A5E650-E56F-F44A-8B6D-3500B47533C8}"/>
-    <hyperlink ref="E20" r:id="rId12" xr:uid="{BD2ECD0E-F5A3-804E-99C9-70ABA0785192}"/>
-    <hyperlink ref="G19" r:id="rId13" display="https://orcid.org/0000-0003-0951-780X" xr:uid="{DDA7CB87-9DEF-444A-B5E5-4DA5387FEAE7}"/>
-    <hyperlink ref="G20" r:id="rId14" display="https://orcid.org/0009-0007-7565-9714" xr:uid="{C3278E97-D66C-C04F-A534-F2DCF73A26A5}"/>
-    <hyperlink ref="E22" r:id="rId15" xr:uid="{A72A8784-3E65-CD4A-9CEA-D6821E18F4F0}"/>
-    <hyperlink ref="G21" r:id="rId16" display="https://orcid.org/0000-0003-4348-3690" xr:uid="{E9AFF3C1-A433-7741-A54F-44C2C489E5C4}"/>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{E3CFFE38-E6D6-714C-8CB2-6C7908765724}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{F2E60514-AAF2-A440-AE6A-F3B7A800911F}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{B079DF0E-018E-9341-8C9C-61E8233F15E0}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{1AC7D81A-6207-0940-9797-1B54146D29C9}"/>
+    <hyperlink ref="G13" r:id="rId5" display="https://orcid.org/0000-0001-6769-1983" xr:uid="{C44E8F08-6368-D74F-B1B2-A27AC4441576}"/>
+    <hyperlink ref="G12" r:id="rId6" display="https://orcid.org/0000-0003-2477-6869" xr:uid="{0489100D-EEF4-B949-AEFF-A6A4DC402620}"/>
+    <hyperlink ref="E21" r:id="rId7" xr:uid="{5F4E651F-562B-E24E-9CD1-9B3C1936C245}"/>
+    <hyperlink ref="E23" r:id="rId8" xr:uid="{F1125717-1141-4D42-A3A9-699125D01684}"/>
+    <hyperlink ref="E22" r:id="rId9" xr:uid="{1F332E72-AFB1-6744-B32C-C21F6FEBAA6E}"/>
+    <hyperlink ref="G21" r:id="rId10" display="https://orcid.org/0000-0002-1381-253X" xr:uid="{8EAB4384-125C-1B4B-BE58-8509C671817B}"/>
+    <hyperlink ref="E24" r:id="rId11" xr:uid="{87A5E650-E56F-F44A-8B6D-3500B47533C8}"/>
+    <hyperlink ref="E25" r:id="rId12" xr:uid="{BD2ECD0E-F5A3-804E-99C9-70ABA0785192}"/>
+    <hyperlink ref="G24" r:id="rId13" display="https://orcid.org/0000-0003-0951-780X" xr:uid="{DDA7CB87-9DEF-444A-B5E5-4DA5387FEAE7}"/>
+    <hyperlink ref="G25" r:id="rId14" display="https://orcid.org/0009-0007-7565-9714" xr:uid="{C3278E97-D66C-C04F-A534-F2DCF73A26A5}"/>
+    <hyperlink ref="E27" r:id="rId15" xr:uid="{A72A8784-3E65-CD4A-9CEA-D6821E18F4F0}"/>
+    <hyperlink ref="G26" r:id="rId16" display="https://orcid.org/0000-0003-4348-3690" xr:uid="{E9AFF3C1-A433-7741-A54F-44C2C489E5C4}"/>
     <hyperlink ref="E2" r:id="rId17" xr:uid="{632BF422-FA2D-144A-9443-DEA9263E44B9}"/>
-    <hyperlink ref="G23" r:id="rId18" display="https://orcid.org/0000-0002-8726-306X" xr:uid="{84D128EF-A321-C14C-9A6C-47FF211C7B25}"/>
-    <hyperlink ref="E24" r:id="rId19" xr:uid="{CAB810DD-1FD3-D84E-B12A-6B1D1E12C04D}"/>
-    <hyperlink ref="G24" r:id="rId20" display="http://orcid.org/0000-0003-3535-7635" xr:uid="{E4794437-B59F-DB4C-B151-F9DDAECC9286}"/>
-    <hyperlink ref="E25" r:id="rId21" xr:uid="{E1B39D4A-FBDF-AB42-AFEC-5C4DBDFAE8A7}"/>
-    <hyperlink ref="G25" r:id="rId22" display="https://orcid.org/0000-0001-7604-0189" xr:uid="{4339A64C-035B-6245-919A-A8374AC5693D}"/>
-    <hyperlink ref="G26" r:id="rId23" display="https://orcid.org/0000-0001-7055-4701" xr:uid="{767A7D54-6548-E84D-981B-2EBD5369EDFF}"/>
-    <hyperlink ref="E27" r:id="rId24" xr:uid="{5E51343F-FF89-F14E-9FE3-8814A36D3C70}"/>
-    <hyperlink ref="E29" r:id="rId25" xr:uid="{A027007D-B16C-2D4A-A8C6-EE858E3A1D33}"/>
-    <hyperlink ref="E28" r:id="rId26" xr:uid="{DC6269BB-3246-D949-BC02-C59C24825789}"/>
-    <hyperlink ref="E30" r:id="rId27" xr:uid="{F9219FC4-650D-A647-94A8-FBD0AA56CFB7}"/>
-    <hyperlink ref="E31" r:id="rId28" xr:uid="{53118788-31F1-0149-8A20-F71DC03A8C9E}"/>
-    <hyperlink ref="E32" r:id="rId29" xr:uid="{6674C05C-673B-944F-98AB-75A0E6DAD5D7}"/>
-    <hyperlink ref="E33" r:id="rId30" xr:uid="{1E6CE376-85BC-EA4A-910D-DE1116AE6626}"/>
-    <hyperlink ref="E34" r:id="rId31" xr:uid="{8EE7483F-11FE-1248-B139-1CACB6186AA8}"/>
-    <hyperlink ref="E35" r:id="rId32" xr:uid="{77795DE8-0FC2-7341-81B6-278D1A2C4C8C}"/>
-    <hyperlink ref="E36" r:id="rId33" display="mailto:manon.de.deyne@vub.be" xr:uid="{AA5027B5-300A-F74C-B55B-E65732A75CDC}"/>
-    <hyperlink ref="E37" r:id="rId34" xr:uid="{C7E7CDCA-035E-1E4D-8532-EBEF677A2F25}"/>
-    <hyperlink ref="G37" r:id="rId35" display="https://orcid.org/0000-0002-1370-2090" xr:uid="{03A1AF0E-1F44-4940-A09A-56AB0017FB99}"/>
-    <hyperlink ref="E38" r:id="rId36" xr:uid="{1B1D269B-6E40-9748-A5C1-2D0CBA515977}"/>
-    <hyperlink ref="G38" r:id="rId37" display="https://orcid.org/0000-0001-9521-8085" xr:uid="{E54A6775-6C19-3A4B-BB48-482DD27FEE2E}"/>
-    <hyperlink ref="E39" r:id="rId38" xr:uid="{10759E79-85C3-DE40-8D6A-6C833FE92CB4}"/>
-    <hyperlink ref="G41" r:id="rId39" display="https://orcid.org/0000-0002-4202-4655" xr:uid="{848147C0-A9CA-E642-883A-ABE0683BC099}"/>
-    <hyperlink ref="E41" r:id="rId40" xr:uid="{1F029844-97BD-AA4C-B9EC-4978EC0229B0}"/>
-    <hyperlink ref="E42" r:id="rId41" xr:uid="{48E273F6-ED98-9A4D-B926-3360708B7FC2}"/>
-    <hyperlink ref="E43" r:id="rId42" xr:uid="{AF1B887C-35B7-8E4D-91D8-29E3CA5ACE86}"/>
-    <hyperlink ref="E44" r:id="rId43" xr:uid="{D9F36DA3-D0B7-7E42-85A4-528353BCA0E2}"/>
+    <hyperlink ref="G28" r:id="rId18" display="https://orcid.org/0000-0002-8726-306X" xr:uid="{84D128EF-A321-C14C-9A6C-47FF211C7B25}"/>
+    <hyperlink ref="E29" r:id="rId19" xr:uid="{CAB810DD-1FD3-D84E-B12A-6B1D1E12C04D}"/>
+    <hyperlink ref="G29" r:id="rId20" display="http://orcid.org/0000-0003-3535-7635" xr:uid="{E4794437-B59F-DB4C-B151-F9DDAECC9286}"/>
+    <hyperlink ref="E30" r:id="rId21" xr:uid="{E1B39D4A-FBDF-AB42-AFEC-5C4DBDFAE8A7}"/>
+    <hyperlink ref="G30" r:id="rId22" display="https://orcid.org/0000-0001-7604-0189" xr:uid="{4339A64C-035B-6245-919A-A8374AC5693D}"/>
+    <hyperlink ref="G31" r:id="rId23" display="https://orcid.org/0000-0001-7055-4701" xr:uid="{767A7D54-6548-E84D-981B-2EBD5369EDFF}"/>
+    <hyperlink ref="E32" r:id="rId24" xr:uid="{5E51343F-FF89-F14E-9FE3-8814A36D3C70}"/>
+    <hyperlink ref="E34" r:id="rId25" xr:uid="{A027007D-B16C-2D4A-A8C6-EE858E3A1D33}"/>
+    <hyperlink ref="E33" r:id="rId26" xr:uid="{DC6269BB-3246-D949-BC02-C59C24825789}"/>
+    <hyperlink ref="E35" r:id="rId27" xr:uid="{F9219FC4-650D-A647-94A8-FBD0AA56CFB7}"/>
+    <hyperlink ref="E36" r:id="rId28" xr:uid="{53118788-31F1-0149-8A20-F71DC03A8C9E}"/>
+    <hyperlink ref="E37" r:id="rId29" xr:uid="{6674C05C-673B-944F-98AB-75A0E6DAD5D7}"/>
+    <hyperlink ref="E38" r:id="rId30" xr:uid="{1E6CE376-85BC-EA4A-910D-DE1116AE6626}"/>
+    <hyperlink ref="E39" r:id="rId31" xr:uid="{8EE7483F-11FE-1248-B139-1CACB6186AA8}"/>
+    <hyperlink ref="E40" r:id="rId32" xr:uid="{77795DE8-0FC2-7341-81B6-278D1A2C4C8C}"/>
+    <hyperlink ref="E41" r:id="rId33" display="mailto:manon.de.deyne@vub.be" xr:uid="{AA5027B5-300A-F74C-B55B-E65732A75CDC}"/>
+    <hyperlink ref="E42" r:id="rId34" xr:uid="{C7E7CDCA-035E-1E4D-8532-EBEF677A2F25}"/>
+    <hyperlink ref="G42" r:id="rId35" display="https://orcid.org/0000-0002-1370-2090" xr:uid="{03A1AF0E-1F44-4940-A09A-56AB0017FB99}"/>
+    <hyperlink ref="E43" r:id="rId36" xr:uid="{1B1D269B-6E40-9748-A5C1-2D0CBA515977}"/>
+    <hyperlink ref="G43" r:id="rId37" display="https://orcid.org/0000-0001-9521-8085" xr:uid="{E54A6775-6C19-3A4B-BB48-482DD27FEE2E}"/>
+    <hyperlink ref="E44" r:id="rId38" xr:uid="{10759E79-85C3-DE40-8D6A-6C833FE92CB4}"/>
+    <hyperlink ref="G46" r:id="rId39" display="https://orcid.org/0000-0002-4202-4655" xr:uid="{848147C0-A9CA-E642-883A-ABE0683BC099}"/>
+    <hyperlink ref="E46" r:id="rId40" xr:uid="{1F029844-97BD-AA4C-B9EC-4978EC0229B0}"/>
+    <hyperlink ref="E47" r:id="rId41" xr:uid="{48E273F6-ED98-9A4D-B926-3360708B7FC2}"/>
+    <hyperlink ref="E48" r:id="rId42" xr:uid="{AF1B887C-35B7-8E4D-91D8-29E3CA5ACE86}"/>
+    <hyperlink ref="E49" r:id="rId43" xr:uid="{D9F36DA3-D0B7-7E42-85A4-528353BCA0E2}"/>
+    <hyperlink ref="E7" r:id="rId44" xr:uid="{40ED56F6-B773-AE47-ADE5-D486624FA922}"/>
+    <hyperlink ref="E6" r:id="rId45" xr:uid="{BFBCA679-676B-2142-9CF7-90BEE47AEF3C}"/>
+    <hyperlink ref="E5" r:id="rId46" xr:uid="{E288DD64-BDB2-F34C-8BDF-186D74BFA64F}"/>
+    <hyperlink ref="E3" r:id="rId47" xr:uid="{2D45CCE2-CA40-9942-AE5E-A35107A86068}"/>
+    <hyperlink ref="E4" r:id="rId48" xr:uid="{0DE5FBF5-CA34-7D4F-8638-16D4532F099F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16359,7 +16520,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="119">
+    <row r="11" spans="1:6" ht="102">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -17168,7 +17329,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="34" customFormat="1" ht="119">
+    <row r="2" spans="1:5" s="34" customFormat="1" ht="102">
       <c r="A2" s="23" t="s">
         <v>405</v>
       </c>
@@ -17389,7 +17550,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="102">
+    <row r="15" spans="1:5" ht="85">
       <c r="A15" s="23" t="s">
         <v>361</v>
       </c>
@@ -17766,7 +17927,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="119">
+    <row r="9" spans="1:5" ht="102">
       <c r="A9" s="41" t="s">
         <v>527</v>
       </c>
@@ -18552,7 +18713,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="96" thickBot="1">
+    <row r="27" spans="1:5" ht="77" thickBot="1">
       <c r="A27" s="57" t="s">
         <v>597</v>
       </c>
@@ -19324,7 +19485,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="102">
+    <row r="15" spans="1:5" ht="85">
       <c r="A15" s="23" t="s">
         <v>875</v>
       </c>
@@ -19409,7 +19570,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="85">
+    <row r="20" spans="1:5" ht="68">
       <c r="A20" s="23" t="s">
         <v>875</v>
       </c>
@@ -19426,7 +19587,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="114">
+    <row r="21" spans="1:5" ht="95">
       <c r="A21" s="23" t="s">
         <v>875</v>
       </c>
@@ -19511,7 +19672,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="136">
+    <row r="26" spans="1:5" ht="119">
       <c r="A26" s="23" t="s">
         <v>831</v>
       </c>

--- a/assets/LadenburgConsensuStatements.xlsx
+++ b/assets/LadenburgConsensuStatements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mspitschan/Projects/LadenburgConsensusStatements/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A22C67-6159-5848-8EFF-CDAC9F4AEF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1A86B6-749A-A242-A218-22E042E258AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="880" windowWidth="17540" windowHeight="22500" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="880" windowWidth="17540" windowHeight="22500" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="4" r:id="rId1"/>
@@ -8495,7 +8495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8831,7 +8831,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8846,7 +8845,6 @@
     <xf numFmtId="0" fontId="73" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -13672,7 +13670,7 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="134.5" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" customWidth="1"/>
-    <col min="5" max="5" width="55" style="133" customWidth="1"/>
+    <col min="5" max="5" width="55" style="132" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -13693,444 +13691,444 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="34" customFormat="1" ht="19">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="135" t="s">
         <v>1356</v>
       </c>
       <c r="B2" s="33">
         <v>1</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="133" t="s">
         <v>1371</v>
       </c>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="133" t="s">
         <v>1370</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="133" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="135" t="s">
         <v>1356</v>
       </c>
       <c r="B3" s="33">
         <v>2</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="136" t="s">
         <v>1368</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="133" t="s">
         <v>1367</v>
       </c>
-      <c r="E3" s="134" t="s">
+      <c r="E3" s="133" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="135" t="s">
         <v>1356</v>
       </c>
       <c r="B4" s="33">
         <v>3</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="134" t="s">
         <v>1365</v>
       </c>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="133" t="s">
         <v>1364</v>
       </c>
-      <c r="E4" s="134" t="s">
+      <c r="E4" s="133" t="s">
         <v>1363</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="135" t="s">
         <v>1356</v>
       </c>
       <c r="B5" s="31">
         <v>4</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="134" t="s">
         <v>1362</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="133" t="s">
         <v>1361</v>
       </c>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="133" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="135" t="s">
         <v>1356</v>
       </c>
       <c r="B6" s="31">
         <v>5</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="134" t="s">
         <v>1359</v>
       </c>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="133" t="s">
         <v>1358</v>
       </c>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="133" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="135" t="s">
         <v>1356</v>
       </c>
       <c r="B7" s="31">
         <v>6</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="134" t="s">
         <v>1355</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="133" t="s">
         <v>1354</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="133" t="s">
         <v>1353</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="135" t="s">
         <v>1347</v>
       </c>
       <c r="B8" s="31">
         <v>7</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="134" t="s">
         <v>1352</v>
       </c>
-      <c r="D8" s="134" t="s">
+      <c r="D8" s="133" t="s">
         <v>1351</v>
       </c>
-      <c r="E8" s="134" t="s">
+      <c r="E8" s="133" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="135" t="s">
         <v>1347</v>
       </c>
       <c r="B9" s="31">
         <v>8</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="134" t="s">
         <v>1349</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="133" t="s">
         <v>1349</v>
       </c>
-      <c r="E9" s="134" t="s">
+      <c r="E9" s="133" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="135" t="s">
         <v>1347</v>
       </c>
       <c r="B10" s="31">
         <v>9</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="134" t="s">
         <v>1346</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="133" t="s">
         <v>1346</v>
       </c>
-      <c r="E10" s="134" t="s">
+      <c r="E10" s="133" t="s">
         <v>1345</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="135" t="s">
         <v>1316</v>
       </c>
       <c r="B11" s="31">
         <v>10</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="134" t="s">
         <v>1344</v>
       </c>
-      <c r="D11" s="134" t="s">
+      <c r="D11" s="133" t="s">
         <v>1343</v>
       </c>
-      <c r="E11" s="134" t="s">
+      <c r="E11" s="133" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="135" t="s">
         <v>1316</v>
       </c>
       <c r="B12" s="31">
         <v>11</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="134" t="s">
         <v>1341</v>
       </c>
-      <c r="D12" s="134" t="s">
+      <c r="D12" s="133" t="s">
         <v>1340</v>
       </c>
-      <c r="E12" s="134" t="s">
+      <c r="E12" s="133" t="s">
         <v>1339</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="135" t="s">
         <v>1316</v>
       </c>
       <c r="B13" s="31">
         <v>12</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="134" t="s">
         <v>1338</v>
       </c>
-      <c r="D13" s="134" t="s">
+      <c r="D13" s="133" t="s">
         <v>1337</v>
       </c>
-      <c r="E13" s="134" t="s">
+      <c r="E13" s="133" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20">
-      <c r="A14" s="136" t="s">
+      <c r="A14" s="135" t="s">
         <v>1316</v>
       </c>
       <c r="B14" s="31">
         <v>13</v>
       </c>
-      <c r="C14" s="135" t="s">
+      <c r="C14" s="134" t="s">
         <v>1335</v>
       </c>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="133" t="s">
         <v>1334</v>
       </c>
-      <c r="E14" s="134" t="s">
+      <c r="E14" s="133" t="s">
         <v>1333</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="135" t="s">
         <v>1316</v>
       </c>
       <c r="B15" s="31">
         <v>14</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="134" t="s">
         <v>1332</v>
       </c>
-      <c r="D15" s="134" t="s">
+      <c r="D15" s="133" t="s">
         <v>1331</v>
       </c>
-      <c r="E15" s="134" t="s">
+      <c r="E15" s="133" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="135" t="s">
         <v>1316</v>
       </c>
       <c r="B16" s="31">
         <v>15</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="134" t="s">
         <v>1329</v>
       </c>
-      <c r="D16" s="134" t="s">
+      <c r="D16" s="133" t="s">
         <v>1328</v>
       </c>
-      <c r="E16" s="134" t="s">
+      <c r="E16" s="133" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="136" t="s">
+      <c r="A17" s="135" t="s">
         <v>1316</v>
       </c>
       <c r="B17" s="31">
         <v>16</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="134" t="s">
         <v>1327</v>
       </c>
-      <c r="D17" s="134" t="s">
+      <c r="D17" s="133" t="s">
         <v>1326</v>
       </c>
-      <c r="E17" s="134" t="s">
+      <c r="E17" s="133" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19">
-      <c r="A18" s="136" t="s">
+      <c r="A18" s="135" t="s">
         <v>1316</v>
       </c>
       <c r="B18" s="31">
         <v>17</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="134" t="s">
         <v>1325</v>
       </c>
-      <c r="D18" s="134" t="s">
+      <c r="D18" s="133" t="s">
         <v>1324</v>
       </c>
-      <c r="E18" s="134" t="s">
+      <c r="E18" s="133" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19">
-      <c r="A19" s="136" t="s">
+      <c r="A19" s="135" t="s">
         <v>1316</v>
       </c>
       <c r="B19" s="31">
         <v>18</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="134" t="s">
         <v>1322</v>
       </c>
-      <c r="D19" s="134" t="s">
+      <c r="D19" s="133" t="s">
         <v>1321</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="133" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19">
-      <c r="A20" s="136" t="s">
+      <c r="A20" s="135" t="s">
         <v>1316</v>
       </c>
       <c r="B20" s="31">
         <v>19</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="134" t="s">
         <v>1319</v>
       </c>
-      <c r="D20" s="134" t="s">
+      <c r="D20" s="133" t="s">
         <v>1318</v>
       </c>
-      <c r="E20" s="134" t="s">
+      <c r="E20" s="133" t="s">
         <v>1317</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="135" t="s">
         <v>1316</v>
       </c>
       <c r="B21" s="31">
         <v>20</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="134" t="s">
         <v>1315</v>
       </c>
-      <c r="D21" s="134" t="s">
+      <c r="D21" s="133" t="s">
         <v>1314</v>
       </c>
-      <c r="E21" s="134" t="s">
+      <c r="E21" s="133" t="s">
         <v>1313</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19">
-      <c r="A22" s="136" t="s">
+      <c r="A22" s="135" t="s">
         <v>1306</v>
       </c>
       <c r="B22" s="31">
         <v>21</v>
       </c>
-      <c r="C22" s="135" t="s">
+      <c r="C22" s="134" t="s">
         <v>1312</v>
       </c>
-      <c r="D22" s="134" t="s">
+      <c r="D22" s="133" t="s">
         <v>1311</v>
       </c>
-      <c r="E22" s="134" t="s">
+      <c r="E22" s="133" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19">
-      <c r="A23" s="136" t="s">
+      <c r="A23" s="135" t="s">
         <v>1306</v>
       </c>
       <c r="B23" s="31">
         <v>22</v>
       </c>
-      <c r="C23" s="135" t="s">
+      <c r="C23" s="134" t="s">
         <v>1309</v>
       </c>
-      <c r="D23" s="134" t="s">
+      <c r="D23" s="133" t="s">
         <v>1308</v>
       </c>
-      <c r="E23" s="134" t="s">
+      <c r="E23" s="133" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19">
-      <c r="A24" s="136" t="s">
+      <c r="A24" s="135" t="s">
         <v>1306</v>
       </c>
       <c r="B24" s="31">
         <v>23</v>
       </c>
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="134" t="s">
         <v>1305</v>
       </c>
-      <c r="D24" s="134" t="s">
+      <c r="D24" s="133" t="s">
         <v>1304</v>
       </c>
-      <c r="E24" s="134" t="s">
+      <c r="E24" s="133" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19">
-      <c r="A25" s="136" t="s">
+      <c r="A25" s="135" t="s">
         <v>1295</v>
       </c>
       <c r="B25" s="31">
         <v>24</v>
       </c>
-      <c r="C25" s="135" t="s">
+      <c r="C25" s="134" t="s">
         <v>1302</v>
       </c>
-      <c r="D25" s="134" t="s">
+      <c r="D25" s="133" t="s">
         <v>1301</v>
       </c>
-      <c r="E25" s="134" t="s">
+      <c r="E25" s="133" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19">
-      <c r="A26" s="136" t="s">
+      <c r="A26" s="135" t="s">
         <v>1299</v>
       </c>
       <c r="B26" s="31">
         <v>25</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C26" s="134" t="s">
         <v>1298</v>
       </c>
-      <c r="D26" s="134" t="s">
+      <c r="D26" s="133" t="s">
         <v>1297</v>
       </c>
-      <c r="E26" s="134" t="s">
+      <c r="E26" s="133" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" thickBot="1">
-      <c r="A27" s="136" t="s">
+      <c r="A27" s="135" t="s">
         <v>1295</v>
       </c>
       <c r="B27" s="28">
         <v>26</v>
       </c>
-      <c r="C27" s="135" t="s">
+      <c r="C27" s="134" t="s">
         <v>1294</v>
       </c>
-      <c r="D27" s="134" t="s">
+      <c r="D27" s="133" t="s">
         <v>1293</v>
       </c>
-      <c r="E27" s="134" t="s">
+      <c r="E27" s="133" t="s">
         <v>1292</v>
       </c>
     </row>
@@ -14152,7 +14150,7 @@
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="4" width="42.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" style="133" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="132" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14710,7 +14708,7 @@
       <c r="K2" s="72" t="s">
         <v>1178</v>
       </c>
-      <c r="L2" s="132" t="s">
+      <c r="L2" s="131" t="s">
         <v>1287</v>
       </c>
       <c r="M2" s="23" t="s">
@@ -14751,7 +14749,7 @@
       <c r="K3" s="72" t="s">
         <v>1179</v>
       </c>
-      <c r="L3" s="132" t="s">
+      <c r="L3" s="131" t="s">
         <v>1288</v>
       </c>
       <c r="M3" s="23" t="s">
@@ -14792,7 +14790,7 @@
       <c r="K4" s="72" t="s">
         <v>1180</v>
       </c>
-      <c r="L4" s="132" t="s">
+      <c r="L4" s="131" t="s">
         <v>1289</v>
       </c>
       <c r="M4" s="23" t="s">
@@ -14833,7 +14831,7 @@
       <c r="K5" s="72" t="s">
         <v>1181</v>
       </c>
-      <c r="L5" s="132" t="s">
+      <c r="L5" s="131" t="s">
         <v>1290</v>
       </c>
       <c r="M5" s="23" t="s">
@@ -14874,7 +14872,7 @@
       <c r="K6" s="72" t="s">
         <v>1182</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="131" t="s">
         <v>1291</v>
       </c>
       <c r="M6" s="23" t="s">
@@ -14891,7 +14889,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14928,10 +14926,10 @@
         <v>160</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>587</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>588</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>428</v>
@@ -14951,15 +14949,15 @@
         <v>160</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>1066</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>1065</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="E3" s="131" t="s">
+      <c r="E3" s="46" t="s">
         <v>1481</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -14974,15 +14972,15 @@
         <v>160</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>448</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>447</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="E4" s="131" t="s">
+      <c r="E4" s="46" t="s">
         <v>449</v>
       </c>
       <c r="F4" s="22" t="s">
@@ -14997,18 +14995,18 @@
         <v>160</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>1090</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>1476</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="E5" s="131" t="s">
+      <c r="E5" s="46" t="s">
         <v>1091</v>
       </c>
-      <c r="F5" s="138" t="s">
+      <c r="F5" t="s">
         <v>1471</v>
       </c>
       <c r="G5" s="22" t="s">
@@ -15020,15 +15018,15 @@
         <v>160</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>1477</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>1478</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="131" t="s">
+      <c r="E6" s="46" t="s">
         <v>1480</v>
       </c>
       <c r="F6" t="s">
@@ -15043,15 +15041,15 @@
         <v>160</v>
       </c>
       <c r="B7" s="22" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>1474</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>1475</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="E7" s="131" t="s">
+      <c r="E7" s="46" t="s">
         <v>1479</v>
       </c>
       <c r="F7" t="s">
@@ -15942,13 +15940,13 @@
       <c r="D46" s="130" t="s">
         <v>1279</v>
       </c>
-      <c r="E46" s="131" t="s">
+      <c r="E46" s="46" t="s">
         <v>1280</v>
       </c>
       <c r="F46" s="130" t="s">
         <v>1281</v>
       </c>
-      <c r="G46" s="131" t="s">
+      <c r="G46" s="46" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -15963,7 +15961,7 @@
         <v>1283</v>
       </c>
       <c r="D47" s="130"/>
-      <c r="E47" s="131" t="s">
+      <c r="E47" s="46" t="s">
         <v>1284</v>
       </c>
       <c r="F47" s="130" t="s">
